--- a/src/main/resources/hca-template/建（构）筑物模板.xlsx
+++ b/src/main/resources/hca-template/建（构）筑物模板.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="建（构）筑物" sheetId="2" r:id="rId1"/>
-    <sheet name="excelHideSheet" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="填写说明" sheetId="5" r:id="rId2"/>
+    <sheet name="excelHideSheet" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="hca_buildings.building_distribution">[1]excelHideSheet!$A$2:$A$3</definedName>
-    <definedName name="hca_buildings.building_type">[1]excelHideSheet!$B$2:$B$25</definedName>
+    <definedName name="hca_buildings.building_distribution">excelHideSheet!$A$2:$A$3</definedName>
+    <definedName name="hca_buildings.building_type">excelHideSheet!$B$2:$B$25</definedName>
+    <definedName name="非特定场所">excelHideSheet!$B$2:$B$8</definedName>
+    <definedName name="特定场所">excelHideSheet!$C$2:$C$17</definedName>
+    <definedName name="易燃易爆场所">excelHideSheet!$D$2:$D$5</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>户数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,9 +49,6 @@
     </r>
   </si>
   <si>
-    <t>建筑分布</t>
-  </si>
-  <si>
     <t>人口</t>
   </si>
   <si>
@@ -68,9 +66,6 @@
     <t>hca_buildings.building_distribution</t>
   </si>
   <si>
-    <t>hca_buildings.building_type</t>
-  </si>
-  <si>
     <t>四层及四层以上建筑为主</t>
   </si>
   <si>
@@ -80,76 +75,389 @@
     <t>四层以下建筑为主</t>
   </si>
   <si>
+    <t>监狱</t>
+  </si>
+  <si>
+    <t>养老院</t>
+  </si>
+  <si>
+    <t>幼儿园</t>
+  </si>
+  <si>
+    <t>托儿所</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>非特定场所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定场所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立民居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易燃易爆场所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市郊居民区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加气站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸药库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集贸市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寺庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>广场</t>
-  </si>
-  <si>
-    <t>规划区</t>
-  </si>
-  <si>
-    <t>运动场</t>
-  </si>
-  <si>
-    <t>工业区</t>
-  </si>
-  <si>
-    <t>寺庙</t>
-  </si>
-  <si>
-    <t>商业区</t>
-  </si>
-  <si>
-    <t>居民区</t>
-  </si>
-  <si>
-    <t>集贸市场</t>
-  </si>
-  <si>
-    <t>商场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐休闲地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露营地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建（构）筑物类别</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建（构）筑物类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建筑分布</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+  </si>
+  <si>
+    <t>标注红星（*）的为必填项。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+  </si>
+  <si>
+    <t>3、</t>
+  </si>
+  <si>
+    <t>4、</t>
+  </si>
+  <si>
+    <t>5、</t>
+  </si>
+  <si>
+    <t>6、</t>
+  </si>
+  <si>
+    <t>7、</t>
+  </si>
+  <si>
+    <t>建（构）筑物信息填表说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非特定场所</t>
+  </si>
+  <si>
+    <t>特定场所</t>
+  </si>
+  <si>
+    <t>易燃易爆场所</t>
+  </si>
+  <si>
+    <r>
+      <t>建（构）筑物编号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建（构）筑物编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：是指的本表格中的记录编号。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>独立民居</t>
   </si>
   <si>
-    <t>工厂</t>
-  </si>
-  <si>
-    <t>炸药库</t>
-  </si>
-  <si>
-    <t>监狱</t>
-  </si>
-  <si>
-    <t>加气站</t>
-  </si>
-  <si>
-    <t>养老院</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建（构）筑物类别：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非特定场所、特定场所、易燃易爆场所。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建（构）筑物类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：{独立民居、居民区、商业区、工业区、工业区、规划区、市郊居民区、其他}非特定场所；
+{医院、学校、托儿所、幼儿园、养老院、监狱、工厂、商场、集贸市场、寺庙、运动场、广场、娱乐休闲地、剧院、露营地、其他}特定场所；
+{加油站、加气站、炸药库、其他}易燃易爆场所。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加油站</t>
   </si>
   <si>
-    <t>幼儿园</t>
-  </si>
-  <si>
-    <t>露营地</t>
-  </si>
-  <si>
-    <t>托儿所</t>
-  </si>
-  <si>
-    <t>剧院</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>娱乐休闲地</t>
-  </si>
-  <si>
-    <t>市郊居民区</t>
-  </si>
-  <si>
-    <t>建（构）筑物类型</t>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四层及四层以上建筑为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四层以下建筑为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建筑分布：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四层及四层以上建筑为主、四层以下建筑为主。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否占压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否占压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：是指建构筑物与管道距离是否小于5米，小于5米即为占压。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采集时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：数据采集时间，格式如：2019/9/8。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否占压</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +514,58 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +578,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -281,11 +644,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
@@ -293,7 +789,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -302,9 +811,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -323,148 +858,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="建（构）筑物"/>
-      <sheetName val="excelHideSheet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>四层及四层以上建筑为主</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>医院</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>四层以下建筑为主</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>广场</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>规划区</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>运动场</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>工业区</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>寺庙</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>商业区</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>居民区</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>集贸市场</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>商场</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>独立民居</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>工厂</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>炸药库</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>监狱</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>加气站</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>养老院</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>加油站</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>幼儿园</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>露营地</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>托儿所</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>剧院</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>学校</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>娱乐休闲地</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>市郊居民区</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,291 +1147,684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="8" width="17.5" style="2" customWidth="1"/>
-    <col min="257" max="264" width="17.5" customWidth="1"/>
-    <col min="513" max="520" width="17.5" customWidth="1"/>
-    <col min="769" max="776" width="17.5" customWidth="1"/>
-    <col min="1025" max="1032" width="17.5" customWidth="1"/>
-    <col min="1281" max="1288" width="17.5" customWidth="1"/>
-    <col min="1537" max="1544" width="17.5" customWidth="1"/>
-    <col min="1793" max="1800" width="17.5" customWidth="1"/>
-    <col min="2049" max="2056" width="17.5" customWidth="1"/>
-    <col min="2305" max="2312" width="17.5" customWidth="1"/>
-    <col min="2561" max="2568" width="17.5" customWidth="1"/>
-    <col min="2817" max="2824" width="17.5" customWidth="1"/>
-    <col min="3073" max="3080" width="17.5" customWidth="1"/>
-    <col min="3329" max="3336" width="17.5" customWidth="1"/>
-    <col min="3585" max="3592" width="17.5" customWidth="1"/>
-    <col min="3841" max="3848" width="17.5" customWidth="1"/>
-    <col min="4097" max="4104" width="17.5" customWidth="1"/>
-    <col min="4353" max="4360" width="17.5" customWidth="1"/>
-    <col min="4609" max="4616" width="17.5" customWidth="1"/>
-    <col min="4865" max="4872" width="17.5" customWidth="1"/>
-    <col min="5121" max="5128" width="17.5" customWidth="1"/>
-    <col min="5377" max="5384" width="17.5" customWidth="1"/>
-    <col min="5633" max="5640" width="17.5" customWidth="1"/>
-    <col min="5889" max="5896" width="17.5" customWidth="1"/>
-    <col min="6145" max="6152" width="17.5" customWidth="1"/>
-    <col min="6401" max="6408" width="17.5" customWidth="1"/>
-    <col min="6657" max="6664" width="17.5" customWidth="1"/>
-    <col min="6913" max="6920" width="17.5" customWidth="1"/>
-    <col min="7169" max="7176" width="17.5" customWidth="1"/>
-    <col min="7425" max="7432" width="17.5" customWidth="1"/>
-    <col min="7681" max="7688" width="17.5" customWidth="1"/>
-    <col min="7937" max="7944" width="17.5" customWidth="1"/>
-    <col min="8193" max="8200" width="17.5" customWidth="1"/>
-    <col min="8449" max="8456" width="17.5" customWidth="1"/>
-    <col min="8705" max="8712" width="17.5" customWidth="1"/>
-    <col min="8961" max="8968" width="17.5" customWidth="1"/>
-    <col min="9217" max="9224" width="17.5" customWidth="1"/>
-    <col min="9473" max="9480" width="17.5" customWidth="1"/>
-    <col min="9729" max="9736" width="17.5" customWidth="1"/>
-    <col min="9985" max="9992" width="17.5" customWidth="1"/>
-    <col min="10241" max="10248" width="17.5" customWidth="1"/>
-    <col min="10497" max="10504" width="17.5" customWidth="1"/>
-    <col min="10753" max="10760" width="17.5" customWidth="1"/>
-    <col min="11009" max="11016" width="17.5" customWidth="1"/>
-    <col min="11265" max="11272" width="17.5" customWidth="1"/>
-    <col min="11521" max="11528" width="17.5" customWidth="1"/>
-    <col min="11777" max="11784" width="17.5" customWidth="1"/>
-    <col min="12033" max="12040" width="17.5" customWidth="1"/>
-    <col min="12289" max="12296" width="17.5" customWidth="1"/>
-    <col min="12545" max="12552" width="17.5" customWidth="1"/>
-    <col min="12801" max="12808" width="17.5" customWidth="1"/>
-    <col min="13057" max="13064" width="17.5" customWidth="1"/>
-    <col min="13313" max="13320" width="17.5" customWidth="1"/>
-    <col min="13569" max="13576" width="17.5" customWidth="1"/>
-    <col min="13825" max="13832" width="17.5" customWidth="1"/>
-    <col min="14081" max="14088" width="17.5" customWidth="1"/>
-    <col min="14337" max="14344" width="17.5" customWidth="1"/>
-    <col min="14593" max="14600" width="17.5" customWidth="1"/>
-    <col min="14849" max="14856" width="17.5" customWidth="1"/>
-    <col min="15105" max="15112" width="17.5" customWidth="1"/>
-    <col min="15361" max="15368" width="17.5" customWidth="1"/>
-    <col min="15617" max="15624" width="17.5" customWidth="1"/>
-    <col min="15873" max="15880" width="17.5" customWidth="1"/>
-    <col min="16129" max="16136" width="17.5" customWidth="1"/>
+    <col min="1" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
+    <col min="5" max="10" width="17.5" style="2" customWidth="1"/>
+    <col min="256" max="263" width="17.5" customWidth="1"/>
+    <col min="512" max="519" width="17.5" customWidth="1"/>
+    <col min="768" max="775" width="17.5" customWidth="1"/>
+    <col min="1024" max="1031" width="17.5" customWidth="1"/>
+    <col min="1280" max="1287" width="17.5" customWidth="1"/>
+    <col min="1536" max="1543" width="17.5" customWidth="1"/>
+    <col min="1792" max="1799" width="17.5" customWidth="1"/>
+    <col min="2048" max="2055" width="17.5" customWidth="1"/>
+    <col min="2304" max="2311" width="17.5" customWidth="1"/>
+    <col min="2560" max="2567" width="17.5" customWidth="1"/>
+    <col min="2816" max="2823" width="17.5" customWidth="1"/>
+    <col min="3072" max="3079" width="17.5" customWidth="1"/>
+    <col min="3328" max="3335" width="17.5" customWidth="1"/>
+    <col min="3584" max="3591" width="17.5" customWidth="1"/>
+    <col min="3840" max="3847" width="17.5" customWidth="1"/>
+    <col min="4096" max="4103" width="17.5" customWidth="1"/>
+    <col min="4352" max="4359" width="17.5" customWidth="1"/>
+    <col min="4608" max="4615" width="17.5" customWidth="1"/>
+    <col min="4864" max="4871" width="17.5" customWidth="1"/>
+    <col min="5120" max="5127" width="17.5" customWidth="1"/>
+    <col min="5376" max="5383" width="17.5" customWidth="1"/>
+    <col min="5632" max="5639" width="17.5" customWidth="1"/>
+    <col min="5888" max="5895" width="17.5" customWidth="1"/>
+    <col min="6144" max="6151" width="17.5" customWidth="1"/>
+    <col min="6400" max="6407" width="17.5" customWidth="1"/>
+    <col min="6656" max="6663" width="17.5" customWidth="1"/>
+    <col min="6912" max="6919" width="17.5" customWidth="1"/>
+    <col min="7168" max="7175" width="17.5" customWidth="1"/>
+    <col min="7424" max="7431" width="17.5" customWidth="1"/>
+    <col min="7680" max="7687" width="17.5" customWidth="1"/>
+    <col min="7936" max="7943" width="17.5" customWidth="1"/>
+    <col min="8192" max="8199" width="17.5" customWidth="1"/>
+    <col min="8448" max="8455" width="17.5" customWidth="1"/>
+    <col min="8704" max="8711" width="17.5" customWidth="1"/>
+    <col min="8960" max="8967" width="17.5" customWidth="1"/>
+    <col min="9216" max="9223" width="17.5" customWidth="1"/>
+    <col min="9472" max="9479" width="17.5" customWidth="1"/>
+    <col min="9728" max="9735" width="17.5" customWidth="1"/>
+    <col min="9984" max="9991" width="17.5" customWidth="1"/>
+    <col min="10240" max="10247" width="17.5" customWidth="1"/>
+    <col min="10496" max="10503" width="17.5" customWidth="1"/>
+    <col min="10752" max="10759" width="17.5" customWidth="1"/>
+    <col min="11008" max="11015" width="17.5" customWidth="1"/>
+    <col min="11264" max="11271" width="17.5" customWidth="1"/>
+    <col min="11520" max="11527" width="17.5" customWidth="1"/>
+    <col min="11776" max="11783" width="17.5" customWidth="1"/>
+    <col min="12032" max="12039" width="17.5" customWidth="1"/>
+    <col min="12288" max="12295" width="17.5" customWidth="1"/>
+    <col min="12544" max="12551" width="17.5" customWidth="1"/>
+    <col min="12800" max="12807" width="17.5" customWidth="1"/>
+    <col min="13056" max="13063" width="17.5" customWidth="1"/>
+    <col min="13312" max="13319" width="17.5" customWidth="1"/>
+    <col min="13568" max="13575" width="17.5" customWidth="1"/>
+    <col min="13824" max="13831" width="17.5" customWidth="1"/>
+    <col min="14080" max="14087" width="17.5" customWidth="1"/>
+    <col min="14336" max="14343" width="17.5" customWidth="1"/>
+    <col min="14592" max="14599" width="17.5" customWidth="1"/>
+    <col min="14848" max="14855" width="17.5" customWidth="1"/>
+    <col min="15104" max="15111" width="17.5" customWidth="1"/>
+    <col min="15360" max="15367" width="17.5" customWidth="1"/>
+    <col min="15616" max="15623" width="17.5" customWidth="1"/>
+    <col min="15872" max="15879" width="17.5" customWidth="1"/>
+    <col min="16128" max="16135" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="数据格式不正确！" sqref="H3:H65536 JD3:JD65536 SZ3:SZ65536 ACV3:ACV65536 AMR3:AMR65536 AWN3:AWN65536 BGJ3:BGJ65536 BQF3:BQF65536 CAB3:CAB65536 CJX3:CJX65536 CTT3:CTT65536 DDP3:DDP65536 DNL3:DNL65536 DXH3:DXH65536 EHD3:EHD65536 EQZ3:EQZ65536 FAV3:FAV65536 FKR3:FKR65536 FUN3:FUN65536 GEJ3:GEJ65536 GOF3:GOF65536 GYB3:GYB65536 HHX3:HHX65536 HRT3:HRT65536 IBP3:IBP65536 ILL3:ILL65536 IVH3:IVH65536 JFD3:JFD65536 JOZ3:JOZ65536 JYV3:JYV65536 KIR3:KIR65536 KSN3:KSN65536 LCJ3:LCJ65536 LMF3:LMF65536 LWB3:LWB65536 MFX3:MFX65536 MPT3:MPT65536 MZP3:MZP65536 NJL3:NJL65536 NTH3:NTH65536 ODD3:ODD65536 OMZ3:OMZ65536 OWV3:OWV65536 PGR3:PGR65536 PQN3:PQN65536 QAJ3:QAJ65536 QKF3:QKF65536 QUB3:QUB65536 RDX3:RDX65536 RNT3:RNT65536 RXP3:RXP65536 SHL3:SHL65536 SRH3:SRH65536 TBD3:TBD65536 TKZ3:TKZ65536 TUV3:TUV65536 UER3:UER65536 UON3:UON65536 UYJ3:UYJ65536 VIF3:VIF65536 VSB3:VSB65536 WBX3:WBX65536 WLT3:WLT65536 WVP3:WVP65536 H65539:H131072 JD65539:JD131072 SZ65539:SZ131072 ACV65539:ACV131072 AMR65539:AMR131072 AWN65539:AWN131072 BGJ65539:BGJ131072 BQF65539:BQF131072 CAB65539:CAB131072 CJX65539:CJX131072 CTT65539:CTT131072 DDP65539:DDP131072 DNL65539:DNL131072 DXH65539:DXH131072 EHD65539:EHD131072 EQZ65539:EQZ131072 FAV65539:FAV131072 FKR65539:FKR131072 FUN65539:FUN131072 GEJ65539:GEJ131072 GOF65539:GOF131072 GYB65539:GYB131072 HHX65539:HHX131072 HRT65539:HRT131072 IBP65539:IBP131072 ILL65539:ILL131072 IVH65539:IVH131072 JFD65539:JFD131072 JOZ65539:JOZ131072 JYV65539:JYV131072 KIR65539:KIR131072 KSN65539:KSN131072 LCJ65539:LCJ131072 LMF65539:LMF131072 LWB65539:LWB131072 MFX65539:MFX131072 MPT65539:MPT131072 MZP65539:MZP131072 NJL65539:NJL131072 NTH65539:NTH131072 ODD65539:ODD131072 OMZ65539:OMZ131072 OWV65539:OWV131072 PGR65539:PGR131072 PQN65539:PQN131072 QAJ65539:QAJ131072 QKF65539:QKF131072 QUB65539:QUB131072 RDX65539:RDX131072 RNT65539:RNT131072 RXP65539:RXP131072 SHL65539:SHL131072 SRH65539:SRH131072 TBD65539:TBD131072 TKZ65539:TKZ131072 TUV65539:TUV131072 UER65539:UER131072 UON65539:UON131072 UYJ65539:UYJ131072 VIF65539:VIF131072 VSB65539:VSB131072 WBX65539:WBX131072 WLT65539:WLT131072 WVP65539:WVP131072 H131075:H196608 JD131075:JD196608 SZ131075:SZ196608 ACV131075:ACV196608 AMR131075:AMR196608 AWN131075:AWN196608 BGJ131075:BGJ196608 BQF131075:BQF196608 CAB131075:CAB196608 CJX131075:CJX196608 CTT131075:CTT196608 DDP131075:DDP196608 DNL131075:DNL196608 DXH131075:DXH196608 EHD131075:EHD196608 EQZ131075:EQZ196608 FAV131075:FAV196608 FKR131075:FKR196608 FUN131075:FUN196608 GEJ131075:GEJ196608 GOF131075:GOF196608 GYB131075:GYB196608 HHX131075:HHX196608 HRT131075:HRT196608 IBP131075:IBP196608 ILL131075:ILL196608 IVH131075:IVH196608 JFD131075:JFD196608 JOZ131075:JOZ196608 JYV131075:JYV196608 KIR131075:KIR196608 KSN131075:KSN196608 LCJ131075:LCJ196608 LMF131075:LMF196608 LWB131075:LWB196608 MFX131075:MFX196608 MPT131075:MPT196608 MZP131075:MZP196608 NJL131075:NJL196608 NTH131075:NTH196608 ODD131075:ODD196608 OMZ131075:OMZ196608 OWV131075:OWV196608 PGR131075:PGR196608 PQN131075:PQN196608 QAJ131075:QAJ196608 QKF131075:QKF196608 QUB131075:QUB196608 RDX131075:RDX196608 RNT131075:RNT196608 RXP131075:RXP196608 SHL131075:SHL196608 SRH131075:SRH196608 TBD131075:TBD196608 TKZ131075:TKZ196608 TUV131075:TUV196608 UER131075:UER196608 UON131075:UON196608 UYJ131075:UYJ196608 VIF131075:VIF196608 VSB131075:VSB196608 WBX131075:WBX196608 WLT131075:WLT196608 WVP131075:WVP196608 H196611:H262144 JD196611:JD262144 SZ196611:SZ262144 ACV196611:ACV262144 AMR196611:AMR262144 AWN196611:AWN262144 BGJ196611:BGJ262144 BQF196611:BQF262144 CAB196611:CAB262144 CJX196611:CJX262144 CTT196611:CTT262144 DDP196611:DDP262144 DNL196611:DNL262144 DXH196611:DXH262144 EHD196611:EHD262144 EQZ196611:EQZ262144 FAV196611:FAV262144 FKR196611:FKR262144 FUN196611:FUN262144 GEJ196611:GEJ262144 GOF196611:GOF262144 GYB196611:GYB262144 HHX196611:HHX262144 HRT196611:HRT262144 IBP196611:IBP262144 ILL196611:ILL262144 IVH196611:IVH262144 JFD196611:JFD262144 JOZ196611:JOZ262144 JYV196611:JYV262144 KIR196611:KIR262144 KSN196611:KSN262144 LCJ196611:LCJ262144 LMF196611:LMF262144 LWB196611:LWB262144 MFX196611:MFX262144 MPT196611:MPT262144 MZP196611:MZP262144 NJL196611:NJL262144 NTH196611:NTH262144 ODD196611:ODD262144 OMZ196611:OMZ262144 OWV196611:OWV262144 PGR196611:PGR262144 PQN196611:PQN262144 QAJ196611:QAJ262144 QKF196611:QKF262144 QUB196611:QUB262144 RDX196611:RDX262144 RNT196611:RNT262144 RXP196611:RXP262144 SHL196611:SHL262144 SRH196611:SRH262144 TBD196611:TBD262144 TKZ196611:TKZ262144 TUV196611:TUV262144 UER196611:UER262144 UON196611:UON262144 UYJ196611:UYJ262144 VIF196611:VIF262144 VSB196611:VSB262144 WBX196611:WBX262144 WLT196611:WLT262144 WVP196611:WVP262144 H262147:H327680 JD262147:JD327680 SZ262147:SZ327680 ACV262147:ACV327680 AMR262147:AMR327680 AWN262147:AWN327680 BGJ262147:BGJ327680 BQF262147:BQF327680 CAB262147:CAB327680 CJX262147:CJX327680 CTT262147:CTT327680 DDP262147:DDP327680 DNL262147:DNL327680 DXH262147:DXH327680 EHD262147:EHD327680 EQZ262147:EQZ327680 FAV262147:FAV327680 FKR262147:FKR327680 FUN262147:FUN327680 GEJ262147:GEJ327680 GOF262147:GOF327680 GYB262147:GYB327680 HHX262147:HHX327680 HRT262147:HRT327680 IBP262147:IBP327680 ILL262147:ILL327680 IVH262147:IVH327680 JFD262147:JFD327680 JOZ262147:JOZ327680 JYV262147:JYV327680 KIR262147:KIR327680 KSN262147:KSN327680 LCJ262147:LCJ327680 LMF262147:LMF327680 LWB262147:LWB327680 MFX262147:MFX327680 MPT262147:MPT327680 MZP262147:MZP327680 NJL262147:NJL327680 NTH262147:NTH327680 ODD262147:ODD327680 OMZ262147:OMZ327680 OWV262147:OWV327680 PGR262147:PGR327680 PQN262147:PQN327680 QAJ262147:QAJ327680 QKF262147:QKF327680 QUB262147:QUB327680 RDX262147:RDX327680 RNT262147:RNT327680 RXP262147:RXP327680 SHL262147:SHL327680 SRH262147:SRH327680 TBD262147:TBD327680 TKZ262147:TKZ327680 TUV262147:TUV327680 UER262147:UER327680 UON262147:UON327680 UYJ262147:UYJ327680 VIF262147:VIF327680 VSB262147:VSB327680 WBX262147:WBX327680 WLT262147:WLT327680 WVP262147:WVP327680 H327683:H393216 JD327683:JD393216 SZ327683:SZ393216 ACV327683:ACV393216 AMR327683:AMR393216 AWN327683:AWN393216 BGJ327683:BGJ393216 BQF327683:BQF393216 CAB327683:CAB393216 CJX327683:CJX393216 CTT327683:CTT393216 DDP327683:DDP393216 DNL327683:DNL393216 DXH327683:DXH393216 EHD327683:EHD393216 EQZ327683:EQZ393216 FAV327683:FAV393216 FKR327683:FKR393216 FUN327683:FUN393216 GEJ327683:GEJ393216 GOF327683:GOF393216 GYB327683:GYB393216 HHX327683:HHX393216 HRT327683:HRT393216 IBP327683:IBP393216 ILL327683:ILL393216 IVH327683:IVH393216 JFD327683:JFD393216 JOZ327683:JOZ393216 JYV327683:JYV393216 KIR327683:KIR393216 KSN327683:KSN393216 LCJ327683:LCJ393216 LMF327683:LMF393216 LWB327683:LWB393216 MFX327683:MFX393216 MPT327683:MPT393216 MZP327683:MZP393216 NJL327683:NJL393216 NTH327683:NTH393216 ODD327683:ODD393216 OMZ327683:OMZ393216 OWV327683:OWV393216 PGR327683:PGR393216 PQN327683:PQN393216 QAJ327683:QAJ393216 QKF327683:QKF393216 QUB327683:QUB393216 RDX327683:RDX393216 RNT327683:RNT393216 RXP327683:RXP393216 SHL327683:SHL393216 SRH327683:SRH393216 TBD327683:TBD393216 TKZ327683:TKZ393216 TUV327683:TUV393216 UER327683:UER393216 UON327683:UON393216 UYJ327683:UYJ393216 VIF327683:VIF393216 VSB327683:VSB393216 WBX327683:WBX393216 WLT327683:WLT393216 WVP327683:WVP393216 H393219:H458752 JD393219:JD458752 SZ393219:SZ458752 ACV393219:ACV458752 AMR393219:AMR458752 AWN393219:AWN458752 BGJ393219:BGJ458752 BQF393219:BQF458752 CAB393219:CAB458752 CJX393219:CJX458752 CTT393219:CTT458752 DDP393219:DDP458752 DNL393219:DNL458752 DXH393219:DXH458752 EHD393219:EHD458752 EQZ393219:EQZ458752 FAV393219:FAV458752 FKR393219:FKR458752 FUN393219:FUN458752 GEJ393219:GEJ458752 GOF393219:GOF458752 GYB393219:GYB458752 HHX393219:HHX458752 HRT393219:HRT458752 IBP393219:IBP458752 ILL393219:ILL458752 IVH393219:IVH458752 JFD393219:JFD458752 JOZ393219:JOZ458752 JYV393219:JYV458752 KIR393219:KIR458752 KSN393219:KSN458752 LCJ393219:LCJ458752 LMF393219:LMF458752 LWB393219:LWB458752 MFX393219:MFX458752 MPT393219:MPT458752 MZP393219:MZP458752 NJL393219:NJL458752 NTH393219:NTH458752 ODD393219:ODD458752 OMZ393219:OMZ458752 OWV393219:OWV458752 PGR393219:PGR458752 PQN393219:PQN458752 QAJ393219:QAJ458752 QKF393219:QKF458752 QUB393219:QUB458752 RDX393219:RDX458752 RNT393219:RNT458752 RXP393219:RXP458752 SHL393219:SHL458752 SRH393219:SRH458752 TBD393219:TBD458752 TKZ393219:TKZ458752 TUV393219:TUV458752 UER393219:UER458752 UON393219:UON458752 UYJ393219:UYJ458752 VIF393219:VIF458752 VSB393219:VSB458752 WBX393219:WBX458752 WLT393219:WLT458752 WVP393219:WVP458752 H458755:H524288 JD458755:JD524288 SZ458755:SZ524288 ACV458755:ACV524288 AMR458755:AMR524288 AWN458755:AWN524288 BGJ458755:BGJ524288 BQF458755:BQF524288 CAB458755:CAB524288 CJX458755:CJX524288 CTT458755:CTT524288 DDP458755:DDP524288 DNL458755:DNL524288 DXH458755:DXH524288 EHD458755:EHD524288 EQZ458755:EQZ524288 FAV458755:FAV524288 FKR458755:FKR524288 FUN458755:FUN524288 GEJ458755:GEJ524288 GOF458755:GOF524288 GYB458755:GYB524288 HHX458755:HHX524288 HRT458755:HRT524288 IBP458755:IBP524288 ILL458755:ILL524288 IVH458755:IVH524288 JFD458755:JFD524288 JOZ458755:JOZ524288 JYV458755:JYV524288 KIR458755:KIR524288 KSN458755:KSN524288 LCJ458755:LCJ524288 LMF458755:LMF524288 LWB458755:LWB524288 MFX458755:MFX524288 MPT458755:MPT524288 MZP458755:MZP524288 NJL458755:NJL524288 NTH458755:NTH524288 ODD458755:ODD524288 OMZ458755:OMZ524288 OWV458755:OWV524288 PGR458755:PGR524288 PQN458755:PQN524288 QAJ458755:QAJ524288 QKF458755:QKF524288 QUB458755:QUB524288 RDX458755:RDX524288 RNT458755:RNT524288 RXP458755:RXP524288 SHL458755:SHL524288 SRH458755:SRH524288 TBD458755:TBD524288 TKZ458755:TKZ524288 TUV458755:TUV524288 UER458755:UER524288 UON458755:UON524288 UYJ458755:UYJ524288 VIF458755:VIF524288 VSB458755:VSB524288 WBX458755:WBX524288 WLT458755:WLT524288 WVP458755:WVP524288 H524291:H589824 JD524291:JD589824 SZ524291:SZ589824 ACV524291:ACV589824 AMR524291:AMR589824 AWN524291:AWN589824 BGJ524291:BGJ589824 BQF524291:BQF589824 CAB524291:CAB589824 CJX524291:CJX589824 CTT524291:CTT589824 DDP524291:DDP589824 DNL524291:DNL589824 DXH524291:DXH589824 EHD524291:EHD589824 EQZ524291:EQZ589824 FAV524291:FAV589824 FKR524291:FKR589824 FUN524291:FUN589824 GEJ524291:GEJ589824 GOF524291:GOF589824 GYB524291:GYB589824 HHX524291:HHX589824 HRT524291:HRT589824 IBP524291:IBP589824 ILL524291:ILL589824 IVH524291:IVH589824 JFD524291:JFD589824 JOZ524291:JOZ589824 JYV524291:JYV589824 KIR524291:KIR589824 KSN524291:KSN589824 LCJ524291:LCJ589824 LMF524291:LMF589824 LWB524291:LWB589824 MFX524291:MFX589824 MPT524291:MPT589824 MZP524291:MZP589824 NJL524291:NJL589824 NTH524291:NTH589824 ODD524291:ODD589824 OMZ524291:OMZ589824 OWV524291:OWV589824 PGR524291:PGR589824 PQN524291:PQN589824 QAJ524291:QAJ589824 QKF524291:QKF589824 QUB524291:QUB589824 RDX524291:RDX589824 RNT524291:RNT589824 RXP524291:RXP589824 SHL524291:SHL589824 SRH524291:SRH589824 TBD524291:TBD589824 TKZ524291:TKZ589824 TUV524291:TUV589824 UER524291:UER589824 UON524291:UON589824 UYJ524291:UYJ589824 VIF524291:VIF589824 VSB524291:VSB589824 WBX524291:WBX589824 WLT524291:WLT589824 WVP524291:WVP589824 H589827:H655360 JD589827:JD655360 SZ589827:SZ655360 ACV589827:ACV655360 AMR589827:AMR655360 AWN589827:AWN655360 BGJ589827:BGJ655360 BQF589827:BQF655360 CAB589827:CAB655360 CJX589827:CJX655360 CTT589827:CTT655360 DDP589827:DDP655360 DNL589827:DNL655360 DXH589827:DXH655360 EHD589827:EHD655360 EQZ589827:EQZ655360 FAV589827:FAV655360 FKR589827:FKR655360 FUN589827:FUN655360 GEJ589827:GEJ655360 GOF589827:GOF655360 GYB589827:GYB655360 HHX589827:HHX655360 HRT589827:HRT655360 IBP589827:IBP655360 ILL589827:ILL655360 IVH589827:IVH655360 JFD589827:JFD655360 JOZ589827:JOZ655360 JYV589827:JYV655360 KIR589827:KIR655360 KSN589827:KSN655360 LCJ589827:LCJ655360 LMF589827:LMF655360 LWB589827:LWB655360 MFX589827:MFX655360 MPT589827:MPT655360 MZP589827:MZP655360 NJL589827:NJL655360 NTH589827:NTH655360 ODD589827:ODD655360 OMZ589827:OMZ655360 OWV589827:OWV655360 PGR589827:PGR655360 PQN589827:PQN655360 QAJ589827:QAJ655360 QKF589827:QKF655360 QUB589827:QUB655360 RDX589827:RDX655360 RNT589827:RNT655360 RXP589827:RXP655360 SHL589827:SHL655360 SRH589827:SRH655360 TBD589827:TBD655360 TKZ589827:TKZ655360 TUV589827:TUV655360 UER589827:UER655360 UON589827:UON655360 UYJ589827:UYJ655360 VIF589827:VIF655360 VSB589827:VSB655360 WBX589827:WBX655360 WLT589827:WLT655360 WVP589827:WVP655360 H655363:H720896 JD655363:JD720896 SZ655363:SZ720896 ACV655363:ACV720896 AMR655363:AMR720896 AWN655363:AWN720896 BGJ655363:BGJ720896 BQF655363:BQF720896 CAB655363:CAB720896 CJX655363:CJX720896 CTT655363:CTT720896 DDP655363:DDP720896 DNL655363:DNL720896 DXH655363:DXH720896 EHD655363:EHD720896 EQZ655363:EQZ720896 FAV655363:FAV720896 FKR655363:FKR720896 FUN655363:FUN720896 GEJ655363:GEJ720896 GOF655363:GOF720896 GYB655363:GYB720896 HHX655363:HHX720896 HRT655363:HRT720896 IBP655363:IBP720896 ILL655363:ILL720896 IVH655363:IVH720896 JFD655363:JFD720896 JOZ655363:JOZ720896 JYV655363:JYV720896 KIR655363:KIR720896 KSN655363:KSN720896 LCJ655363:LCJ720896 LMF655363:LMF720896 LWB655363:LWB720896 MFX655363:MFX720896 MPT655363:MPT720896 MZP655363:MZP720896 NJL655363:NJL720896 NTH655363:NTH720896 ODD655363:ODD720896 OMZ655363:OMZ720896 OWV655363:OWV720896 PGR655363:PGR720896 PQN655363:PQN720896 QAJ655363:QAJ720896 QKF655363:QKF720896 QUB655363:QUB720896 RDX655363:RDX720896 RNT655363:RNT720896 RXP655363:RXP720896 SHL655363:SHL720896 SRH655363:SRH720896 TBD655363:TBD720896 TKZ655363:TKZ720896 TUV655363:TUV720896 UER655363:UER720896 UON655363:UON720896 UYJ655363:UYJ720896 VIF655363:VIF720896 VSB655363:VSB720896 WBX655363:WBX720896 WLT655363:WLT720896 WVP655363:WVP720896 H720899:H786432 JD720899:JD786432 SZ720899:SZ786432 ACV720899:ACV786432 AMR720899:AMR786432 AWN720899:AWN786432 BGJ720899:BGJ786432 BQF720899:BQF786432 CAB720899:CAB786432 CJX720899:CJX786432 CTT720899:CTT786432 DDP720899:DDP786432 DNL720899:DNL786432 DXH720899:DXH786432 EHD720899:EHD786432 EQZ720899:EQZ786432 FAV720899:FAV786432 FKR720899:FKR786432 FUN720899:FUN786432 GEJ720899:GEJ786432 GOF720899:GOF786432 GYB720899:GYB786432 HHX720899:HHX786432 HRT720899:HRT786432 IBP720899:IBP786432 ILL720899:ILL786432 IVH720899:IVH786432 JFD720899:JFD786432 JOZ720899:JOZ786432 JYV720899:JYV786432 KIR720899:KIR786432 KSN720899:KSN786432 LCJ720899:LCJ786432 LMF720899:LMF786432 LWB720899:LWB786432 MFX720899:MFX786432 MPT720899:MPT786432 MZP720899:MZP786432 NJL720899:NJL786432 NTH720899:NTH786432 ODD720899:ODD786432 OMZ720899:OMZ786432 OWV720899:OWV786432 PGR720899:PGR786432 PQN720899:PQN786432 QAJ720899:QAJ786432 QKF720899:QKF786432 QUB720899:QUB786432 RDX720899:RDX786432 RNT720899:RNT786432 RXP720899:RXP786432 SHL720899:SHL786432 SRH720899:SRH786432 TBD720899:TBD786432 TKZ720899:TKZ786432 TUV720899:TUV786432 UER720899:UER786432 UON720899:UON786432 UYJ720899:UYJ786432 VIF720899:VIF786432 VSB720899:VSB786432 WBX720899:WBX786432 WLT720899:WLT786432 WVP720899:WVP786432 H786435:H851968 JD786435:JD851968 SZ786435:SZ851968 ACV786435:ACV851968 AMR786435:AMR851968 AWN786435:AWN851968 BGJ786435:BGJ851968 BQF786435:BQF851968 CAB786435:CAB851968 CJX786435:CJX851968 CTT786435:CTT851968 DDP786435:DDP851968 DNL786435:DNL851968 DXH786435:DXH851968 EHD786435:EHD851968 EQZ786435:EQZ851968 FAV786435:FAV851968 FKR786435:FKR851968 FUN786435:FUN851968 GEJ786435:GEJ851968 GOF786435:GOF851968 GYB786435:GYB851968 HHX786435:HHX851968 HRT786435:HRT851968 IBP786435:IBP851968 ILL786435:ILL851968 IVH786435:IVH851968 JFD786435:JFD851968 JOZ786435:JOZ851968 JYV786435:JYV851968 KIR786435:KIR851968 KSN786435:KSN851968 LCJ786435:LCJ851968 LMF786435:LMF851968 LWB786435:LWB851968 MFX786435:MFX851968 MPT786435:MPT851968 MZP786435:MZP851968 NJL786435:NJL851968 NTH786435:NTH851968 ODD786435:ODD851968 OMZ786435:OMZ851968 OWV786435:OWV851968 PGR786435:PGR851968 PQN786435:PQN851968 QAJ786435:QAJ851968 QKF786435:QKF851968 QUB786435:QUB851968 RDX786435:RDX851968 RNT786435:RNT851968 RXP786435:RXP851968 SHL786435:SHL851968 SRH786435:SRH851968 TBD786435:TBD851968 TKZ786435:TKZ851968 TUV786435:TUV851968 UER786435:UER851968 UON786435:UON851968 UYJ786435:UYJ851968 VIF786435:VIF851968 VSB786435:VSB851968 WBX786435:WBX851968 WLT786435:WLT851968 WVP786435:WVP851968 H851971:H917504 JD851971:JD917504 SZ851971:SZ917504 ACV851971:ACV917504 AMR851971:AMR917504 AWN851971:AWN917504 BGJ851971:BGJ917504 BQF851971:BQF917504 CAB851971:CAB917504 CJX851971:CJX917504 CTT851971:CTT917504 DDP851971:DDP917504 DNL851971:DNL917504 DXH851971:DXH917504 EHD851971:EHD917504 EQZ851971:EQZ917504 FAV851971:FAV917504 FKR851971:FKR917504 FUN851971:FUN917504 GEJ851971:GEJ917504 GOF851971:GOF917504 GYB851971:GYB917504 HHX851971:HHX917504 HRT851971:HRT917504 IBP851971:IBP917504 ILL851971:ILL917504 IVH851971:IVH917504 JFD851971:JFD917504 JOZ851971:JOZ917504 JYV851971:JYV917504 KIR851971:KIR917504 KSN851971:KSN917504 LCJ851971:LCJ917504 LMF851971:LMF917504 LWB851971:LWB917504 MFX851971:MFX917504 MPT851971:MPT917504 MZP851971:MZP917504 NJL851971:NJL917504 NTH851971:NTH917504 ODD851971:ODD917504 OMZ851971:OMZ917504 OWV851971:OWV917504 PGR851971:PGR917504 PQN851971:PQN917504 QAJ851971:QAJ917504 QKF851971:QKF917504 QUB851971:QUB917504 RDX851971:RDX917504 RNT851971:RNT917504 RXP851971:RXP917504 SHL851971:SHL917504 SRH851971:SRH917504 TBD851971:TBD917504 TKZ851971:TKZ917504 TUV851971:TUV917504 UER851971:UER917504 UON851971:UON917504 UYJ851971:UYJ917504 VIF851971:VIF917504 VSB851971:VSB917504 WBX851971:WBX917504 WLT851971:WLT917504 WVP851971:WVP917504 H917507:H983040 JD917507:JD983040 SZ917507:SZ983040 ACV917507:ACV983040 AMR917507:AMR983040 AWN917507:AWN983040 BGJ917507:BGJ983040 BQF917507:BQF983040 CAB917507:CAB983040 CJX917507:CJX983040 CTT917507:CTT983040 DDP917507:DDP983040 DNL917507:DNL983040 DXH917507:DXH983040 EHD917507:EHD983040 EQZ917507:EQZ983040 FAV917507:FAV983040 FKR917507:FKR983040 FUN917507:FUN983040 GEJ917507:GEJ983040 GOF917507:GOF983040 GYB917507:GYB983040 HHX917507:HHX983040 HRT917507:HRT983040 IBP917507:IBP983040 ILL917507:ILL983040 IVH917507:IVH983040 JFD917507:JFD983040 JOZ917507:JOZ983040 JYV917507:JYV983040 KIR917507:KIR983040 KSN917507:KSN983040 LCJ917507:LCJ983040 LMF917507:LMF983040 LWB917507:LWB983040 MFX917507:MFX983040 MPT917507:MPT983040 MZP917507:MZP983040 NJL917507:NJL983040 NTH917507:NTH983040 ODD917507:ODD983040 OMZ917507:OMZ983040 OWV917507:OWV983040 PGR917507:PGR983040 PQN917507:PQN983040 QAJ917507:QAJ983040 QKF917507:QKF983040 QUB917507:QUB983040 RDX917507:RDX983040 RNT917507:RNT983040 RXP917507:RXP983040 SHL917507:SHL983040 SRH917507:SRH983040 TBD917507:TBD983040 TKZ917507:TKZ983040 TUV917507:TUV983040 UER917507:UER983040 UON917507:UON983040 UYJ917507:UYJ983040 VIF917507:VIF983040 VSB917507:VSB983040 WBX917507:WBX983040 WLT917507:WLT983040 WVP917507:WVP983040 H983043:H1048576 JD983043:JD1048576 SZ983043:SZ1048576 ACV983043:ACV1048576 AMR983043:AMR1048576 AWN983043:AWN1048576 BGJ983043:BGJ1048576 BQF983043:BQF1048576 CAB983043:CAB1048576 CJX983043:CJX1048576 CTT983043:CTT1048576 DDP983043:DDP1048576 DNL983043:DNL1048576 DXH983043:DXH1048576 EHD983043:EHD1048576 EQZ983043:EQZ1048576 FAV983043:FAV1048576 FKR983043:FKR1048576 FUN983043:FUN1048576 GEJ983043:GEJ1048576 GOF983043:GOF1048576 GYB983043:GYB1048576 HHX983043:HHX1048576 HRT983043:HRT1048576 IBP983043:IBP1048576 ILL983043:ILL1048576 IVH983043:IVH1048576 JFD983043:JFD1048576 JOZ983043:JOZ1048576 JYV983043:JYV1048576 KIR983043:KIR1048576 KSN983043:KSN1048576 LCJ983043:LCJ1048576 LMF983043:LMF1048576 LWB983043:LWB1048576 MFX983043:MFX1048576 MPT983043:MPT1048576 MZP983043:MZP1048576 NJL983043:NJL1048576 NTH983043:NTH1048576 ODD983043:ODD1048576 OMZ983043:OMZ1048576 OWV983043:OWV1048576 PGR983043:PGR1048576 PQN983043:PQN1048576 QAJ983043:QAJ1048576 QKF983043:QKF1048576 QUB983043:QUB1048576 RDX983043:RDX1048576 RNT983043:RNT1048576 RXP983043:RXP1048576 SHL983043:SHL1048576 SRH983043:SRH1048576 TBD983043:TBD1048576 TKZ983043:TKZ1048576 TUV983043:TUV1048576 UER983043:UER1048576 UON983043:UON1048576 UYJ983043:UYJ1048576 VIF983043:VIF1048576 VSB983043:VSB1048576 WBX983043:WBX1048576 WLT983043:WLT1048576 WVP983043:WVP1048576">
+  <dataValidations count="9">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="数据格式不正确！" sqref="J3:J65536 JC3:JC65536 SY3:SY65536 ACU3:ACU65536 AMQ3:AMQ65536 AWM3:AWM65536 BGI3:BGI65536 BQE3:BQE65536 CAA3:CAA65536 CJW3:CJW65536 CTS3:CTS65536 DDO3:DDO65536 DNK3:DNK65536 DXG3:DXG65536 EHC3:EHC65536 EQY3:EQY65536 FAU3:FAU65536 FKQ3:FKQ65536 FUM3:FUM65536 GEI3:GEI65536 GOE3:GOE65536 GYA3:GYA65536 HHW3:HHW65536 HRS3:HRS65536 IBO3:IBO65536 ILK3:ILK65536 IVG3:IVG65536 JFC3:JFC65536 JOY3:JOY65536 JYU3:JYU65536 KIQ3:KIQ65536 KSM3:KSM65536 LCI3:LCI65536 LME3:LME65536 LWA3:LWA65536 MFW3:MFW65536 MPS3:MPS65536 MZO3:MZO65536 NJK3:NJK65536 NTG3:NTG65536 ODC3:ODC65536 OMY3:OMY65536 OWU3:OWU65536 PGQ3:PGQ65536 PQM3:PQM65536 QAI3:QAI65536 QKE3:QKE65536 QUA3:QUA65536 RDW3:RDW65536 RNS3:RNS65536 RXO3:RXO65536 SHK3:SHK65536 SRG3:SRG65536 TBC3:TBC65536 TKY3:TKY65536 TUU3:TUU65536 UEQ3:UEQ65536 UOM3:UOM65536 UYI3:UYI65536 VIE3:VIE65536 VSA3:VSA65536 WBW3:WBW65536 WLS3:WLS65536 WVO3:WVO65536 J65539:J131072 JC65539:JC131072 SY65539:SY131072 ACU65539:ACU131072 AMQ65539:AMQ131072 AWM65539:AWM131072 BGI65539:BGI131072 BQE65539:BQE131072 CAA65539:CAA131072 CJW65539:CJW131072 CTS65539:CTS131072 DDO65539:DDO131072 DNK65539:DNK131072 DXG65539:DXG131072 EHC65539:EHC131072 EQY65539:EQY131072 FAU65539:FAU131072 FKQ65539:FKQ131072 FUM65539:FUM131072 GEI65539:GEI131072 GOE65539:GOE131072 GYA65539:GYA131072 HHW65539:HHW131072 HRS65539:HRS131072 IBO65539:IBO131072 ILK65539:ILK131072 IVG65539:IVG131072 JFC65539:JFC131072 JOY65539:JOY131072 JYU65539:JYU131072 KIQ65539:KIQ131072 KSM65539:KSM131072 LCI65539:LCI131072 LME65539:LME131072 LWA65539:LWA131072 MFW65539:MFW131072 MPS65539:MPS131072 MZO65539:MZO131072 NJK65539:NJK131072 NTG65539:NTG131072 ODC65539:ODC131072 OMY65539:OMY131072 OWU65539:OWU131072 PGQ65539:PGQ131072 PQM65539:PQM131072 QAI65539:QAI131072 QKE65539:QKE131072 QUA65539:QUA131072 RDW65539:RDW131072 RNS65539:RNS131072 RXO65539:RXO131072 SHK65539:SHK131072 SRG65539:SRG131072 TBC65539:TBC131072 TKY65539:TKY131072 TUU65539:TUU131072 UEQ65539:UEQ131072 UOM65539:UOM131072 UYI65539:UYI131072 VIE65539:VIE131072 VSA65539:VSA131072 WBW65539:WBW131072 WLS65539:WLS131072 WVO65539:WVO131072 J131075:J196608 JC131075:JC196608 SY131075:SY196608 ACU131075:ACU196608 AMQ131075:AMQ196608 AWM131075:AWM196608 BGI131075:BGI196608 BQE131075:BQE196608 CAA131075:CAA196608 CJW131075:CJW196608 CTS131075:CTS196608 DDO131075:DDO196608 DNK131075:DNK196608 DXG131075:DXG196608 EHC131075:EHC196608 EQY131075:EQY196608 FAU131075:FAU196608 FKQ131075:FKQ196608 FUM131075:FUM196608 GEI131075:GEI196608 GOE131075:GOE196608 GYA131075:GYA196608 HHW131075:HHW196608 HRS131075:HRS196608 IBO131075:IBO196608 ILK131075:ILK196608 IVG131075:IVG196608 JFC131075:JFC196608 JOY131075:JOY196608 JYU131075:JYU196608 KIQ131075:KIQ196608 KSM131075:KSM196608 LCI131075:LCI196608 LME131075:LME196608 LWA131075:LWA196608 MFW131075:MFW196608 MPS131075:MPS196608 MZO131075:MZO196608 NJK131075:NJK196608 NTG131075:NTG196608 ODC131075:ODC196608 OMY131075:OMY196608 OWU131075:OWU196608 PGQ131075:PGQ196608 PQM131075:PQM196608 QAI131075:QAI196608 QKE131075:QKE196608 QUA131075:QUA196608 RDW131075:RDW196608 RNS131075:RNS196608 RXO131075:RXO196608 SHK131075:SHK196608 SRG131075:SRG196608 TBC131075:TBC196608 TKY131075:TKY196608 TUU131075:TUU196608 UEQ131075:UEQ196608 UOM131075:UOM196608 UYI131075:UYI196608 VIE131075:VIE196608 VSA131075:VSA196608 WBW131075:WBW196608 WLS131075:WLS196608 WVO131075:WVO196608 J196611:J262144 JC196611:JC262144 SY196611:SY262144 ACU196611:ACU262144 AMQ196611:AMQ262144 AWM196611:AWM262144 BGI196611:BGI262144 BQE196611:BQE262144 CAA196611:CAA262144 CJW196611:CJW262144 CTS196611:CTS262144 DDO196611:DDO262144 DNK196611:DNK262144 DXG196611:DXG262144 EHC196611:EHC262144 EQY196611:EQY262144 FAU196611:FAU262144 FKQ196611:FKQ262144 FUM196611:FUM262144 GEI196611:GEI262144 GOE196611:GOE262144 GYA196611:GYA262144 HHW196611:HHW262144 HRS196611:HRS262144 IBO196611:IBO262144 ILK196611:ILK262144 IVG196611:IVG262144 JFC196611:JFC262144 JOY196611:JOY262144 JYU196611:JYU262144 KIQ196611:KIQ262144 KSM196611:KSM262144 LCI196611:LCI262144 LME196611:LME262144 LWA196611:LWA262144 MFW196611:MFW262144 MPS196611:MPS262144 MZO196611:MZO262144 NJK196611:NJK262144 NTG196611:NTG262144 ODC196611:ODC262144 OMY196611:OMY262144 OWU196611:OWU262144 PGQ196611:PGQ262144 PQM196611:PQM262144 QAI196611:QAI262144 QKE196611:QKE262144 QUA196611:QUA262144 RDW196611:RDW262144 RNS196611:RNS262144 RXO196611:RXO262144 SHK196611:SHK262144 SRG196611:SRG262144 TBC196611:TBC262144 TKY196611:TKY262144 TUU196611:TUU262144 UEQ196611:UEQ262144 UOM196611:UOM262144 UYI196611:UYI262144 VIE196611:VIE262144 VSA196611:VSA262144 WBW196611:WBW262144 WLS196611:WLS262144 WVO196611:WVO262144 J262147:J327680 JC262147:JC327680 SY262147:SY327680 ACU262147:ACU327680 AMQ262147:AMQ327680 AWM262147:AWM327680 BGI262147:BGI327680 BQE262147:BQE327680 CAA262147:CAA327680 CJW262147:CJW327680 CTS262147:CTS327680 DDO262147:DDO327680 DNK262147:DNK327680 DXG262147:DXG327680 EHC262147:EHC327680 EQY262147:EQY327680 FAU262147:FAU327680 FKQ262147:FKQ327680 FUM262147:FUM327680 GEI262147:GEI327680 GOE262147:GOE327680 GYA262147:GYA327680 HHW262147:HHW327680 HRS262147:HRS327680 IBO262147:IBO327680 ILK262147:ILK327680 IVG262147:IVG327680 JFC262147:JFC327680 JOY262147:JOY327680 JYU262147:JYU327680 KIQ262147:KIQ327680 KSM262147:KSM327680 LCI262147:LCI327680 LME262147:LME327680 LWA262147:LWA327680 MFW262147:MFW327680 MPS262147:MPS327680 MZO262147:MZO327680 NJK262147:NJK327680 NTG262147:NTG327680 ODC262147:ODC327680 OMY262147:OMY327680 OWU262147:OWU327680 PGQ262147:PGQ327680 PQM262147:PQM327680 QAI262147:QAI327680 QKE262147:QKE327680 QUA262147:QUA327680 RDW262147:RDW327680 RNS262147:RNS327680 RXO262147:RXO327680 SHK262147:SHK327680 SRG262147:SRG327680 TBC262147:TBC327680 TKY262147:TKY327680 TUU262147:TUU327680 UEQ262147:UEQ327680 UOM262147:UOM327680 UYI262147:UYI327680 VIE262147:VIE327680 VSA262147:VSA327680 WBW262147:WBW327680 WLS262147:WLS327680 WVO262147:WVO327680 J327683:J393216 JC327683:JC393216 SY327683:SY393216 ACU327683:ACU393216 AMQ327683:AMQ393216 AWM327683:AWM393216 BGI327683:BGI393216 BQE327683:BQE393216 CAA327683:CAA393216 CJW327683:CJW393216 CTS327683:CTS393216 DDO327683:DDO393216 DNK327683:DNK393216 DXG327683:DXG393216 EHC327683:EHC393216 EQY327683:EQY393216 FAU327683:FAU393216 FKQ327683:FKQ393216 FUM327683:FUM393216 GEI327683:GEI393216 GOE327683:GOE393216 GYA327683:GYA393216 HHW327683:HHW393216 HRS327683:HRS393216 IBO327683:IBO393216 ILK327683:ILK393216 IVG327683:IVG393216 JFC327683:JFC393216 JOY327683:JOY393216 JYU327683:JYU393216 KIQ327683:KIQ393216 KSM327683:KSM393216 LCI327683:LCI393216 LME327683:LME393216 LWA327683:LWA393216 MFW327683:MFW393216 MPS327683:MPS393216 MZO327683:MZO393216 NJK327683:NJK393216 NTG327683:NTG393216 ODC327683:ODC393216 OMY327683:OMY393216 OWU327683:OWU393216 PGQ327683:PGQ393216 PQM327683:PQM393216 QAI327683:QAI393216 QKE327683:QKE393216 QUA327683:QUA393216 RDW327683:RDW393216 RNS327683:RNS393216 RXO327683:RXO393216 SHK327683:SHK393216 SRG327683:SRG393216 TBC327683:TBC393216 TKY327683:TKY393216 TUU327683:TUU393216 UEQ327683:UEQ393216 UOM327683:UOM393216 UYI327683:UYI393216 VIE327683:VIE393216 VSA327683:VSA393216 WBW327683:WBW393216 WLS327683:WLS393216 WVO327683:WVO393216 J393219:J458752 JC393219:JC458752 SY393219:SY458752 ACU393219:ACU458752 AMQ393219:AMQ458752 AWM393219:AWM458752 BGI393219:BGI458752 BQE393219:BQE458752 CAA393219:CAA458752 CJW393219:CJW458752 CTS393219:CTS458752 DDO393219:DDO458752 DNK393219:DNK458752 DXG393219:DXG458752 EHC393219:EHC458752 EQY393219:EQY458752 FAU393219:FAU458752 FKQ393219:FKQ458752 FUM393219:FUM458752 GEI393219:GEI458752 GOE393219:GOE458752 GYA393219:GYA458752 HHW393219:HHW458752 HRS393219:HRS458752 IBO393219:IBO458752 ILK393219:ILK458752 IVG393219:IVG458752 JFC393219:JFC458752 JOY393219:JOY458752 JYU393219:JYU458752 KIQ393219:KIQ458752 KSM393219:KSM458752 LCI393219:LCI458752 LME393219:LME458752 LWA393219:LWA458752 MFW393219:MFW458752 MPS393219:MPS458752 MZO393219:MZO458752 NJK393219:NJK458752 NTG393219:NTG458752 ODC393219:ODC458752 OMY393219:OMY458752 OWU393219:OWU458752 PGQ393219:PGQ458752 PQM393219:PQM458752 QAI393219:QAI458752 QKE393219:QKE458752 QUA393219:QUA458752 RDW393219:RDW458752 RNS393219:RNS458752 RXO393219:RXO458752 SHK393219:SHK458752 SRG393219:SRG458752 TBC393219:TBC458752 TKY393219:TKY458752 TUU393219:TUU458752 UEQ393219:UEQ458752 UOM393219:UOM458752 UYI393219:UYI458752 VIE393219:VIE458752 VSA393219:VSA458752 WBW393219:WBW458752 WLS393219:WLS458752 WVO393219:WVO458752 J458755:J524288 JC458755:JC524288 SY458755:SY524288 ACU458755:ACU524288 AMQ458755:AMQ524288 AWM458755:AWM524288 BGI458755:BGI524288 BQE458755:BQE524288 CAA458755:CAA524288 CJW458755:CJW524288 CTS458755:CTS524288 DDO458755:DDO524288 DNK458755:DNK524288 DXG458755:DXG524288 EHC458755:EHC524288 EQY458755:EQY524288 FAU458755:FAU524288 FKQ458755:FKQ524288 FUM458755:FUM524288 GEI458755:GEI524288 GOE458755:GOE524288 GYA458755:GYA524288 HHW458755:HHW524288 HRS458755:HRS524288 IBO458755:IBO524288 ILK458755:ILK524288 IVG458755:IVG524288 JFC458755:JFC524288 JOY458755:JOY524288 JYU458755:JYU524288 KIQ458755:KIQ524288 KSM458755:KSM524288 LCI458755:LCI524288 LME458755:LME524288 LWA458755:LWA524288 MFW458755:MFW524288 MPS458755:MPS524288 MZO458755:MZO524288 NJK458755:NJK524288 NTG458755:NTG524288 ODC458755:ODC524288 OMY458755:OMY524288 OWU458755:OWU524288 PGQ458755:PGQ524288 PQM458755:PQM524288 QAI458755:QAI524288 QKE458755:QKE524288 QUA458755:QUA524288 RDW458755:RDW524288 RNS458755:RNS524288 RXO458755:RXO524288 SHK458755:SHK524288 SRG458755:SRG524288 TBC458755:TBC524288 TKY458755:TKY524288 TUU458755:TUU524288 UEQ458755:UEQ524288 UOM458755:UOM524288 UYI458755:UYI524288 VIE458755:VIE524288 VSA458755:VSA524288 WBW458755:WBW524288 WLS458755:WLS524288 WVO458755:WVO524288 J524291:J589824 JC524291:JC589824 SY524291:SY589824 ACU524291:ACU589824 AMQ524291:AMQ589824 AWM524291:AWM589824 BGI524291:BGI589824 BQE524291:BQE589824 CAA524291:CAA589824 CJW524291:CJW589824 CTS524291:CTS589824 DDO524291:DDO589824 DNK524291:DNK589824 DXG524291:DXG589824 EHC524291:EHC589824 EQY524291:EQY589824 FAU524291:FAU589824 FKQ524291:FKQ589824 FUM524291:FUM589824 GEI524291:GEI589824 GOE524291:GOE589824 GYA524291:GYA589824 HHW524291:HHW589824 HRS524291:HRS589824 IBO524291:IBO589824 ILK524291:ILK589824 IVG524291:IVG589824 JFC524291:JFC589824 JOY524291:JOY589824 JYU524291:JYU589824 KIQ524291:KIQ589824 KSM524291:KSM589824 LCI524291:LCI589824 LME524291:LME589824 LWA524291:LWA589824 MFW524291:MFW589824 MPS524291:MPS589824 MZO524291:MZO589824 NJK524291:NJK589824 NTG524291:NTG589824 ODC524291:ODC589824 OMY524291:OMY589824 OWU524291:OWU589824 PGQ524291:PGQ589824 PQM524291:PQM589824 QAI524291:QAI589824 QKE524291:QKE589824 QUA524291:QUA589824 RDW524291:RDW589824 RNS524291:RNS589824 RXO524291:RXO589824 SHK524291:SHK589824 SRG524291:SRG589824 TBC524291:TBC589824 TKY524291:TKY589824 TUU524291:TUU589824 UEQ524291:UEQ589824 UOM524291:UOM589824 UYI524291:UYI589824 VIE524291:VIE589824 VSA524291:VSA589824 WBW524291:WBW589824 WLS524291:WLS589824 WVO524291:WVO589824 J589827:J655360 JC589827:JC655360 SY589827:SY655360 ACU589827:ACU655360 AMQ589827:AMQ655360 AWM589827:AWM655360 BGI589827:BGI655360 BQE589827:BQE655360 CAA589827:CAA655360 CJW589827:CJW655360 CTS589827:CTS655360 DDO589827:DDO655360 DNK589827:DNK655360 DXG589827:DXG655360 EHC589827:EHC655360 EQY589827:EQY655360 FAU589827:FAU655360 FKQ589827:FKQ655360 FUM589827:FUM655360 GEI589827:GEI655360 GOE589827:GOE655360 GYA589827:GYA655360 HHW589827:HHW655360 HRS589827:HRS655360 IBO589827:IBO655360 ILK589827:ILK655360 IVG589827:IVG655360 JFC589827:JFC655360 JOY589827:JOY655360 JYU589827:JYU655360 KIQ589827:KIQ655360 KSM589827:KSM655360 LCI589827:LCI655360 LME589827:LME655360 LWA589827:LWA655360 MFW589827:MFW655360 MPS589827:MPS655360 MZO589827:MZO655360 NJK589827:NJK655360 NTG589827:NTG655360 ODC589827:ODC655360 OMY589827:OMY655360 OWU589827:OWU655360 PGQ589827:PGQ655360 PQM589827:PQM655360 QAI589827:QAI655360 QKE589827:QKE655360 QUA589827:QUA655360 RDW589827:RDW655360 RNS589827:RNS655360 RXO589827:RXO655360 SHK589827:SHK655360 SRG589827:SRG655360 TBC589827:TBC655360 TKY589827:TKY655360 TUU589827:TUU655360 UEQ589827:UEQ655360 UOM589827:UOM655360 UYI589827:UYI655360 VIE589827:VIE655360 VSA589827:VSA655360 WBW589827:WBW655360 WLS589827:WLS655360 WVO589827:WVO655360 J655363:J720896 JC655363:JC720896 SY655363:SY720896 ACU655363:ACU720896 AMQ655363:AMQ720896 AWM655363:AWM720896 BGI655363:BGI720896 BQE655363:BQE720896 CAA655363:CAA720896 CJW655363:CJW720896 CTS655363:CTS720896 DDO655363:DDO720896 DNK655363:DNK720896 DXG655363:DXG720896 EHC655363:EHC720896 EQY655363:EQY720896 FAU655363:FAU720896 FKQ655363:FKQ720896 FUM655363:FUM720896 GEI655363:GEI720896 GOE655363:GOE720896 GYA655363:GYA720896 HHW655363:HHW720896 HRS655363:HRS720896 IBO655363:IBO720896 ILK655363:ILK720896 IVG655363:IVG720896 JFC655363:JFC720896 JOY655363:JOY720896 JYU655363:JYU720896 KIQ655363:KIQ720896 KSM655363:KSM720896 LCI655363:LCI720896 LME655363:LME720896 LWA655363:LWA720896 MFW655363:MFW720896 MPS655363:MPS720896 MZO655363:MZO720896 NJK655363:NJK720896 NTG655363:NTG720896 ODC655363:ODC720896 OMY655363:OMY720896 OWU655363:OWU720896 PGQ655363:PGQ720896 PQM655363:PQM720896 QAI655363:QAI720896 QKE655363:QKE720896 QUA655363:QUA720896 RDW655363:RDW720896 RNS655363:RNS720896 RXO655363:RXO720896 SHK655363:SHK720896 SRG655363:SRG720896 TBC655363:TBC720896 TKY655363:TKY720896 TUU655363:TUU720896 UEQ655363:UEQ720896 UOM655363:UOM720896 UYI655363:UYI720896 VIE655363:VIE720896 VSA655363:VSA720896 WBW655363:WBW720896 WLS655363:WLS720896 WVO655363:WVO720896 J720899:J786432 JC720899:JC786432 SY720899:SY786432 ACU720899:ACU786432 AMQ720899:AMQ786432 AWM720899:AWM786432 BGI720899:BGI786432 BQE720899:BQE786432 CAA720899:CAA786432 CJW720899:CJW786432 CTS720899:CTS786432 DDO720899:DDO786432 DNK720899:DNK786432 DXG720899:DXG786432 EHC720899:EHC786432 EQY720899:EQY786432 FAU720899:FAU786432 FKQ720899:FKQ786432 FUM720899:FUM786432 GEI720899:GEI786432 GOE720899:GOE786432 GYA720899:GYA786432 HHW720899:HHW786432 HRS720899:HRS786432 IBO720899:IBO786432 ILK720899:ILK786432 IVG720899:IVG786432 JFC720899:JFC786432 JOY720899:JOY786432 JYU720899:JYU786432 KIQ720899:KIQ786432 KSM720899:KSM786432 LCI720899:LCI786432 LME720899:LME786432 LWA720899:LWA786432 MFW720899:MFW786432 MPS720899:MPS786432 MZO720899:MZO786432 NJK720899:NJK786432 NTG720899:NTG786432 ODC720899:ODC786432 OMY720899:OMY786432 OWU720899:OWU786432 PGQ720899:PGQ786432 PQM720899:PQM786432 QAI720899:QAI786432 QKE720899:QKE786432 QUA720899:QUA786432 RDW720899:RDW786432 RNS720899:RNS786432 RXO720899:RXO786432 SHK720899:SHK786432 SRG720899:SRG786432 TBC720899:TBC786432 TKY720899:TKY786432 TUU720899:TUU786432 UEQ720899:UEQ786432 UOM720899:UOM786432 UYI720899:UYI786432 VIE720899:VIE786432 VSA720899:VSA786432 WBW720899:WBW786432 WLS720899:WLS786432 WVO720899:WVO786432 J786435:J851968 JC786435:JC851968 SY786435:SY851968 ACU786435:ACU851968 AMQ786435:AMQ851968 AWM786435:AWM851968 BGI786435:BGI851968 BQE786435:BQE851968 CAA786435:CAA851968 CJW786435:CJW851968 CTS786435:CTS851968 DDO786435:DDO851968 DNK786435:DNK851968 DXG786435:DXG851968 EHC786435:EHC851968 EQY786435:EQY851968 FAU786435:FAU851968 FKQ786435:FKQ851968 FUM786435:FUM851968 GEI786435:GEI851968 GOE786435:GOE851968 GYA786435:GYA851968 HHW786435:HHW851968 HRS786435:HRS851968 IBO786435:IBO851968 ILK786435:ILK851968 IVG786435:IVG851968 JFC786435:JFC851968 JOY786435:JOY851968 JYU786435:JYU851968 KIQ786435:KIQ851968 KSM786435:KSM851968 LCI786435:LCI851968 LME786435:LME851968 LWA786435:LWA851968 MFW786435:MFW851968 MPS786435:MPS851968 MZO786435:MZO851968 NJK786435:NJK851968 NTG786435:NTG851968 ODC786435:ODC851968 OMY786435:OMY851968 OWU786435:OWU851968 PGQ786435:PGQ851968 PQM786435:PQM851968 QAI786435:QAI851968 QKE786435:QKE851968 QUA786435:QUA851968 RDW786435:RDW851968 RNS786435:RNS851968 RXO786435:RXO851968 SHK786435:SHK851968 SRG786435:SRG851968 TBC786435:TBC851968 TKY786435:TKY851968 TUU786435:TUU851968 UEQ786435:UEQ851968 UOM786435:UOM851968 UYI786435:UYI851968 VIE786435:VIE851968 VSA786435:VSA851968 WBW786435:WBW851968 WLS786435:WLS851968 WVO786435:WVO851968 J851971:J917504 JC851971:JC917504 SY851971:SY917504 ACU851971:ACU917504 AMQ851971:AMQ917504 AWM851971:AWM917504 BGI851971:BGI917504 BQE851971:BQE917504 CAA851971:CAA917504 CJW851971:CJW917504 CTS851971:CTS917504 DDO851971:DDO917504 DNK851971:DNK917504 DXG851971:DXG917504 EHC851971:EHC917504 EQY851971:EQY917504 FAU851971:FAU917504 FKQ851971:FKQ917504 FUM851971:FUM917504 GEI851971:GEI917504 GOE851971:GOE917504 GYA851971:GYA917504 HHW851971:HHW917504 HRS851971:HRS917504 IBO851971:IBO917504 ILK851971:ILK917504 IVG851971:IVG917504 JFC851971:JFC917504 JOY851971:JOY917504 JYU851971:JYU917504 KIQ851971:KIQ917504 KSM851971:KSM917504 LCI851971:LCI917504 LME851971:LME917504 LWA851971:LWA917504 MFW851971:MFW917504 MPS851971:MPS917504 MZO851971:MZO917504 NJK851971:NJK917504 NTG851971:NTG917504 ODC851971:ODC917504 OMY851971:OMY917504 OWU851971:OWU917504 PGQ851971:PGQ917504 PQM851971:PQM917504 QAI851971:QAI917504 QKE851971:QKE917504 QUA851971:QUA917504 RDW851971:RDW917504 RNS851971:RNS917504 RXO851971:RXO917504 SHK851971:SHK917504 SRG851971:SRG917504 TBC851971:TBC917504 TKY851971:TKY917504 TUU851971:TUU917504 UEQ851971:UEQ917504 UOM851971:UOM917504 UYI851971:UYI917504 VIE851971:VIE917504 VSA851971:VSA917504 WBW851971:WBW917504 WLS851971:WLS917504 WVO851971:WVO917504 J917507:J983040 JC917507:JC983040 SY917507:SY983040 ACU917507:ACU983040 AMQ917507:AMQ983040 AWM917507:AWM983040 BGI917507:BGI983040 BQE917507:BQE983040 CAA917507:CAA983040 CJW917507:CJW983040 CTS917507:CTS983040 DDO917507:DDO983040 DNK917507:DNK983040 DXG917507:DXG983040 EHC917507:EHC983040 EQY917507:EQY983040 FAU917507:FAU983040 FKQ917507:FKQ983040 FUM917507:FUM983040 GEI917507:GEI983040 GOE917507:GOE983040 GYA917507:GYA983040 HHW917507:HHW983040 HRS917507:HRS983040 IBO917507:IBO983040 ILK917507:ILK983040 IVG917507:IVG983040 JFC917507:JFC983040 JOY917507:JOY983040 JYU917507:JYU983040 KIQ917507:KIQ983040 KSM917507:KSM983040 LCI917507:LCI983040 LME917507:LME983040 LWA917507:LWA983040 MFW917507:MFW983040 MPS917507:MPS983040 MZO917507:MZO983040 NJK917507:NJK983040 NTG917507:NTG983040 ODC917507:ODC983040 OMY917507:OMY983040 OWU917507:OWU983040 PGQ917507:PGQ983040 PQM917507:PQM983040 QAI917507:QAI983040 QKE917507:QKE983040 QUA917507:QUA983040 RDW917507:RDW983040 RNS917507:RNS983040 RXO917507:RXO983040 SHK917507:SHK983040 SRG917507:SRG983040 TBC917507:TBC983040 TKY917507:TKY983040 TUU917507:TUU983040 UEQ917507:UEQ983040 UOM917507:UOM983040 UYI917507:UYI983040 VIE917507:VIE983040 VSA917507:VSA983040 WBW917507:WBW983040 WLS917507:WLS983040 WVO917507:WVO983040 J983043:J1048576 JC983043:JC1048576 SY983043:SY1048576 ACU983043:ACU1048576 AMQ983043:AMQ1048576 AWM983043:AWM1048576 BGI983043:BGI1048576 BQE983043:BQE1048576 CAA983043:CAA1048576 CJW983043:CJW1048576 CTS983043:CTS1048576 DDO983043:DDO1048576 DNK983043:DNK1048576 DXG983043:DXG1048576 EHC983043:EHC1048576 EQY983043:EQY1048576 FAU983043:FAU1048576 FKQ983043:FKQ1048576 FUM983043:FUM1048576 GEI983043:GEI1048576 GOE983043:GOE1048576 GYA983043:GYA1048576 HHW983043:HHW1048576 HRS983043:HRS1048576 IBO983043:IBO1048576 ILK983043:ILK1048576 IVG983043:IVG1048576 JFC983043:JFC1048576 JOY983043:JOY1048576 JYU983043:JYU1048576 KIQ983043:KIQ1048576 KSM983043:KSM1048576 LCI983043:LCI1048576 LME983043:LME1048576 LWA983043:LWA1048576 MFW983043:MFW1048576 MPS983043:MPS1048576 MZO983043:MZO1048576 NJK983043:NJK1048576 NTG983043:NTG1048576 ODC983043:ODC1048576 OMY983043:OMY1048576 OWU983043:OWU1048576 PGQ983043:PGQ1048576 PQM983043:PQM1048576 QAI983043:QAI1048576 QKE983043:QKE1048576 QUA983043:QUA1048576 RDW983043:RDW1048576 RNS983043:RNS1048576 RXO983043:RXO1048576 SHK983043:SHK1048576 SRG983043:SRG1048576 TBC983043:TBC1048576 TKY983043:TKY1048576 TUU983043:TUU1048576 UEQ983043:UEQ1048576 UOM983043:UOM1048576 UYI983043:UYI1048576 VIE983043:VIE1048576 VSA983043:VSA1048576 WBW983043:WBW1048576 WLS983043:WLS1048576 WVO983043:WVO1048576">
       <formula1>1</formula1>
       <formula2>2958320</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="数据格式不正确！" sqref="D65539:D131072 IZ3:JA65536 SV3:SW65536 ACR3:ACS65536 AMN3:AMO65536 AWJ3:AWK65536 BGF3:BGG65536 BQB3:BQC65536 BZX3:BZY65536 CJT3:CJU65536 CTP3:CTQ65536 DDL3:DDM65536 DNH3:DNI65536 DXD3:DXE65536 EGZ3:EHA65536 EQV3:EQW65536 FAR3:FAS65536 FKN3:FKO65536 FUJ3:FUK65536 GEF3:GEG65536 GOB3:GOC65536 GXX3:GXY65536 HHT3:HHU65536 HRP3:HRQ65536 IBL3:IBM65536 ILH3:ILI65536 IVD3:IVE65536 JEZ3:JFA65536 JOV3:JOW65536 JYR3:JYS65536 KIN3:KIO65536 KSJ3:KSK65536 LCF3:LCG65536 LMB3:LMC65536 LVX3:LVY65536 MFT3:MFU65536 MPP3:MPQ65536 MZL3:MZM65536 NJH3:NJI65536 NTD3:NTE65536 OCZ3:ODA65536 OMV3:OMW65536 OWR3:OWS65536 PGN3:PGO65536 PQJ3:PQK65536 QAF3:QAG65536 QKB3:QKC65536 QTX3:QTY65536 RDT3:RDU65536 RNP3:RNQ65536 RXL3:RXM65536 SHH3:SHI65536 SRD3:SRE65536 TAZ3:TBA65536 TKV3:TKW65536 TUR3:TUS65536 UEN3:UEO65536 UOJ3:UOK65536 UYF3:UYG65536 VIB3:VIC65536 VRX3:VRY65536 WBT3:WBU65536 WLP3:WLQ65536 WVL3:WVM65536 D131075:D196608 IZ65539:JA131072 SV65539:SW131072 ACR65539:ACS131072 AMN65539:AMO131072 AWJ65539:AWK131072 BGF65539:BGG131072 BQB65539:BQC131072 BZX65539:BZY131072 CJT65539:CJU131072 CTP65539:CTQ131072 DDL65539:DDM131072 DNH65539:DNI131072 DXD65539:DXE131072 EGZ65539:EHA131072 EQV65539:EQW131072 FAR65539:FAS131072 FKN65539:FKO131072 FUJ65539:FUK131072 GEF65539:GEG131072 GOB65539:GOC131072 GXX65539:GXY131072 HHT65539:HHU131072 HRP65539:HRQ131072 IBL65539:IBM131072 ILH65539:ILI131072 IVD65539:IVE131072 JEZ65539:JFA131072 JOV65539:JOW131072 JYR65539:JYS131072 KIN65539:KIO131072 KSJ65539:KSK131072 LCF65539:LCG131072 LMB65539:LMC131072 LVX65539:LVY131072 MFT65539:MFU131072 MPP65539:MPQ131072 MZL65539:MZM131072 NJH65539:NJI131072 NTD65539:NTE131072 OCZ65539:ODA131072 OMV65539:OMW131072 OWR65539:OWS131072 PGN65539:PGO131072 PQJ65539:PQK131072 QAF65539:QAG131072 QKB65539:QKC131072 QTX65539:QTY131072 RDT65539:RDU131072 RNP65539:RNQ131072 RXL65539:RXM131072 SHH65539:SHI131072 SRD65539:SRE131072 TAZ65539:TBA131072 TKV65539:TKW131072 TUR65539:TUS131072 UEN65539:UEO131072 UOJ65539:UOK131072 UYF65539:UYG131072 VIB65539:VIC131072 VRX65539:VRY131072 WBT65539:WBU131072 WLP65539:WLQ131072 WVL65539:WVM131072 D196611:D262144 IZ131075:JA196608 SV131075:SW196608 ACR131075:ACS196608 AMN131075:AMO196608 AWJ131075:AWK196608 BGF131075:BGG196608 BQB131075:BQC196608 BZX131075:BZY196608 CJT131075:CJU196608 CTP131075:CTQ196608 DDL131075:DDM196608 DNH131075:DNI196608 DXD131075:DXE196608 EGZ131075:EHA196608 EQV131075:EQW196608 FAR131075:FAS196608 FKN131075:FKO196608 FUJ131075:FUK196608 GEF131075:GEG196608 GOB131075:GOC196608 GXX131075:GXY196608 HHT131075:HHU196608 HRP131075:HRQ196608 IBL131075:IBM196608 ILH131075:ILI196608 IVD131075:IVE196608 JEZ131075:JFA196608 JOV131075:JOW196608 JYR131075:JYS196608 KIN131075:KIO196608 KSJ131075:KSK196608 LCF131075:LCG196608 LMB131075:LMC196608 LVX131075:LVY196608 MFT131075:MFU196608 MPP131075:MPQ196608 MZL131075:MZM196608 NJH131075:NJI196608 NTD131075:NTE196608 OCZ131075:ODA196608 OMV131075:OMW196608 OWR131075:OWS196608 PGN131075:PGO196608 PQJ131075:PQK196608 QAF131075:QAG196608 QKB131075:QKC196608 QTX131075:QTY196608 RDT131075:RDU196608 RNP131075:RNQ196608 RXL131075:RXM196608 SHH131075:SHI196608 SRD131075:SRE196608 TAZ131075:TBA196608 TKV131075:TKW196608 TUR131075:TUS196608 UEN131075:UEO196608 UOJ131075:UOK196608 UYF131075:UYG196608 VIB131075:VIC196608 VRX131075:VRY196608 WBT131075:WBU196608 WLP131075:WLQ196608 WVL131075:WVM196608 D262147:D327680 IZ196611:JA262144 SV196611:SW262144 ACR196611:ACS262144 AMN196611:AMO262144 AWJ196611:AWK262144 BGF196611:BGG262144 BQB196611:BQC262144 BZX196611:BZY262144 CJT196611:CJU262144 CTP196611:CTQ262144 DDL196611:DDM262144 DNH196611:DNI262144 DXD196611:DXE262144 EGZ196611:EHA262144 EQV196611:EQW262144 FAR196611:FAS262144 FKN196611:FKO262144 FUJ196611:FUK262144 GEF196611:GEG262144 GOB196611:GOC262144 GXX196611:GXY262144 HHT196611:HHU262144 HRP196611:HRQ262144 IBL196611:IBM262144 ILH196611:ILI262144 IVD196611:IVE262144 JEZ196611:JFA262144 JOV196611:JOW262144 JYR196611:JYS262144 KIN196611:KIO262144 KSJ196611:KSK262144 LCF196611:LCG262144 LMB196611:LMC262144 LVX196611:LVY262144 MFT196611:MFU262144 MPP196611:MPQ262144 MZL196611:MZM262144 NJH196611:NJI262144 NTD196611:NTE262144 OCZ196611:ODA262144 OMV196611:OMW262144 OWR196611:OWS262144 PGN196611:PGO262144 PQJ196611:PQK262144 QAF196611:QAG262144 QKB196611:QKC262144 QTX196611:QTY262144 RDT196611:RDU262144 RNP196611:RNQ262144 RXL196611:RXM262144 SHH196611:SHI262144 SRD196611:SRE262144 TAZ196611:TBA262144 TKV196611:TKW262144 TUR196611:TUS262144 UEN196611:UEO262144 UOJ196611:UOK262144 UYF196611:UYG262144 VIB196611:VIC262144 VRX196611:VRY262144 WBT196611:WBU262144 WLP196611:WLQ262144 WVL196611:WVM262144 D327683:D393216 IZ262147:JA327680 SV262147:SW327680 ACR262147:ACS327680 AMN262147:AMO327680 AWJ262147:AWK327680 BGF262147:BGG327680 BQB262147:BQC327680 BZX262147:BZY327680 CJT262147:CJU327680 CTP262147:CTQ327680 DDL262147:DDM327680 DNH262147:DNI327680 DXD262147:DXE327680 EGZ262147:EHA327680 EQV262147:EQW327680 FAR262147:FAS327680 FKN262147:FKO327680 FUJ262147:FUK327680 GEF262147:GEG327680 GOB262147:GOC327680 GXX262147:GXY327680 HHT262147:HHU327680 HRP262147:HRQ327680 IBL262147:IBM327680 ILH262147:ILI327680 IVD262147:IVE327680 JEZ262147:JFA327680 JOV262147:JOW327680 JYR262147:JYS327680 KIN262147:KIO327680 KSJ262147:KSK327680 LCF262147:LCG327680 LMB262147:LMC327680 LVX262147:LVY327680 MFT262147:MFU327680 MPP262147:MPQ327680 MZL262147:MZM327680 NJH262147:NJI327680 NTD262147:NTE327680 OCZ262147:ODA327680 OMV262147:OMW327680 OWR262147:OWS327680 PGN262147:PGO327680 PQJ262147:PQK327680 QAF262147:QAG327680 QKB262147:QKC327680 QTX262147:QTY327680 RDT262147:RDU327680 RNP262147:RNQ327680 RXL262147:RXM327680 SHH262147:SHI327680 SRD262147:SRE327680 TAZ262147:TBA327680 TKV262147:TKW327680 TUR262147:TUS327680 UEN262147:UEO327680 UOJ262147:UOK327680 UYF262147:UYG327680 VIB262147:VIC327680 VRX262147:VRY327680 WBT262147:WBU327680 WLP262147:WLQ327680 WVL262147:WVM327680 D393219:D458752 IZ327683:JA393216 SV327683:SW393216 ACR327683:ACS393216 AMN327683:AMO393216 AWJ327683:AWK393216 BGF327683:BGG393216 BQB327683:BQC393216 BZX327683:BZY393216 CJT327683:CJU393216 CTP327683:CTQ393216 DDL327683:DDM393216 DNH327683:DNI393216 DXD327683:DXE393216 EGZ327683:EHA393216 EQV327683:EQW393216 FAR327683:FAS393216 FKN327683:FKO393216 FUJ327683:FUK393216 GEF327683:GEG393216 GOB327683:GOC393216 GXX327683:GXY393216 HHT327683:HHU393216 HRP327683:HRQ393216 IBL327683:IBM393216 ILH327683:ILI393216 IVD327683:IVE393216 JEZ327683:JFA393216 JOV327683:JOW393216 JYR327683:JYS393216 KIN327683:KIO393216 KSJ327683:KSK393216 LCF327683:LCG393216 LMB327683:LMC393216 LVX327683:LVY393216 MFT327683:MFU393216 MPP327683:MPQ393216 MZL327683:MZM393216 NJH327683:NJI393216 NTD327683:NTE393216 OCZ327683:ODA393216 OMV327683:OMW393216 OWR327683:OWS393216 PGN327683:PGO393216 PQJ327683:PQK393216 QAF327683:QAG393216 QKB327683:QKC393216 QTX327683:QTY393216 RDT327683:RDU393216 RNP327683:RNQ393216 RXL327683:RXM393216 SHH327683:SHI393216 SRD327683:SRE393216 TAZ327683:TBA393216 TKV327683:TKW393216 TUR327683:TUS393216 UEN327683:UEO393216 UOJ327683:UOK393216 UYF327683:UYG393216 VIB327683:VIC393216 VRX327683:VRY393216 WBT327683:WBU393216 WLP327683:WLQ393216 WVL327683:WVM393216 D458755:D524288 IZ393219:JA458752 SV393219:SW458752 ACR393219:ACS458752 AMN393219:AMO458752 AWJ393219:AWK458752 BGF393219:BGG458752 BQB393219:BQC458752 BZX393219:BZY458752 CJT393219:CJU458752 CTP393219:CTQ458752 DDL393219:DDM458752 DNH393219:DNI458752 DXD393219:DXE458752 EGZ393219:EHA458752 EQV393219:EQW458752 FAR393219:FAS458752 FKN393219:FKO458752 FUJ393219:FUK458752 GEF393219:GEG458752 GOB393219:GOC458752 GXX393219:GXY458752 HHT393219:HHU458752 HRP393219:HRQ458752 IBL393219:IBM458752 ILH393219:ILI458752 IVD393219:IVE458752 JEZ393219:JFA458752 JOV393219:JOW458752 JYR393219:JYS458752 KIN393219:KIO458752 KSJ393219:KSK458752 LCF393219:LCG458752 LMB393219:LMC458752 LVX393219:LVY458752 MFT393219:MFU458752 MPP393219:MPQ458752 MZL393219:MZM458752 NJH393219:NJI458752 NTD393219:NTE458752 OCZ393219:ODA458752 OMV393219:OMW458752 OWR393219:OWS458752 PGN393219:PGO458752 PQJ393219:PQK458752 QAF393219:QAG458752 QKB393219:QKC458752 QTX393219:QTY458752 RDT393219:RDU458752 RNP393219:RNQ458752 RXL393219:RXM458752 SHH393219:SHI458752 SRD393219:SRE458752 TAZ393219:TBA458752 TKV393219:TKW458752 TUR393219:TUS458752 UEN393219:UEO458752 UOJ393219:UOK458752 UYF393219:UYG458752 VIB393219:VIC458752 VRX393219:VRY458752 WBT393219:WBU458752 WLP393219:WLQ458752 WVL393219:WVM458752 D524291:D589824 IZ458755:JA524288 SV458755:SW524288 ACR458755:ACS524288 AMN458755:AMO524288 AWJ458755:AWK524288 BGF458755:BGG524288 BQB458755:BQC524288 BZX458755:BZY524288 CJT458755:CJU524288 CTP458755:CTQ524288 DDL458755:DDM524288 DNH458755:DNI524288 DXD458755:DXE524288 EGZ458755:EHA524288 EQV458755:EQW524288 FAR458755:FAS524288 FKN458755:FKO524288 FUJ458755:FUK524288 GEF458755:GEG524288 GOB458755:GOC524288 GXX458755:GXY524288 HHT458755:HHU524288 HRP458755:HRQ524288 IBL458755:IBM524288 ILH458755:ILI524288 IVD458755:IVE524288 JEZ458755:JFA524288 JOV458755:JOW524288 JYR458755:JYS524288 KIN458755:KIO524288 KSJ458755:KSK524288 LCF458755:LCG524288 LMB458755:LMC524288 LVX458755:LVY524288 MFT458755:MFU524288 MPP458755:MPQ524288 MZL458755:MZM524288 NJH458755:NJI524288 NTD458755:NTE524288 OCZ458755:ODA524288 OMV458755:OMW524288 OWR458755:OWS524288 PGN458755:PGO524288 PQJ458755:PQK524288 QAF458755:QAG524288 QKB458755:QKC524288 QTX458755:QTY524288 RDT458755:RDU524288 RNP458755:RNQ524288 RXL458755:RXM524288 SHH458755:SHI524288 SRD458755:SRE524288 TAZ458755:TBA524288 TKV458755:TKW524288 TUR458755:TUS524288 UEN458755:UEO524288 UOJ458755:UOK524288 UYF458755:UYG524288 VIB458755:VIC524288 VRX458755:VRY524288 WBT458755:WBU524288 WLP458755:WLQ524288 WVL458755:WVM524288 D589827:D655360 IZ524291:JA589824 SV524291:SW589824 ACR524291:ACS589824 AMN524291:AMO589824 AWJ524291:AWK589824 BGF524291:BGG589824 BQB524291:BQC589824 BZX524291:BZY589824 CJT524291:CJU589824 CTP524291:CTQ589824 DDL524291:DDM589824 DNH524291:DNI589824 DXD524291:DXE589824 EGZ524291:EHA589824 EQV524291:EQW589824 FAR524291:FAS589824 FKN524291:FKO589824 FUJ524291:FUK589824 GEF524291:GEG589824 GOB524291:GOC589824 GXX524291:GXY589824 HHT524291:HHU589824 HRP524291:HRQ589824 IBL524291:IBM589824 ILH524291:ILI589824 IVD524291:IVE589824 JEZ524291:JFA589824 JOV524291:JOW589824 JYR524291:JYS589824 KIN524291:KIO589824 KSJ524291:KSK589824 LCF524291:LCG589824 LMB524291:LMC589824 LVX524291:LVY589824 MFT524291:MFU589824 MPP524291:MPQ589824 MZL524291:MZM589824 NJH524291:NJI589824 NTD524291:NTE589824 OCZ524291:ODA589824 OMV524291:OMW589824 OWR524291:OWS589824 PGN524291:PGO589824 PQJ524291:PQK589824 QAF524291:QAG589824 QKB524291:QKC589824 QTX524291:QTY589824 RDT524291:RDU589824 RNP524291:RNQ589824 RXL524291:RXM589824 SHH524291:SHI589824 SRD524291:SRE589824 TAZ524291:TBA589824 TKV524291:TKW589824 TUR524291:TUS589824 UEN524291:UEO589824 UOJ524291:UOK589824 UYF524291:UYG589824 VIB524291:VIC589824 VRX524291:VRY589824 WBT524291:WBU589824 WLP524291:WLQ589824 WVL524291:WVM589824 D655363:D720896 IZ589827:JA655360 SV589827:SW655360 ACR589827:ACS655360 AMN589827:AMO655360 AWJ589827:AWK655360 BGF589827:BGG655360 BQB589827:BQC655360 BZX589827:BZY655360 CJT589827:CJU655360 CTP589827:CTQ655360 DDL589827:DDM655360 DNH589827:DNI655360 DXD589827:DXE655360 EGZ589827:EHA655360 EQV589827:EQW655360 FAR589827:FAS655360 FKN589827:FKO655360 FUJ589827:FUK655360 GEF589827:GEG655360 GOB589827:GOC655360 GXX589827:GXY655360 HHT589827:HHU655360 HRP589827:HRQ655360 IBL589827:IBM655360 ILH589827:ILI655360 IVD589827:IVE655360 JEZ589827:JFA655360 JOV589827:JOW655360 JYR589827:JYS655360 KIN589827:KIO655360 KSJ589827:KSK655360 LCF589827:LCG655360 LMB589827:LMC655360 LVX589827:LVY655360 MFT589827:MFU655360 MPP589827:MPQ655360 MZL589827:MZM655360 NJH589827:NJI655360 NTD589827:NTE655360 OCZ589827:ODA655360 OMV589827:OMW655360 OWR589827:OWS655360 PGN589827:PGO655360 PQJ589827:PQK655360 QAF589827:QAG655360 QKB589827:QKC655360 QTX589827:QTY655360 RDT589827:RDU655360 RNP589827:RNQ655360 RXL589827:RXM655360 SHH589827:SHI655360 SRD589827:SRE655360 TAZ589827:TBA655360 TKV589827:TKW655360 TUR589827:TUS655360 UEN589827:UEO655360 UOJ589827:UOK655360 UYF589827:UYG655360 VIB589827:VIC655360 VRX589827:VRY655360 WBT589827:WBU655360 WLP589827:WLQ655360 WVL589827:WVM655360 D720899:D786432 IZ655363:JA720896 SV655363:SW720896 ACR655363:ACS720896 AMN655363:AMO720896 AWJ655363:AWK720896 BGF655363:BGG720896 BQB655363:BQC720896 BZX655363:BZY720896 CJT655363:CJU720896 CTP655363:CTQ720896 DDL655363:DDM720896 DNH655363:DNI720896 DXD655363:DXE720896 EGZ655363:EHA720896 EQV655363:EQW720896 FAR655363:FAS720896 FKN655363:FKO720896 FUJ655363:FUK720896 GEF655363:GEG720896 GOB655363:GOC720896 GXX655363:GXY720896 HHT655363:HHU720896 HRP655363:HRQ720896 IBL655363:IBM720896 ILH655363:ILI720896 IVD655363:IVE720896 JEZ655363:JFA720896 JOV655363:JOW720896 JYR655363:JYS720896 KIN655363:KIO720896 KSJ655363:KSK720896 LCF655363:LCG720896 LMB655363:LMC720896 LVX655363:LVY720896 MFT655363:MFU720896 MPP655363:MPQ720896 MZL655363:MZM720896 NJH655363:NJI720896 NTD655363:NTE720896 OCZ655363:ODA720896 OMV655363:OMW720896 OWR655363:OWS720896 PGN655363:PGO720896 PQJ655363:PQK720896 QAF655363:QAG720896 QKB655363:QKC720896 QTX655363:QTY720896 RDT655363:RDU720896 RNP655363:RNQ720896 RXL655363:RXM720896 SHH655363:SHI720896 SRD655363:SRE720896 TAZ655363:TBA720896 TKV655363:TKW720896 TUR655363:TUS720896 UEN655363:UEO720896 UOJ655363:UOK720896 UYF655363:UYG720896 VIB655363:VIC720896 VRX655363:VRY720896 WBT655363:WBU720896 WLP655363:WLQ720896 WVL655363:WVM720896 D786435:D851968 IZ720899:JA786432 SV720899:SW786432 ACR720899:ACS786432 AMN720899:AMO786432 AWJ720899:AWK786432 BGF720899:BGG786432 BQB720899:BQC786432 BZX720899:BZY786432 CJT720899:CJU786432 CTP720899:CTQ786432 DDL720899:DDM786432 DNH720899:DNI786432 DXD720899:DXE786432 EGZ720899:EHA786432 EQV720899:EQW786432 FAR720899:FAS786432 FKN720899:FKO786432 FUJ720899:FUK786432 GEF720899:GEG786432 GOB720899:GOC786432 GXX720899:GXY786432 HHT720899:HHU786432 HRP720899:HRQ786432 IBL720899:IBM786432 ILH720899:ILI786432 IVD720899:IVE786432 JEZ720899:JFA786432 JOV720899:JOW786432 JYR720899:JYS786432 KIN720899:KIO786432 KSJ720899:KSK786432 LCF720899:LCG786432 LMB720899:LMC786432 LVX720899:LVY786432 MFT720899:MFU786432 MPP720899:MPQ786432 MZL720899:MZM786432 NJH720899:NJI786432 NTD720899:NTE786432 OCZ720899:ODA786432 OMV720899:OMW786432 OWR720899:OWS786432 PGN720899:PGO786432 PQJ720899:PQK786432 QAF720899:QAG786432 QKB720899:QKC786432 QTX720899:QTY786432 RDT720899:RDU786432 RNP720899:RNQ786432 RXL720899:RXM786432 SHH720899:SHI786432 SRD720899:SRE786432 TAZ720899:TBA786432 TKV720899:TKW786432 TUR720899:TUS786432 UEN720899:UEO786432 UOJ720899:UOK786432 UYF720899:UYG786432 VIB720899:VIC786432 VRX720899:VRY786432 WBT720899:WBU786432 WLP720899:WLQ786432 WVL720899:WVM786432 D851971:D917504 IZ786435:JA851968 SV786435:SW851968 ACR786435:ACS851968 AMN786435:AMO851968 AWJ786435:AWK851968 BGF786435:BGG851968 BQB786435:BQC851968 BZX786435:BZY851968 CJT786435:CJU851968 CTP786435:CTQ851968 DDL786435:DDM851968 DNH786435:DNI851968 DXD786435:DXE851968 EGZ786435:EHA851968 EQV786435:EQW851968 FAR786435:FAS851968 FKN786435:FKO851968 FUJ786435:FUK851968 GEF786435:GEG851968 GOB786435:GOC851968 GXX786435:GXY851968 HHT786435:HHU851968 HRP786435:HRQ851968 IBL786435:IBM851968 ILH786435:ILI851968 IVD786435:IVE851968 JEZ786435:JFA851968 JOV786435:JOW851968 JYR786435:JYS851968 KIN786435:KIO851968 KSJ786435:KSK851968 LCF786435:LCG851968 LMB786435:LMC851968 LVX786435:LVY851968 MFT786435:MFU851968 MPP786435:MPQ851968 MZL786435:MZM851968 NJH786435:NJI851968 NTD786435:NTE851968 OCZ786435:ODA851968 OMV786435:OMW851968 OWR786435:OWS851968 PGN786435:PGO851968 PQJ786435:PQK851968 QAF786435:QAG851968 QKB786435:QKC851968 QTX786435:QTY851968 RDT786435:RDU851968 RNP786435:RNQ851968 RXL786435:RXM851968 SHH786435:SHI851968 SRD786435:SRE851968 TAZ786435:TBA851968 TKV786435:TKW851968 TUR786435:TUS851968 UEN786435:UEO851968 UOJ786435:UOK851968 UYF786435:UYG851968 VIB786435:VIC851968 VRX786435:VRY851968 WBT786435:WBU851968 WLP786435:WLQ851968 WVL786435:WVM851968 D917507:D983040 IZ851971:JA917504 SV851971:SW917504 ACR851971:ACS917504 AMN851971:AMO917504 AWJ851971:AWK917504 BGF851971:BGG917504 BQB851971:BQC917504 BZX851971:BZY917504 CJT851971:CJU917504 CTP851971:CTQ917504 DDL851971:DDM917504 DNH851971:DNI917504 DXD851971:DXE917504 EGZ851971:EHA917504 EQV851971:EQW917504 FAR851971:FAS917504 FKN851971:FKO917504 FUJ851971:FUK917504 GEF851971:GEG917504 GOB851971:GOC917504 GXX851971:GXY917504 HHT851971:HHU917504 HRP851971:HRQ917504 IBL851971:IBM917504 ILH851971:ILI917504 IVD851971:IVE917504 JEZ851971:JFA917504 JOV851971:JOW917504 JYR851971:JYS917504 KIN851971:KIO917504 KSJ851971:KSK917504 LCF851971:LCG917504 LMB851971:LMC917504 LVX851971:LVY917504 MFT851971:MFU917504 MPP851971:MPQ917504 MZL851971:MZM917504 NJH851971:NJI917504 NTD851971:NTE917504 OCZ851971:ODA917504 OMV851971:OMW917504 OWR851971:OWS917504 PGN851971:PGO917504 PQJ851971:PQK917504 QAF851971:QAG917504 QKB851971:QKC917504 QTX851971:QTY917504 RDT851971:RDU917504 RNP851971:RNQ917504 RXL851971:RXM917504 SHH851971:SHI917504 SRD851971:SRE917504 TAZ851971:TBA917504 TKV851971:TKW917504 TUR851971:TUS917504 UEN851971:UEO917504 UOJ851971:UOK917504 UYF851971:UYG917504 VIB851971:VIC917504 VRX851971:VRY917504 WBT851971:WBU917504 WLP851971:WLQ917504 WVL851971:WVM917504 D983043:D1048576 IZ917507:JA983040 SV917507:SW983040 ACR917507:ACS983040 AMN917507:AMO983040 AWJ917507:AWK983040 BGF917507:BGG983040 BQB917507:BQC983040 BZX917507:BZY983040 CJT917507:CJU983040 CTP917507:CTQ983040 DDL917507:DDM983040 DNH917507:DNI983040 DXD917507:DXE983040 EGZ917507:EHA983040 EQV917507:EQW983040 FAR917507:FAS983040 FKN917507:FKO983040 FUJ917507:FUK983040 GEF917507:GEG983040 GOB917507:GOC983040 GXX917507:GXY983040 HHT917507:HHU983040 HRP917507:HRQ983040 IBL917507:IBM983040 ILH917507:ILI983040 IVD917507:IVE983040 JEZ917507:JFA983040 JOV917507:JOW983040 JYR917507:JYS983040 KIN917507:KIO983040 KSJ917507:KSK983040 LCF917507:LCG983040 LMB917507:LMC983040 LVX917507:LVY983040 MFT917507:MFU983040 MPP917507:MPQ983040 MZL917507:MZM983040 NJH917507:NJI983040 NTD917507:NTE983040 OCZ917507:ODA983040 OMV917507:OMW983040 OWR917507:OWS983040 PGN917507:PGO983040 PQJ917507:PQK983040 QAF917507:QAG983040 QKB917507:QKC983040 QTX917507:QTY983040 RDT917507:RDU983040 RNP917507:RNQ983040 RXL917507:RXM983040 SHH917507:SHI983040 SRD917507:SRE983040 TAZ917507:TBA983040 TKV917507:TKW983040 TUR917507:TUS983040 UEN917507:UEO983040 UOJ917507:UOK983040 UYF917507:UYG983040 VIB917507:VIC983040 VRX917507:VRY983040 WBT917507:WBU983040 WLP917507:WLQ983040 WVL917507:WVM983040 WVL983043:WVM1048576 IZ983043:JA1048576 SV983043:SW1048576 ACR983043:ACS1048576 AMN983043:AMO1048576 AWJ983043:AWK1048576 BGF983043:BGG1048576 BQB983043:BQC1048576 BZX983043:BZY1048576 CJT983043:CJU1048576 CTP983043:CTQ1048576 DDL983043:DDM1048576 DNH983043:DNI1048576 DXD983043:DXE1048576 EGZ983043:EHA1048576 EQV983043:EQW1048576 FAR983043:FAS1048576 FKN983043:FKO1048576 FUJ983043:FUK1048576 GEF983043:GEG1048576 GOB983043:GOC1048576 GXX983043:GXY1048576 HHT983043:HHU1048576 HRP983043:HRQ1048576 IBL983043:IBM1048576 ILH983043:ILI1048576 IVD983043:IVE1048576 JEZ983043:JFA1048576 JOV983043:JOW1048576 JYR983043:JYS1048576 KIN983043:KIO1048576 KSJ983043:KSK1048576 LCF983043:LCG1048576 LMB983043:LMC1048576 LVX983043:LVY1048576 MFT983043:MFU1048576 MPP983043:MPQ1048576 MZL983043:MZM1048576 NJH983043:NJI1048576 NTD983043:NTE1048576 OCZ983043:ODA1048576 OMV983043:OMW1048576 OWR983043:OWS1048576 PGN983043:PGO1048576 PQJ983043:PQK1048576 QAF983043:QAG1048576 QKB983043:QKC1048576 QTX983043:QTY1048576 RDT983043:RDU1048576 RNP983043:RNQ1048576 RXL983043:RXM1048576 SHH983043:SHI1048576 SRD983043:SRE1048576 TAZ983043:TBA1048576 TKV983043:TKW1048576 TUR983043:TUS1048576 UEN983043:UEO1048576 UOJ983043:UOK1048576 UYF983043:UYG1048576 VIB983043:VIC1048576 VRX983043:VRY1048576 WBT983043:WBU1048576 WLP983043:WLQ1048576 D3:D65536">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="数据格式不正确！" sqref="E65539:E131072 IY3:IZ65536 SU3:SV65536 ACQ3:ACR65536 AMM3:AMN65536 AWI3:AWJ65536 BGE3:BGF65536 BQA3:BQB65536 BZW3:BZX65536 CJS3:CJT65536 CTO3:CTP65536 DDK3:DDL65536 DNG3:DNH65536 DXC3:DXD65536 EGY3:EGZ65536 EQU3:EQV65536 FAQ3:FAR65536 FKM3:FKN65536 FUI3:FUJ65536 GEE3:GEF65536 GOA3:GOB65536 GXW3:GXX65536 HHS3:HHT65536 HRO3:HRP65536 IBK3:IBL65536 ILG3:ILH65536 IVC3:IVD65536 JEY3:JEZ65536 JOU3:JOV65536 JYQ3:JYR65536 KIM3:KIN65536 KSI3:KSJ65536 LCE3:LCF65536 LMA3:LMB65536 LVW3:LVX65536 MFS3:MFT65536 MPO3:MPP65536 MZK3:MZL65536 NJG3:NJH65536 NTC3:NTD65536 OCY3:OCZ65536 OMU3:OMV65536 OWQ3:OWR65536 PGM3:PGN65536 PQI3:PQJ65536 QAE3:QAF65536 QKA3:QKB65536 QTW3:QTX65536 RDS3:RDT65536 RNO3:RNP65536 RXK3:RXL65536 SHG3:SHH65536 SRC3:SRD65536 TAY3:TAZ65536 TKU3:TKV65536 TUQ3:TUR65536 UEM3:UEN65536 UOI3:UOJ65536 UYE3:UYF65536 VIA3:VIB65536 VRW3:VRX65536 WBS3:WBT65536 WLO3:WLP65536 WVK3:WVL65536 E131075:E196608 IY65539:IZ131072 SU65539:SV131072 ACQ65539:ACR131072 AMM65539:AMN131072 AWI65539:AWJ131072 BGE65539:BGF131072 BQA65539:BQB131072 BZW65539:BZX131072 CJS65539:CJT131072 CTO65539:CTP131072 DDK65539:DDL131072 DNG65539:DNH131072 DXC65539:DXD131072 EGY65539:EGZ131072 EQU65539:EQV131072 FAQ65539:FAR131072 FKM65539:FKN131072 FUI65539:FUJ131072 GEE65539:GEF131072 GOA65539:GOB131072 GXW65539:GXX131072 HHS65539:HHT131072 HRO65539:HRP131072 IBK65539:IBL131072 ILG65539:ILH131072 IVC65539:IVD131072 JEY65539:JEZ131072 JOU65539:JOV131072 JYQ65539:JYR131072 KIM65539:KIN131072 KSI65539:KSJ131072 LCE65539:LCF131072 LMA65539:LMB131072 LVW65539:LVX131072 MFS65539:MFT131072 MPO65539:MPP131072 MZK65539:MZL131072 NJG65539:NJH131072 NTC65539:NTD131072 OCY65539:OCZ131072 OMU65539:OMV131072 OWQ65539:OWR131072 PGM65539:PGN131072 PQI65539:PQJ131072 QAE65539:QAF131072 QKA65539:QKB131072 QTW65539:QTX131072 RDS65539:RDT131072 RNO65539:RNP131072 RXK65539:RXL131072 SHG65539:SHH131072 SRC65539:SRD131072 TAY65539:TAZ131072 TKU65539:TKV131072 TUQ65539:TUR131072 UEM65539:UEN131072 UOI65539:UOJ131072 UYE65539:UYF131072 VIA65539:VIB131072 VRW65539:VRX131072 WBS65539:WBT131072 WLO65539:WLP131072 WVK65539:WVL131072 E196611:E262144 IY131075:IZ196608 SU131075:SV196608 ACQ131075:ACR196608 AMM131075:AMN196608 AWI131075:AWJ196608 BGE131075:BGF196608 BQA131075:BQB196608 BZW131075:BZX196608 CJS131075:CJT196608 CTO131075:CTP196608 DDK131075:DDL196608 DNG131075:DNH196608 DXC131075:DXD196608 EGY131075:EGZ196608 EQU131075:EQV196608 FAQ131075:FAR196608 FKM131075:FKN196608 FUI131075:FUJ196608 GEE131075:GEF196608 GOA131075:GOB196608 GXW131075:GXX196608 HHS131075:HHT196608 HRO131075:HRP196608 IBK131075:IBL196608 ILG131075:ILH196608 IVC131075:IVD196608 JEY131075:JEZ196608 JOU131075:JOV196608 JYQ131075:JYR196608 KIM131075:KIN196608 KSI131075:KSJ196608 LCE131075:LCF196608 LMA131075:LMB196608 LVW131075:LVX196608 MFS131075:MFT196608 MPO131075:MPP196608 MZK131075:MZL196608 NJG131075:NJH196608 NTC131075:NTD196608 OCY131075:OCZ196608 OMU131075:OMV196608 OWQ131075:OWR196608 PGM131075:PGN196608 PQI131075:PQJ196608 QAE131075:QAF196608 QKA131075:QKB196608 QTW131075:QTX196608 RDS131075:RDT196608 RNO131075:RNP196608 RXK131075:RXL196608 SHG131075:SHH196608 SRC131075:SRD196608 TAY131075:TAZ196608 TKU131075:TKV196608 TUQ131075:TUR196608 UEM131075:UEN196608 UOI131075:UOJ196608 UYE131075:UYF196608 VIA131075:VIB196608 VRW131075:VRX196608 WBS131075:WBT196608 WLO131075:WLP196608 WVK131075:WVL196608 E262147:E327680 IY196611:IZ262144 SU196611:SV262144 ACQ196611:ACR262144 AMM196611:AMN262144 AWI196611:AWJ262144 BGE196611:BGF262144 BQA196611:BQB262144 BZW196611:BZX262144 CJS196611:CJT262144 CTO196611:CTP262144 DDK196611:DDL262144 DNG196611:DNH262144 DXC196611:DXD262144 EGY196611:EGZ262144 EQU196611:EQV262144 FAQ196611:FAR262144 FKM196611:FKN262144 FUI196611:FUJ262144 GEE196611:GEF262144 GOA196611:GOB262144 GXW196611:GXX262144 HHS196611:HHT262144 HRO196611:HRP262144 IBK196611:IBL262144 ILG196611:ILH262144 IVC196611:IVD262144 JEY196611:JEZ262144 JOU196611:JOV262144 JYQ196611:JYR262144 KIM196611:KIN262144 KSI196611:KSJ262144 LCE196611:LCF262144 LMA196611:LMB262144 LVW196611:LVX262144 MFS196611:MFT262144 MPO196611:MPP262144 MZK196611:MZL262144 NJG196611:NJH262144 NTC196611:NTD262144 OCY196611:OCZ262144 OMU196611:OMV262144 OWQ196611:OWR262144 PGM196611:PGN262144 PQI196611:PQJ262144 QAE196611:QAF262144 QKA196611:QKB262144 QTW196611:QTX262144 RDS196611:RDT262144 RNO196611:RNP262144 RXK196611:RXL262144 SHG196611:SHH262144 SRC196611:SRD262144 TAY196611:TAZ262144 TKU196611:TKV262144 TUQ196611:TUR262144 UEM196611:UEN262144 UOI196611:UOJ262144 UYE196611:UYF262144 VIA196611:VIB262144 VRW196611:VRX262144 WBS196611:WBT262144 WLO196611:WLP262144 WVK196611:WVL262144 E327683:E393216 IY262147:IZ327680 SU262147:SV327680 ACQ262147:ACR327680 AMM262147:AMN327680 AWI262147:AWJ327680 BGE262147:BGF327680 BQA262147:BQB327680 BZW262147:BZX327680 CJS262147:CJT327680 CTO262147:CTP327680 DDK262147:DDL327680 DNG262147:DNH327680 DXC262147:DXD327680 EGY262147:EGZ327680 EQU262147:EQV327680 FAQ262147:FAR327680 FKM262147:FKN327680 FUI262147:FUJ327680 GEE262147:GEF327680 GOA262147:GOB327680 GXW262147:GXX327680 HHS262147:HHT327680 HRO262147:HRP327680 IBK262147:IBL327680 ILG262147:ILH327680 IVC262147:IVD327680 JEY262147:JEZ327680 JOU262147:JOV327680 JYQ262147:JYR327680 KIM262147:KIN327680 KSI262147:KSJ327680 LCE262147:LCF327680 LMA262147:LMB327680 LVW262147:LVX327680 MFS262147:MFT327680 MPO262147:MPP327680 MZK262147:MZL327680 NJG262147:NJH327680 NTC262147:NTD327680 OCY262147:OCZ327680 OMU262147:OMV327680 OWQ262147:OWR327680 PGM262147:PGN327680 PQI262147:PQJ327680 QAE262147:QAF327680 QKA262147:QKB327680 QTW262147:QTX327680 RDS262147:RDT327680 RNO262147:RNP327680 RXK262147:RXL327680 SHG262147:SHH327680 SRC262147:SRD327680 TAY262147:TAZ327680 TKU262147:TKV327680 TUQ262147:TUR327680 UEM262147:UEN327680 UOI262147:UOJ327680 UYE262147:UYF327680 VIA262147:VIB327680 VRW262147:VRX327680 WBS262147:WBT327680 WLO262147:WLP327680 WVK262147:WVL327680 E393219:E458752 IY327683:IZ393216 SU327683:SV393216 ACQ327683:ACR393216 AMM327683:AMN393216 AWI327683:AWJ393216 BGE327683:BGF393216 BQA327683:BQB393216 BZW327683:BZX393216 CJS327683:CJT393216 CTO327683:CTP393216 DDK327683:DDL393216 DNG327683:DNH393216 DXC327683:DXD393216 EGY327683:EGZ393216 EQU327683:EQV393216 FAQ327683:FAR393216 FKM327683:FKN393216 FUI327683:FUJ393216 GEE327683:GEF393216 GOA327683:GOB393216 GXW327683:GXX393216 HHS327683:HHT393216 HRO327683:HRP393216 IBK327683:IBL393216 ILG327683:ILH393216 IVC327683:IVD393216 JEY327683:JEZ393216 JOU327683:JOV393216 JYQ327683:JYR393216 KIM327683:KIN393216 KSI327683:KSJ393216 LCE327683:LCF393216 LMA327683:LMB393216 LVW327683:LVX393216 MFS327683:MFT393216 MPO327683:MPP393216 MZK327683:MZL393216 NJG327683:NJH393216 NTC327683:NTD393216 OCY327683:OCZ393216 OMU327683:OMV393216 OWQ327683:OWR393216 PGM327683:PGN393216 PQI327683:PQJ393216 QAE327683:QAF393216 QKA327683:QKB393216 QTW327683:QTX393216 RDS327683:RDT393216 RNO327683:RNP393216 RXK327683:RXL393216 SHG327683:SHH393216 SRC327683:SRD393216 TAY327683:TAZ393216 TKU327683:TKV393216 TUQ327683:TUR393216 UEM327683:UEN393216 UOI327683:UOJ393216 UYE327683:UYF393216 VIA327683:VIB393216 VRW327683:VRX393216 WBS327683:WBT393216 WLO327683:WLP393216 WVK327683:WVL393216 E458755:E524288 IY393219:IZ458752 SU393219:SV458752 ACQ393219:ACR458752 AMM393219:AMN458752 AWI393219:AWJ458752 BGE393219:BGF458752 BQA393219:BQB458752 BZW393219:BZX458752 CJS393219:CJT458752 CTO393219:CTP458752 DDK393219:DDL458752 DNG393219:DNH458752 DXC393219:DXD458752 EGY393219:EGZ458752 EQU393219:EQV458752 FAQ393219:FAR458752 FKM393219:FKN458752 FUI393219:FUJ458752 GEE393219:GEF458752 GOA393219:GOB458752 GXW393219:GXX458752 HHS393219:HHT458752 HRO393219:HRP458752 IBK393219:IBL458752 ILG393219:ILH458752 IVC393219:IVD458752 JEY393219:JEZ458752 JOU393219:JOV458752 JYQ393219:JYR458752 KIM393219:KIN458752 KSI393219:KSJ458752 LCE393219:LCF458752 LMA393219:LMB458752 LVW393219:LVX458752 MFS393219:MFT458752 MPO393219:MPP458752 MZK393219:MZL458752 NJG393219:NJH458752 NTC393219:NTD458752 OCY393219:OCZ458752 OMU393219:OMV458752 OWQ393219:OWR458752 PGM393219:PGN458752 PQI393219:PQJ458752 QAE393219:QAF458752 QKA393219:QKB458752 QTW393219:QTX458752 RDS393219:RDT458752 RNO393219:RNP458752 RXK393219:RXL458752 SHG393219:SHH458752 SRC393219:SRD458752 TAY393219:TAZ458752 TKU393219:TKV458752 TUQ393219:TUR458752 UEM393219:UEN458752 UOI393219:UOJ458752 UYE393219:UYF458752 VIA393219:VIB458752 VRW393219:VRX458752 WBS393219:WBT458752 WLO393219:WLP458752 WVK393219:WVL458752 E524291:E589824 IY458755:IZ524288 SU458755:SV524288 ACQ458755:ACR524288 AMM458755:AMN524288 AWI458755:AWJ524288 BGE458755:BGF524288 BQA458755:BQB524288 BZW458755:BZX524288 CJS458755:CJT524288 CTO458755:CTP524288 DDK458755:DDL524288 DNG458755:DNH524288 DXC458755:DXD524288 EGY458755:EGZ524288 EQU458755:EQV524288 FAQ458755:FAR524288 FKM458755:FKN524288 FUI458755:FUJ524288 GEE458755:GEF524288 GOA458755:GOB524288 GXW458755:GXX524288 HHS458755:HHT524288 HRO458755:HRP524288 IBK458755:IBL524288 ILG458755:ILH524288 IVC458755:IVD524288 JEY458755:JEZ524288 JOU458755:JOV524288 JYQ458755:JYR524288 KIM458755:KIN524288 KSI458755:KSJ524288 LCE458755:LCF524288 LMA458755:LMB524288 LVW458755:LVX524288 MFS458755:MFT524288 MPO458755:MPP524288 MZK458755:MZL524288 NJG458755:NJH524288 NTC458755:NTD524288 OCY458755:OCZ524288 OMU458755:OMV524288 OWQ458755:OWR524288 PGM458755:PGN524288 PQI458755:PQJ524288 QAE458755:QAF524288 QKA458755:QKB524288 QTW458755:QTX524288 RDS458755:RDT524288 RNO458755:RNP524288 RXK458755:RXL524288 SHG458755:SHH524288 SRC458755:SRD524288 TAY458755:TAZ524288 TKU458755:TKV524288 TUQ458755:TUR524288 UEM458755:UEN524288 UOI458755:UOJ524288 UYE458755:UYF524288 VIA458755:VIB524288 VRW458755:VRX524288 WBS458755:WBT524288 WLO458755:WLP524288 WVK458755:WVL524288 E589827:E655360 IY524291:IZ589824 SU524291:SV589824 ACQ524291:ACR589824 AMM524291:AMN589824 AWI524291:AWJ589824 BGE524291:BGF589824 BQA524291:BQB589824 BZW524291:BZX589824 CJS524291:CJT589824 CTO524291:CTP589824 DDK524291:DDL589824 DNG524291:DNH589824 DXC524291:DXD589824 EGY524291:EGZ589824 EQU524291:EQV589824 FAQ524291:FAR589824 FKM524291:FKN589824 FUI524291:FUJ589824 GEE524291:GEF589824 GOA524291:GOB589824 GXW524291:GXX589824 HHS524291:HHT589824 HRO524291:HRP589824 IBK524291:IBL589824 ILG524291:ILH589824 IVC524291:IVD589824 JEY524291:JEZ589824 JOU524291:JOV589824 JYQ524291:JYR589824 KIM524291:KIN589824 KSI524291:KSJ589824 LCE524291:LCF589824 LMA524291:LMB589824 LVW524291:LVX589824 MFS524291:MFT589824 MPO524291:MPP589824 MZK524291:MZL589824 NJG524291:NJH589824 NTC524291:NTD589824 OCY524291:OCZ589824 OMU524291:OMV589824 OWQ524291:OWR589824 PGM524291:PGN589824 PQI524291:PQJ589824 QAE524291:QAF589824 QKA524291:QKB589824 QTW524291:QTX589824 RDS524291:RDT589824 RNO524291:RNP589824 RXK524291:RXL589824 SHG524291:SHH589824 SRC524291:SRD589824 TAY524291:TAZ589824 TKU524291:TKV589824 TUQ524291:TUR589824 UEM524291:UEN589824 UOI524291:UOJ589824 UYE524291:UYF589824 VIA524291:VIB589824 VRW524291:VRX589824 WBS524291:WBT589824 WLO524291:WLP589824 WVK524291:WVL589824 E655363:E720896 IY589827:IZ655360 SU589827:SV655360 ACQ589827:ACR655360 AMM589827:AMN655360 AWI589827:AWJ655360 BGE589827:BGF655360 BQA589827:BQB655360 BZW589827:BZX655360 CJS589827:CJT655360 CTO589827:CTP655360 DDK589827:DDL655360 DNG589827:DNH655360 DXC589827:DXD655360 EGY589827:EGZ655360 EQU589827:EQV655360 FAQ589827:FAR655360 FKM589827:FKN655360 FUI589827:FUJ655360 GEE589827:GEF655360 GOA589827:GOB655360 GXW589827:GXX655360 HHS589827:HHT655360 HRO589827:HRP655360 IBK589827:IBL655360 ILG589827:ILH655360 IVC589827:IVD655360 JEY589827:JEZ655360 JOU589827:JOV655360 JYQ589827:JYR655360 KIM589827:KIN655360 KSI589827:KSJ655360 LCE589827:LCF655360 LMA589827:LMB655360 LVW589827:LVX655360 MFS589827:MFT655360 MPO589827:MPP655360 MZK589827:MZL655360 NJG589827:NJH655360 NTC589827:NTD655360 OCY589827:OCZ655360 OMU589827:OMV655360 OWQ589827:OWR655360 PGM589827:PGN655360 PQI589827:PQJ655360 QAE589827:QAF655360 QKA589827:QKB655360 QTW589827:QTX655360 RDS589827:RDT655360 RNO589827:RNP655360 RXK589827:RXL655360 SHG589827:SHH655360 SRC589827:SRD655360 TAY589827:TAZ655360 TKU589827:TKV655360 TUQ589827:TUR655360 UEM589827:UEN655360 UOI589827:UOJ655360 UYE589827:UYF655360 VIA589827:VIB655360 VRW589827:VRX655360 WBS589827:WBT655360 WLO589827:WLP655360 WVK589827:WVL655360 E720899:E786432 IY655363:IZ720896 SU655363:SV720896 ACQ655363:ACR720896 AMM655363:AMN720896 AWI655363:AWJ720896 BGE655363:BGF720896 BQA655363:BQB720896 BZW655363:BZX720896 CJS655363:CJT720896 CTO655363:CTP720896 DDK655363:DDL720896 DNG655363:DNH720896 DXC655363:DXD720896 EGY655363:EGZ720896 EQU655363:EQV720896 FAQ655363:FAR720896 FKM655363:FKN720896 FUI655363:FUJ720896 GEE655363:GEF720896 GOA655363:GOB720896 GXW655363:GXX720896 HHS655363:HHT720896 HRO655363:HRP720896 IBK655363:IBL720896 ILG655363:ILH720896 IVC655363:IVD720896 JEY655363:JEZ720896 JOU655363:JOV720896 JYQ655363:JYR720896 KIM655363:KIN720896 KSI655363:KSJ720896 LCE655363:LCF720896 LMA655363:LMB720896 LVW655363:LVX720896 MFS655363:MFT720896 MPO655363:MPP720896 MZK655363:MZL720896 NJG655363:NJH720896 NTC655363:NTD720896 OCY655363:OCZ720896 OMU655363:OMV720896 OWQ655363:OWR720896 PGM655363:PGN720896 PQI655363:PQJ720896 QAE655363:QAF720896 QKA655363:QKB720896 QTW655363:QTX720896 RDS655363:RDT720896 RNO655363:RNP720896 RXK655363:RXL720896 SHG655363:SHH720896 SRC655363:SRD720896 TAY655363:TAZ720896 TKU655363:TKV720896 TUQ655363:TUR720896 UEM655363:UEN720896 UOI655363:UOJ720896 UYE655363:UYF720896 VIA655363:VIB720896 VRW655363:VRX720896 WBS655363:WBT720896 WLO655363:WLP720896 WVK655363:WVL720896 E786435:E851968 IY720899:IZ786432 SU720899:SV786432 ACQ720899:ACR786432 AMM720899:AMN786432 AWI720899:AWJ786432 BGE720899:BGF786432 BQA720899:BQB786432 BZW720899:BZX786432 CJS720899:CJT786432 CTO720899:CTP786432 DDK720899:DDL786432 DNG720899:DNH786432 DXC720899:DXD786432 EGY720899:EGZ786432 EQU720899:EQV786432 FAQ720899:FAR786432 FKM720899:FKN786432 FUI720899:FUJ786432 GEE720899:GEF786432 GOA720899:GOB786432 GXW720899:GXX786432 HHS720899:HHT786432 HRO720899:HRP786432 IBK720899:IBL786432 ILG720899:ILH786432 IVC720899:IVD786432 JEY720899:JEZ786432 JOU720899:JOV786432 JYQ720899:JYR786432 KIM720899:KIN786432 KSI720899:KSJ786432 LCE720899:LCF786432 LMA720899:LMB786432 LVW720899:LVX786432 MFS720899:MFT786432 MPO720899:MPP786432 MZK720899:MZL786432 NJG720899:NJH786432 NTC720899:NTD786432 OCY720899:OCZ786432 OMU720899:OMV786432 OWQ720899:OWR786432 PGM720899:PGN786432 PQI720899:PQJ786432 QAE720899:QAF786432 QKA720899:QKB786432 QTW720899:QTX786432 RDS720899:RDT786432 RNO720899:RNP786432 RXK720899:RXL786432 SHG720899:SHH786432 SRC720899:SRD786432 TAY720899:TAZ786432 TKU720899:TKV786432 TUQ720899:TUR786432 UEM720899:UEN786432 UOI720899:UOJ786432 UYE720899:UYF786432 VIA720899:VIB786432 VRW720899:VRX786432 WBS720899:WBT786432 WLO720899:WLP786432 WVK720899:WVL786432 E851971:E917504 IY786435:IZ851968 SU786435:SV851968 ACQ786435:ACR851968 AMM786435:AMN851968 AWI786435:AWJ851968 BGE786435:BGF851968 BQA786435:BQB851968 BZW786435:BZX851968 CJS786435:CJT851968 CTO786435:CTP851968 DDK786435:DDL851968 DNG786435:DNH851968 DXC786435:DXD851968 EGY786435:EGZ851968 EQU786435:EQV851968 FAQ786435:FAR851968 FKM786435:FKN851968 FUI786435:FUJ851968 GEE786435:GEF851968 GOA786435:GOB851968 GXW786435:GXX851968 HHS786435:HHT851968 HRO786435:HRP851968 IBK786435:IBL851968 ILG786435:ILH851968 IVC786435:IVD851968 JEY786435:JEZ851968 JOU786435:JOV851968 JYQ786435:JYR851968 KIM786435:KIN851968 KSI786435:KSJ851968 LCE786435:LCF851968 LMA786435:LMB851968 LVW786435:LVX851968 MFS786435:MFT851968 MPO786435:MPP851968 MZK786435:MZL851968 NJG786435:NJH851968 NTC786435:NTD851968 OCY786435:OCZ851968 OMU786435:OMV851968 OWQ786435:OWR851968 PGM786435:PGN851968 PQI786435:PQJ851968 QAE786435:QAF851968 QKA786435:QKB851968 QTW786435:QTX851968 RDS786435:RDT851968 RNO786435:RNP851968 RXK786435:RXL851968 SHG786435:SHH851968 SRC786435:SRD851968 TAY786435:TAZ851968 TKU786435:TKV851968 TUQ786435:TUR851968 UEM786435:UEN851968 UOI786435:UOJ851968 UYE786435:UYF851968 VIA786435:VIB851968 VRW786435:VRX851968 WBS786435:WBT851968 WLO786435:WLP851968 WVK786435:WVL851968 E917507:E983040 IY851971:IZ917504 SU851971:SV917504 ACQ851971:ACR917504 AMM851971:AMN917504 AWI851971:AWJ917504 BGE851971:BGF917504 BQA851971:BQB917504 BZW851971:BZX917504 CJS851971:CJT917504 CTO851971:CTP917504 DDK851971:DDL917504 DNG851971:DNH917504 DXC851971:DXD917504 EGY851971:EGZ917504 EQU851971:EQV917504 FAQ851971:FAR917504 FKM851971:FKN917504 FUI851971:FUJ917504 GEE851971:GEF917504 GOA851971:GOB917504 GXW851971:GXX917504 HHS851971:HHT917504 HRO851971:HRP917504 IBK851971:IBL917504 ILG851971:ILH917504 IVC851971:IVD917504 JEY851971:JEZ917504 JOU851971:JOV917504 JYQ851971:JYR917504 KIM851971:KIN917504 KSI851971:KSJ917504 LCE851971:LCF917504 LMA851971:LMB917504 LVW851971:LVX917504 MFS851971:MFT917504 MPO851971:MPP917504 MZK851971:MZL917504 NJG851971:NJH917504 NTC851971:NTD917504 OCY851971:OCZ917504 OMU851971:OMV917504 OWQ851971:OWR917504 PGM851971:PGN917504 PQI851971:PQJ917504 QAE851971:QAF917504 QKA851971:QKB917504 QTW851971:QTX917504 RDS851971:RDT917504 RNO851971:RNP917504 RXK851971:RXL917504 SHG851971:SHH917504 SRC851971:SRD917504 TAY851971:TAZ917504 TKU851971:TKV917504 TUQ851971:TUR917504 UEM851971:UEN917504 UOI851971:UOJ917504 UYE851971:UYF917504 VIA851971:VIB917504 VRW851971:VRX917504 WBS851971:WBT917504 WLO851971:WLP917504 WVK851971:WVL917504 E983043:E1048576 IY917507:IZ983040 SU917507:SV983040 ACQ917507:ACR983040 AMM917507:AMN983040 AWI917507:AWJ983040 BGE917507:BGF983040 BQA917507:BQB983040 BZW917507:BZX983040 CJS917507:CJT983040 CTO917507:CTP983040 DDK917507:DDL983040 DNG917507:DNH983040 DXC917507:DXD983040 EGY917507:EGZ983040 EQU917507:EQV983040 FAQ917507:FAR983040 FKM917507:FKN983040 FUI917507:FUJ983040 GEE917507:GEF983040 GOA917507:GOB983040 GXW917507:GXX983040 HHS917507:HHT983040 HRO917507:HRP983040 IBK917507:IBL983040 ILG917507:ILH983040 IVC917507:IVD983040 JEY917507:JEZ983040 JOU917507:JOV983040 JYQ917507:JYR983040 KIM917507:KIN983040 KSI917507:KSJ983040 LCE917507:LCF983040 LMA917507:LMB983040 LVW917507:LVX983040 MFS917507:MFT983040 MPO917507:MPP983040 MZK917507:MZL983040 NJG917507:NJH983040 NTC917507:NTD983040 OCY917507:OCZ983040 OMU917507:OMV983040 OWQ917507:OWR983040 PGM917507:PGN983040 PQI917507:PQJ983040 QAE917507:QAF983040 QKA917507:QKB983040 QTW917507:QTX983040 RDS917507:RDT983040 RNO917507:RNP983040 RXK917507:RXL983040 SHG917507:SHH983040 SRC917507:SRD983040 TAY917507:TAZ983040 TKU917507:TKV983040 TUQ917507:TUR983040 UEM917507:UEN983040 UOI917507:UOJ983040 UYE917507:UYF983040 VIA917507:VIB983040 VRW917507:VRX983040 WBS917507:WBT983040 WLO917507:WLP983040 WVK917507:WVL983040 WVK983043:WVL1048576 IY983043:IZ1048576 SU983043:SV1048576 ACQ983043:ACR1048576 AMM983043:AMN1048576 AWI983043:AWJ1048576 BGE983043:BGF1048576 BQA983043:BQB1048576 BZW983043:BZX1048576 CJS983043:CJT1048576 CTO983043:CTP1048576 DDK983043:DDL1048576 DNG983043:DNH1048576 DXC983043:DXD1048576 EGY983043:EGZ1048576 EQU983043:EQV1048576 FAQ983043:FAR1048576 FKM983043:FKN1048576 FUI983043:FUJ1048576 GEE983043:GEF1048576 GOA983043:GOB1048576 GXW983043:GXX1048576 HHS983043:HHT1048576 HRO983043:HRP1048576 IBK983043:IBL1048576 ILG983043:ILH1048576 IVC983043:IVD1048576 JEY983043:JEZ1048576 JOU983043:JOV1048576 JYQ983043:JYR1048576 KIM983043:KIN1048576 KSI983043:KSJ1048576 LCE983043:LCF1048576 LMA983043:LMB1048576 LVW983043:LVX1048576 MFS983043:MFT1048576 MPO983043:MPP1048576 MZK983043:MZL1048576 NJG983043:NJH1048576 NTC983043:NTD1048576 OCY983043:OCZ1048576 OMU983043:OMV1048576 OWQ983043:OWR1048576 PGM983043:PGN1048576 PQI983043:PQJ1048576 QAE983043:QAF1048576 QKA983043:QKB1048576 QTW983043:QTX1048576 RDS983043:RDT1048576 RNO983043:RNP1048576 RXK983043:RXL1048576 SHG983043:SHH1048576 SRC983043:SRD1048576 TAY983043:TAZ1048576 TKU983043:TKV1048576 TUQ983043:TUR1048576 UEM983043:UEN1048576 UOI983043:UOJ1048576 UYE983043:UYF1048576 VIA983043:VIB1048576 VRW983043:VRX1048576 WBS983043:WBT1048576 WLO983043:WLP1048576 E3:E65536">
       <formula1>-4294967296</formula1>
       <formula2>4294967296</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！" sqref="C3:C65536 IY3:IY65536 SU3:SU65536 ACQ3:ACQ65536 AMM3:AMM65536 AWI3:AWI65536 BGE3:BGE65536 BQA3:BQA65536 BZW3:BZW65536 CJS3:CJS65536 CTO3:CTO65536 DDK3:DDK65536 DNG3:DNG65536 DXC3:DXC65536 EGY3:EGY65536 EQU3:EQU65536 FAQ3:FAQ65536 FKM3:FKM65536 FUI3:FUI65536 GEE3:GEE65536 GOA3:GOA65536 GXW3:GXW65536 HHS3:HHS65536 HRO3:HRO65536 IBK3:IBK65536 ILG3:ILG65536 IVC3:IVC65536 JEY3:JEY65536 JOU3:JOU65536 JYQ3:JYQ65536 KIM3:KIM65536 KSI3:KSI65536 LCE3:LCE65536 LMA3:LMA65536 LVW3:LVW65536 MFS3:MFS65536 MPO3:MPO65536 MZK3:MZK65536 NJG3:NJG65536 NTC3:NTC65536 OCY3:OCY65536 OMU3:OMU65536 OWQ3:OWQ65536 PGM3:PGM65536 PQI3:PQI65536 QAE3:QAE65536 QKA3:QKA65536 QTW3:QTW65536 RDS3:RDS65536 RNO3:RNO65536 RXK3:RXK65536 SHG3:SHG65536 SRC3:SRC65536 TAY3:TAY65536 TKU3:TKU65536 TUQ3:TUQ65536 UEM3:UEM65536 UOI3:UOI65536 UYE3:UYE65536 VIA3:VIA65536 VRW3:VRW65536 WBS3:WBS65536 WLO3:WLO65536 WVK3:WVK65536 C65539:C131072 IY65539:IY131072 SU65539:SU131072 ACQ65539:ACQ131072 AMM65539:AMM131072 AWI65539:AWI131072 BGE65539:BGE131072 BQA65539:BQA131072 BZW65539:BZW131072 CJS65539:CJS131072 CTO65539:CTO131072 DDK65539:DDK131072 DNG65539:DNG131072 DXC65539:DXC131072 EGY65539:EGY131072 EQU65539:EQU131072 FAQ65539:FAQ131072 FKM65539:FKM131072 FUI65539:FUI131072 GEE65539:GEE131072 GOA65539:GOA131072 GXW65539:GXW131072 HHS65539:HHS131072 HRO65539:HRO131072 IBK65539:IBK131072 ILG65539:ILG131072 IVC65539:IVC131072 JEY65539:JEY131072 JOU65539:JOU131072 JYQ65539:JYQ131072 KIM65539:KIM131072 KSI65539:KSI131072 LCE65539:LCE131072 LMA65539:LMA131072 LVW65539:LVW131072 MFS65539:MFS131072 MPO65539:MPO131072 MZK65539:MZK131072 NJG65539:NJG131072 NTC65539:NTC131072 OCY65539:OCY131072 OMU65539:OMU131072 OWQ65539:OWQ131072 PGM65539:PGM131072 PQI65539:PQI131072 QAE65539:QAE131072 QKA65539:QKA131072 QTW65539:QTW131072 RDS65539:RDS131072 RNO65539:RNO131072 RXK65539:RXK131072 SHG65539:SHG131072 SRC65539:SRC131072 TAY65539:TAY131072 TKU65539:TKU131072 TUQ65539:TUQ131072 UEM65539:UEM131072 UOI65539:UOI131072 UYE65539:UYE131072 VIA65539:VIA131072 VRW65539:VRW131072 WBS65539:WBS131072 WLO65539:WLO131072 WVK65539:WVK131072 C131075:C196608 IY131075:IY196608 SU131075:SU196608 ACQ131075:ACQ196608 AMM131075:AMM196608 AWI131075:AWI196608 BGE131075:BGE196608 BQA131075:BQA196608 BZW131075:BZW196608 CJS131075:CJS196608 CTO131075:CTO196608 DDK131075:DDK196608 DNG131075:DNG196608 DXC131075:DXC196608 EGY131075:EGY196608 EQU131075:EQU196608 FAQ131075:FAQ196608 FKM131075:FKM196608 FUI131075:FUI196608 GEE131075:GEE196608 GOA131075:GOA196608 GXW131075:GXW196608 HHS131075:HHS196608 HRO131075:HRO196608 IBK131075:IBK196608 ILG131075:ILG196608 IVC131075:IVC196608 JEY131075:JEY196608 JOU131075:JOU196608 JYQ131075:JYQ196608 KIM131075:KIM196608 KSI131075:KSI196608 LCE131075:LCE196608 LMA131075:LMA196608 LVW131075:LVW196608 MFS131075:MFS196608 MPO131075:MPO196608 MZK131075:MZK196608 NJG131075:NJG196608 NTC131075:NTC196608 OCY131075:OCY196608 OMU131075:OMU196608 OWQ131075:OWQ196608 PGM131075:PGM196608 PQI131075:PQI196608 QAE131075:QAE196608 QKA131075:QKA196608 QTW131075:QTW196608 RDS131075:RDS196608 RNO131075:RNO196608 RXK131075:RXK196608 SHG131075:SHG196608 SRC131075:SRC196608 TAY131075:TAY196608 TKU131075:TKU196608 TUQ131075:TUQ196608 UEM131075:UEM196608 UOI131075:UOI196608 UYE131075:UYE196608 VIA131075:VIA196608 VRW131075:VRW196608 WBS131075:WBS196608 WLO131075:WLO196608 WVK131075:WVK196608 C196611:C262144 IY196611:IY262144 SU196611:SU262144 ACQ196611:ACQ262144 AMM196611:AMM262144 AWI196611:AWI262144 BGE196611:BGE262144 BQA196611:BQA262144 BZW196611:BZW262144 CJS196611:CJS262144 CTO196611:CTO262144 DDK196611:DDK262144 DNG196611:DNG262144 DXC196611:DXC262144 EGY196611:EGY262144 EQU196611:EQU262144 FAQ196611:FAQ262144 FKM196611:FKM262144 FUI196611:FUI262144 GEE196611:GEE262144 GOA196611:GOA262144 GXW196611:GXW262144 HHS196611:HHS262144 HRO196611:HRO262144 IBK196611:IBK262144 ILG196611:ILG262144 IVC196611:IVC262144 JEY196611:JEY262144 JOU196611:JOU262144 JYQ196611:JYQ262144 KIM196611:KIM262144 KSI196611:KSI262144 LCE196611:LCE262144 LMA196611:LMA262144 LVW196611:LVW262144 MFS196611:MFS262144 MPO196611:MPO262144 MZK196611:MZK262144 NJG196611:NJG262144 NTC196611:NTC262144 OCY196611:OCY262144 OMU196611:OMU262144 OWQ196611:OWQ262144 PGM196611:PGM262144 PQI196611:PQI262144 QAE196611:QAE262144 QKA196611:QKA262144 QTW196611:QTW262144 RDS196611:RDS262144 RNO196611:RNO262144 RXK196611:RXK262144 SHG196611:SHG262144 SRC196611:SRC262144 TAY196611:TAY262144 TKU196611:TKU262144 TUQ196611:TUQ262144 UEM196611:UEM262144 UOI196611:UOI262144 UYE196611:UYE262144 VIA196611:VIA262144 VRW196611:VRW262144 WBS196611:WBS262144 WLO196611:WLO262144 WVK196611:WVK262144 C262147:C327680 IY262147:IY327680 SU262147:SU327680 ACQ262147:ACQ327680 AMM262147:AMM327680 AWI262147:AWI327680 BGE262147:BGE327680 BQA262147:BQA327680 BZW262147:BZW327680 CJS262147:CJS327680 CTO262147:CTO327680 DDK262147:DDK327680 DNG262147:DNG327680 DXC262147:DXC327680 EGY262147:EGY327680 EQU262147:EQU327680 FAQ262147:FAQ327680 FKM262147:FKM327680 FUI262147:FUI327680 GEE262147:GEE327680 GOA262147:GOA327680 GXW262147:GXW327680 HHS262147:HHS327680 HRO262147:HRO327680 IBK262147:IBK327680 ILG262147:ILG327680 IVC262147:IVC327680 JEY262147:JEY327680 JOU262147:JOU327680 JYQ262147:JYQ327680 KIM262147:KIM327680 KSI262147:KSI327680 LCE262147:LCE327680 LMA262147:LMA327680 LVW262147:LVW327680 MFS262147:MFS327680 MPO262147:MPO327680 MZK262147:MZK327680 NJG262147:NJG327680 NTC262147:NTC327680 OCY262147:OCY327680 OMU262147:OMU327680 OWQ262147:OWQ327680 PGM262147:PGM327680 PQI262147:PQI327680 QAE262147:QAE327680 QKA262147:QKA327680 QTW262147:QTW327680 RDS262147:RDS327680 RNO262147:RNO327680 RXK262147:RXK327680 SHG262147:SHG327680 SRC262147:SRC327680 TAY262147:TAY327680 TKU262147:TKU327680 TUQ262147:TUQ327680 UEM262147:UEM327680 UOI262147:UOI327680 UYE262147:UYE327680 VIA262147:VIA327680 VRW262147:VRW327680 WBS262147:WBS327680 WLO262147:WLO327680 WVK262147:WVK327680 C327683:C393216 IY327683:IY393216 SU327683:SU393216 ACQ327683:ACQ393216 AMM327683:AMM393216 AWI327683:AWI393216 BGE327683:BGE393216 BQA327683:BQA393216 BZW327683:BZW393216 CJS327683:CJS393216 CTO327683:CTO393216 DDK327683:DDK393216 DNG327683:DNG393216 DXC327683:DXC393216 EGY327683:EGY393216 EQU327683:EQU393216 FAQ327683:FAQ393216 FKM327683:FKM393216 FUI327683:FUI393216 GEE327683:GEE393216 GOA327683:GOA393216 GXW327683:GXW393216 HHS327683:HHS393216 HRO327683:HRO393216 IBK327683:IBK393216 ILG327683:ILG393216 IVC327683:IVC393216 JEY327683:JEY393216 JOU327683:JOU393216 JYQ327683:JYQ393216 KIM327683:KIM393216 KSI327683:KSI393216 LCE327683:LCE393216 LMA327683:LMA393216 LVW327683:LVW393216 MFS327683:MFS393216 MPO327683:MPO393216 MZK327683:MZK393216 NJG327683:NJG393216 NTC327683:NTC393216 OCY327683:OCY393216 OMU327683:OMU393216 OWQ327683:OWQ393216 PGM327683:PGM393216 PQI327683:PQI393216 QAE327683:QAE393216 QKA327683:QKA393216 QTW327683:QTW393216 RDS327683:RDS393216 RNO327683:RNO393216 RXK327683:RXK393216 SHG327683:SHG393216 SRC327683:SRC393216 TAY327683:TAY393216 TKU327683:TKU393216 TUQ327683:TUQ393216 UEM327683:UEM393216 UOI327683:UOI393216 UYE327683:UYE393216 VIA327683:VIA393216 VRW327683:VRW393216 WBS327683:WBS393216 WLO327683:WLO393216 WVK327683:WVK393216 C393219:C458752 IY393219:IY458752 SU393219:SU458752 ACQ393219:ACQ458752 AMM393219:AMM458752 AWI393219:AWI458752 BGE393219:BGE458752 BQA393219:BQA458752 BZW393219:BZW458752 CJS393219:CJS458752 CTO393219:CTO458752 DDK393219:DDK458752 DNG393219:DNG458752 DXC393219:DXC458752 EGY393219:EGY458752 EQU393219:EQU458752 FAQ393219:FAQ458752 FKM393219:FKM458752 FUI393219:FUI458752 GEE393219:GEE458752 GOA393219:GOA458752 GXW393219:GXW458752 HHS393219:HHS458752 HRO393219:HRO458752 IBK393219:IBK458752 ILG393219:ILG458752 IVC393219:IVC458752 JEY393219:JEY458752 JOU393219:JOU458752 JYQ393219:JYQ458752 KIM393219:KIM458752 KSI393219:KSI458752 LCE393219:LCE458752 LMA393219:LMA458752 LVW393219:LVW458752 MFS393219:MFS458752 MPO393219:MPO458752 MZK393219:MZK458752 NJG393219:NJG458752 NTC393219:NTC458752 OCY393219:OCY458752 OMU393219:OMU458752 OWQ393219:OWQ458752 PGM393219:PGM458752 PQI393219:PQI458752 QAE393219:QAE458752 QKA393219:QKA458752 QTW393219:QTW458752 RDS393219:RDS458752 RNO393219:RNO458752 RXK393219:RXK458752 SHG393219:SHG458752 SRC393219:SRC458752 TAY393219:TAY458752 TKU393219:TKU458752 TUQ393219:TUQ458752 UEM393219:UEM458752 UOI393219:UOI458752 UYE393219:UYE458752 VIA393219:VIA458752 VRW393219:VRW458752 WBS393219:WBS458752 WLO393219:WLO458752 WVK393219:WVK458752 C458755:C524288 IY458755:IY524288 SU458755:SU524288 ACQ458755:ACQ524288 AMM458755:AMM524288 AWI458755:AWI524288 BGE458755:BGE524288 BQA458755:BQA524288 BZW458755:BZW524288 CJS458755:CJS524288 CTO458755:CTO524288 DDK458755:DDK524288 DNG458755:DNG524288 DXC458755:DXC524288 EGY458755:EGY524288 EQU458755:EQU524288 FAQ458755:FAQ524288 FKM458755:FKM524288 FUI458755:FUI524288 GEE458755:GEE524288 GOA458755:GOA524288 GXW458755:GXW524288 HHS458755:HHS524288 HRO458755:HRO524288 IBK458755:IBK524288 ILG458755:ILG524288 IVC458755:IVC524288 JEY458755:JEY524288 JOU458755:JOU524288 JYQ458755:JYQ524288 KIM458755:KIM524288 KSI458755:KSI524288 LCE458755:LCE524288 LMA458755:LMA524288 LVW458755:LVW524288 MFS458755:MFS524288 MPO458755:MPO524288 MZK458755:MZK524288 NJG458755:NJG524288 NTC458755:NTC524288 OCY458755:OCY524288 OMU458755:OMU524288 OWQ458755:OWQ524288 PGM458755:PGM524288 PQI458755:PQI524288 QAE458755:QAE524288 QKA458755:QKA524288 QTW458755:QTW524288 RDS458755:RDS524288 RNO458755:RNO524288 RXK458755:RXK524288 SHG458755:SHG524288 SRC458755:SRC524288 TAY458755:TAY524288 TKU458755:TKU524288 TUQ458755:TUQ524288 UEM458755:UEM524288 UOI458755:UOI524288 UYE458755:UYE524288 VIA458755:VIA524288 VRW458755:VRW524288 WBS458755:WBS524288 WLO458755:WLO524288 WVK458755:WVK524288 C524291:C589824 IY524291:IY589824 SU524291:SU589824 ACQ524291:ACQ589824 AMM524291:AMM589824 AWI524291:AWI589824 BGE524291:BGE589824 BQA524291:BQA589824 BZW524291:BZW589824 CJS524291:CJS589824 CTO524291:CTO589824 DDK524291:DDK589824 DNG524291:DNG589824 DXC524291:DXC589824 EGY524291:EGY589824 EQU524291:EQU589824 FAQ524291:FAQ589824 FKM524291:FKM589824 FUI524291:FUI589824 GEE524291:GEE589824 GOA524291:GOA589824 GXW524291:GXW589824 HHS524291:HHS589824 HRO524291:HRO589824 IBK524291:IBK589824 ILG524291:ILG589824 IVC524291:IVC589824 JEY524291:JEY589824 JOU524291:JOU589824 JYQ524291:JYQ589824 KIM524291:KIM589824 KSI524291:KSI589824 LCE524291:LCE589824 LMA524291:LMA589824 LVW524291:LVW589824 MFS524291:MFS589824 MPO524291:MPO589824 MZK524291:MZK589824 NJG524291:NJG589824 NTC524291:NTC589824 OCY524291:OCY589824 OMU524291:OMU589824 OWQ524291:OWQ589824 PGM524291:PGM589824 PQI524291:PQI589824 QAE524291:QAE589824 QKA524291:QKA589824 QTW524291:QTW589824 RDS524291:RDS589824 RNO524291:RNO589824 RXK524291:RXK589824 SHG524291:SHG589824 SRC524291:SRC589824 TAY524291:TAY589824 TKU524291:TKU589824 TUQ524291:TUQ589824 UEM524291:UEM589824 UOI524291:UOI589824 UYE524291:UYE589824 VIA524291:VIA589824 VRW524291:VRW589824 WBS524291:WBS589824 WLO524291:WLO589824 WVK524291:WVK589824 C589827:C655360 IY589827:IY655360 SU589827:SU655360 ACQ589827:ACQ655360 AMM589827:AMM655360 AWI589827:AWI655360 BGE589827:BGE655360 BQA589827:BQA655360 BZW589827:BZW655360 CJS589827:CJS655360 CTO589827:CTO655360 DDK589827:DDK655360 DNG589827:DNG655360 DXC589827:DXC655360 EGY589827:EGY655360 EQU589827:EQU655360 FAQ589827:FAQ655360 FKM589827:FKM655360 FUI589827:FUI655360 GEE589827:GEE655360 GOA589827:GOA655360 GXW589827:GXW655360 HHS589827:HHS655360 HRO589827:HRO655360 IBK589827:IBK655360 ILG589827:ILG655360 IVC589827:IVC655360 JEY589827:JEY655360 JOU589827:JOU655360 JYQ589827:JYQ655360 KIM589827:KIM655360 KSI589827:KSI655360 LCE589827:LCE655360 LMA589827:LMA655360 LVW589827:LVW655360 MFS589827:MFS655360 MPO589827:MPO655360 MZK589827:MZK655360 NJG589827:NJG655360 NTC589827:NTC655360 OCY589827:OCY655360 OMU589827:OMU655360 OWQ589827:OWQ655360 PGM589827:PGM655360 PQI589827:PQI655360 QAE589827:QAE655360 QKA589827:QKA655360 QTW589827:QTW655360 RDS589827:RDS655360 RNO589827:RNO655360 RXK589827:RXK655360 SHG589827:SHG655360 SRC589827:SRC655360 TAY589827:TAY655360 TKU589827:TKU655360 TUQ589827:TUQ655360 UEM589827:UEM655360 UOI589827:UOI655360 UYE589827:UYE655360 VIA589827:VIA655360 VRW589827:VRW655360 WBS589827:WBS655360 WLO589827:WLO655360 WVK589827:WVK655360 C655363:C720896 IY655363:IY720896 SU655363:SU720896 ACQ655363:ACQ720896 AMM655363:AMM720896 AWI655363:AWI720896 BGE655363:BGE720896 BQA655363:BQA720896 BZW655363:BZW720896 CJS655363:CJS720896 CTO655363:CTO720896 DDK655363:DDK720896 DNG655363:DNG720896 DXC655363:DXC720896 EGY655363:EGY720896 EQU655363:EQU720896 FAQ655363:FAQ720896 FKM655363:FKM720896 FUI655363:FUI720896 GEE655363:GEE720896 GOA655363:GOA720896 GXW655363:GXW720896 HHS655363:HHS720896 HRO655363:HRO720896 IBK655363:IBK720896 ILG655363:ILG720896 IVC655363:IVC720896 JEY655363:JEY720896 JOU655363:JOU720896 JYQ655363:JYQ720896 KIM655363:KIM720896 KSI655363:KSI720896 LCE655363:LCE720896 LMA655363:LMA720896 LVW655363:LVW720896 MFS655363:MFS720896 MPO655363:MPO720896 MZK655363:MZK720896 NJG655363:NJG720896 NTC655363:NTC720896 OCY655363:OCY720896 OMU655363:OMU720896 OWQ655363:OWQ720896 PGM655363:PGM720896 PQI655363:PQI720896 QAE655363:QAE720896 QKA655363:QKA720896 QTW655363:QTW720896 RDS655363:RDS720896 RNO655363:RNO720896 RXK655363:RXK720896 SHG655363:SHG720896 SRC655363:SRC720896 TAY655363:TAY720896 TKU655363:TKU720896 TUQ655363:TUQ720896 UEM655363:UEM720896 UOI655363:UOI720896 UYE655363:UYE720896 VIA655363:VIA720896 VRW655363:VRW720896 WBS655363:WBS720896 WLO655363:WLO720896 WVK655363:WVK720896 C720899:C786432 IY720899:IY786432 SU720899:SU786432 ACQ720899:ACQ786432 AMM720899:AMM786432 AWI720899:AWI786432 BGE720899:BGE786432 BQA720899:BQA786432 BZW720899:BZW786432 CJS720899:CJS786432 CTO720899:CTO786432 DDK720899:DDK786432 DNG720899:DNG786432 DXC720899:DXC786432 EGY720899:EGY786432 EQU720899:EQU786432 FAQ720899:FAQ786432 FKM720899:FKM786432 FUI720899:FUI786432 GEE720899:GEE786432 GOA720899:GOA786432 GXW720899:GXW786432 HHS720899:HHS786432 HRO720899:HRO786432 IBK720899:IBK786432 ILG720899:ILG786432 IVC720899:IVC786432 JEY720899:JEY786432 JOU720899:JOU786432 JYQ720899:JYQ786432 KIM720899:KIM786432 KSI720899:KSI786432 LCE720899:LCE786432 LMA720899:LMA786432 LVW720899:LVW786432 MFS720899:MFS786432 MPO720899:MPO786432 MZK720899:MZK786432 NJG720899:NJG786432 NTC720899:NTC786432 OCY720899:OCY786432 OMU720899:OMU786432 OWQ720899:OWQ786432 PGM720899:PGM786432 PQI720899:PQI786432 QAE720899:QAE786432 QKA720899:QKA786432 QTW720899:QTW786432 RDS720899:RDS786432 RNO720899:RNO786432 RXK720899:RXK786432 SHG720899:SHG786432 SRC720899:SRC786432 TAY720899:TAY786432 TKU720899:TKU786432 TUQ720899:TUQ786432 UEM720899:UEM786432 UOI720899:UOI786432 UYE720899:UYE786432 VIA720899:VIA786432 VRW720899:VRW786432 WBS720899:WBS786432 WLO720899:WLO786432 WVK720899:WVK786432 C786435:C851968 IY786435:IY851968 SU786435:SU851968 ACQ786435:ACQ851968 AMM786435:AMM851968 AWI786435:AWI851968 BGE786435:BGE851968 BQA786435:BQA851968 BZW786435:BZW851968 CJS786435:CJS851968 CTO786435:CTO851968 DDK786435:DDK851968 DNG786435:DNG851968 DXC786435:DXC851968 EGY786435:EGY851968 EQU786435:EQU851968 FAQ786435:FAQ851968 FKM786435:FKM851968 FUI786435:FUI851968 GEE786435:GEE851968 GOA786435:GOA851968 GXW786435:GXW851968 HHS786435:HHS851968 HRO786435:HRO851968 IBK786435:IBK851968 ILG786435:ILG851968 IVC786435:IVC851968 JEY786435:JEY851968 JOU786435:JOU851968 JYQ786435:JYQ851968 KIM786435:KIM851968 KSI786435:KSI851968 LCE786435:LCE851968 LMA786435:LMA851968 LVW786435:LVW851968 MFS786435:MFS851968 MPO786435:MPO851968 MZK786435:MZK851968 NJG786435:NJG851968 NTC786435:NTC851968 OCY786435:OCY851968 OMU786435:OMU851968 OWQ786435:OWQ851968 PGM786435:PGM851968 PQI786435:PQI851968 QAE786435:QAE851968 QKA786435:QKA851968 QTW786435:QTW851968 RDS786435:RDS851968 RNO786435:RNO851968 RXK786435:RXK851968 SHG786435:SHG851968 SRC786435:SRC851968 TAY786435:TAY851968 TKU786435:TKU851968 TUQ786435:TUQ851968 UEM786435:UEM851968 UOI786435:UOI851968 UYE786435:UYE851968 VIA786435:VIA851968 VRW786435:VRW851968 WBS786435:WBS851968 WLO786435:WLO851968 WVK786435:WVK851968 C851971:C917504 IY851971:IY917504 SU851971:SU917504 ACQ851971:ACQ917504 AMM851971:AMM917504 AWI851971:AWI917504 BGE851971:BGE917504 BQA851971:BQA917504 BZW851971:BZW917504 CJS851971:CJS917504 CTO851971:CTO917504 DDK851971:DDK917504 DNG851971:DNG917504 DXC851971:DXC917504 EGY851971:EGY917504 EQU851971:EQU917504 FAQ851971:FAQ917504 FKM851971:FKM917504 FUI851971:FUI917504 GEE851971:GEE917504 GOA851971:GOA917504 GXW851971:GXW917504 HHS851971:HHS917504 HRO851971:HRO917504 IBK851971:IBK917504 ILG851971:ILG917504 IVC851971:IVC917504 JEY851971:JEY917504 JOU851971:JOU917504 JYQ851971:JYQ917504 KIM851971:KIM917504 KSI851971:KSI917504 LCE851971:LCE917504 LMA851971:LMA917504 LVW851971:LVW917504 MFS851971:MFS917504 MPO851971:MPO917504 MZK851971:MZK917504 NJG851971:NJG917504 NTC851971:NTC917504 OCY851971:OCY917504 OMU851971:OMU917504 OWQ851971:OWQ917504 PGM851971:PGM917504 PQI851971:PQI917504 QAE851971:QAE917504 QKA851971:QKA917504 QTW851971:QTW917504 RDS851971:RDS917504 RNO851971:RNO917504 RXK851971:RXK917504 SHG851971:SHG917504 SRC851971:SRC917504 TAY851971:TAY917504 TKU851971:TKU917504 TUQ851971:TUQ917504 UEM851971:UEM917504 UOI851971:UOI917504 UYE851971:UYE917504 VIA851971:VIA917504 VRW851971:VRW917504 WBS851971:WBS917504 WLO851971:WLO917504 WVK851971:WVK917504 C917507:C983040 IY917507:IY983040 SU917507:SU983040 ACQ917507:ACQ983040 AMM917507:AMM983040 AWI917507:AWI983040 BGE917507:BGE983040 BQA917507:BQA983040 BZW917507:BZW983040 CJS917507:CJS983040 CTO917507:CTO983040 DDK917507:DDK983040 DNG917507:DNG983040 DXC917507:DXC983040 EGY917507:EGY983040 EQU917507:EQU983040 FAQ917507:FAQ983040 FKM917507:FKM983040 FUI917507:FUI983040 GEE917507:GEE983040 GOA917507:GOA983040 GXW917507:GXW983040 HHS917507:HHS983040 HRO917507:HRO983040 IBK917507:IBK983040 ILG917507:ILG983040 IVC917507:IVC983040 JEY917507:JEY983040 JOU917507:JOU983040 JYQ917507:JYQ983040 KIM917507:KIM983040 KSI917507:KSI983040 LCE917507:LCE983040 LMA917507:LMA983040 LVW917507:LVW983040 MFS917507:MFS983040 MPO917507:MPO983040 MZK917507:MZK983040 NJG917507:NJG983040 NTC917507:NTC983040 OCY917507:OCY983040 OMU917507:OMU983040 OWQ917507:OWQ983040 PGM917507:PGM983040 PQI917507:PQI983040 QAE917507:QAE983040 QKA917507:QKA983040 QTW917507:QTW983040 RDS917507:RDS983040 RNO917507:RNO983040 RXK917507:RXK983040 SHG917507:SHG983040 SRC917507:SRC983040 TAY917507:TAY983040 TKU917507:TKU983040 TUQ917507:TUQ983040 UEM917507:UEM983040 UOI917507:UOI983040 UYE917507:UYE983040 VIA917507:VIA983040 VRW917507:VRW983040 WBS917507:WBS983040 WLO917507:WLO983040 WVK917507:WVK983040 C983043:C1048576 IY983043:IY1048576 SU983043:SU1048576 ACQ983043:ACQ1048576 AMM983043:AMM1048576 AWI983043:AWI1048576 BGE983043:BGE1048576 BQA983043:BQA1048576 BZW983043:BZW1048576 CJS983043:CJS1048576 CTO983043:CTO1048576 DDK983043:DDK1048576 DNG983043:DNG1048576 DXC983043:DXC1048576 EGY983043:EGY1048576 EQU983043:EQU1048576 FAQ983043:FAQ1048576 FKM983043:FKM1048576 FUI983043:FUI1048576 GEE983043:GEE1048576 GOA983043:GOA1048576 GXW983043:GXW1048576 HHS983043:HHS1048576 HRO983043:HRO1048576 IBK983043:IBK1048576 ILG983043:ILG1048576 IVC983043:IVC1048576 JEY983043:JEY1048576 JOU983043:JOU1048576 JYQ983043:JYQ1048576 KIM983043:KIM1048576 KSI983043:KSI1048576 LCE983043:LCE1048576 LMA983043:LMA1048576 LVW983043:LVW1048576 MFS983043:MFS1048576 MPO983043:MPO1048576 MZK983043:MZK1048576 NJG983043:NJG1048576 NTC983043:NTC1048576 OCY983043:OCY1048576 OMU983043:OMU1048576 OWQ983043:OWQ1048576 PGM983043:PGM1048576 PQI983043:PQI1048576 QAE983043:QAE1048576 QKA983043:QKA1048576 QTW983043:QTW1048576 RDS983043:RDS1048576 RNO983043:RNO1048576 RXK983043:RXK1048576 SHG983043:SHG1048576 SRC983043:SRC1048576 TAY983043:TAY1048576 TKU983043:TKU1048576 TUQ983043:TUQ1048576 UEM983043:UEM1048576 UOI983043:UOI1048576 UYE983043:UYE1048576 VIA983043:VIA1048576 VRW983043:VRW1048576 WBS983043:WBS1048576 WLO983043:WLO1048576 WVK983043:WVK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！" sqref="RDR983043:RDR1048576 IX3:IX65536 ST3:ST65536 ACP3:ACP65536 AML3:AML65536 AWH3:AWH65536 BGD3:BGD65536 BPZ3:BPZ65536 BZV3:BZV65536 CJR3:CJR65536 CTN3:CTN65536 DDJ3:DDJ65536 DNF3:DNF65536 DXB3:DXB65536 EGX3:EGX65536 EQT3:EQT65536 FAP3:FAP65536 FKL3:FKL65536 FUH3:FUH65536 GED3:GED65536 GNZ3:GNZ65536 GXV3:GXV65536 HHR3:HHR65536 HRN3:HRN65536 IBJ3:IBJ65536 ILF3:ILF65536 IVB3:IVB65536 JEX3:JEX65536 JOT3:JOT65536 JYP3:JYP65536 KIL3:KIL65536 KSH3:KSH65536 LCD3:LCD65536 LLZ3:LLZ65536 LVV3:LVV65536 MFR3:MFR65536 MPN3:MPN65536 MZJ3:MZJ65536 NJF3:NJF65536 NTB3:NTB65536 OCX3:OCX65536 OMT3:OMT65536 OWP3:OWP65536 PGL3:PGL65536 PQH3:PQH65536 QAD3:QAD65536 QJZ3:QJZ65536 QTV3:QTV65536 RDR3:RDR65536 RNN3:RNN65536 RXJ3:RXJ65536 SHF3:SHF65536 SRB3:SRB65536 TAX3:TAX65536 TKT3:TKT65536 TUP3:TUP65536 UEL3:UEL65536 UOH3:UOH65536 UYD3:UYD65536 VHZ3:VHZ65536 VRV3:VRV65536 WBR3:WBR65536 WLN3:WLN65536 WVJ3:WVJ65536 RNN983043:RNN1048576 IX65539:IX131072 ST65539:ST131072 ACP65539:ACP131072 AML65539:AML131072 AWH65539:AWH131072 BGD65539:BGD131072 BPZ65539:BPZ131072 BZV65539:BZV131072 CJR65539:CJR131072 CTN65539:CTN131072 DDJ65539:DDJ131072 DNF65539:DNF131072 DXB65539:DXB131072 EGX65539:EGX131072 EQT65539:EQT131072 FAP65539:FAP131072 FKL65539:FKL131072 FUH65539:FUH131072 GED65539:GED131072 GNZ65539:GNZ131072 GXV65539:GXV131072 HHR65539:HHR131072 HRN65539:HRN131072 IBJ65539:IBJ131072 ILF65539:ILF131072 IVB65539:IVB131072 JEX65539:JEX131072 JOT65539:JOT131072 JYP65539:JYP131072 KIL65539:KIL131072 KSH65539:KSH131072 LCD65539:LCD131072 LLZ65539:LLZ131072 LVV65539:LVV131072 MFR65539:MFR131072 MPN65539:MPN131072 MZJ65539:MZJ131072 NJF65539:NJF131072 NTB65539:NTB131072 OCX65539:OCX131072 OMT65539:OMT131072 OWP65539:OWP131072 PGL65539:PGL131072 PQH65539:PQH131072 QAD65539:QAD131072 QJZ65539:QJZ131072 QTV65539:QTV131072 RDR65539:RDR131072 RNN65539:RNN131072 RXJ65539:RXJ131072 SHF65539:SHF131072 SRB65539:SRB131072 TAX65539:TAX131072 TKT65539:TKT131072 TUP65539:TUP131072 UEL65539:UEL131072 UOH65539:UOH131072 UYD65539:UYD131072 VHZ65539:VHZ131072 VRV65539:VRV131072 WBR65539:WBR131072 WLN65539:WLN131072 WVJ65539:WVJ131072 RXJ983043:RXJ1048576 IX131075:IX196608 ST131075:ST196608 ACP131075:ACP196608 AML131075:AML196608 AWH131075:AWH196608 BGD131075:BGD196608 BPZ131075:BPZ196608 BZV131075:BZV196608 CJR131075:CJR196608 CTN131075:CTN196608 DDJ131075:DDJ196608 DNF131075:DNF196608 DXB131075:DXB196608 EGX131075:EGX196608 EQT131075:EQT196608 FAP131075:FAP196608 FKL131075:FKL196608 FUH131075:FUH196608 GED131075:GED196608 GNZ131075:GNZ196608 GXV131075:GXV196608 HHR131075:HHR196608 HRN131075:HRN196608 IBJ131075:IBJ196608 ILF131075:ILF196608 IVB131075:IVB196608 JEX131075:JEX196608 JOT131075:JOT196608 JYP131075:JYP196608 KIL131075:KIL196608 KSH131075:KSH196608 LCD131075:LCD196608 LLZ131075:LLZ196608 LVV131075:LVV196608 MFR131075:MFR196608 MPN131075:MPN196608 MZJ131075:MZJ196608 NJF131075:NJF196608 NTB131075:NTB196608 OCX131075:OCX196608 OMT131075:OMT196608 OWP131075:OWP196608 PGL131075:PGL196608 PQH131075:PQH196608 QAD131075:QAD196608 QJZ131075:QJZ196608 QTV131075:QTV196608 RDR131075:RDR196608 RNN131075:RNN196608 RXJ131075:RXJ196608 SHF131075:SHF196608 SRB131075:SRB196608 TAX131075:TAX196608 TKT131075:TKT196608 TUP131075:TUP196608 UEL131075:UEL196608 UOH131075:UOH196608 UYD131075:UYD196608 VHZ131075:VHZ196608 VRV131075:VRV196608 WBR131075:WBR196608 WLN131075:WLN196608 WVJ131075:WVJ196608 SHF983043:SHF1048576 IX196611:IX262144 ST196611:ST262144 ACP196611:ACP262144 AML196611:AML262144 AWH196611:AWH262144 BGD196611:BGD262144 BPZ196611:BPZ262144 BZV196611:BZV262144 CJR196611:CJR262144 CTN196611:CTN262144 DDJ196611:DDJ262144 DNF196611:DNF262144 DXB196611:DXB262144 EGX196611:EGX262144 EQT196611:EQT262144 FAP196611:FAP262144 FKL196611:FKL262144 FUH196611:FUH262144 GED196611:GED262144 GNZ196611:GNZ262144 GXV196611:GXV262144 HHR196611:HHR262144 HRN196611:HRN262144 IBJ196611:IBJ262144 ILF196611:ILF262144 IVB196611:IVB262144 JEX196611:JEX262144 JOT196611:JOT262144 JYP196611:JYP262144 KIL196611:KIL262144 KSH196611:KSH262144 LCD196611:LCD262144 LLZ196611:LLZ262144 LVV196611:LVV262144 MFR196611:MFR262144 MPN196611:MPN262144 MZJ196611:MZJ262144 NJF196611:NJF262144 NTB196611:NTB262144 OCX196611:OCX262144 OMT196611:OMT262144 OWP196611:OWP262144 PGL196611:PGL262144 PQH196611:PQH262144 QAD196611:QAD262144 QJZ196611:QJZ262144 QTV196611:QTV262144 RDR196611:RDR262144 RNN196611:RNN262144 RXJ196611:RXJ262144 SHF196611:SHF262144 SRB196611:SRB262144 TAX196611:TAX262144 TKT196611:TKT262144 TUP196611:TUP262144 UEL196611:UEL262144 UOH196611:UOH262144 UYD196611:UYD262144 VHZ196611:VHZ262144 VRV196611:VRV262144 WBR196611:WBR262144 WLN196611:WLN262144 WVJ196611:WVJ262144 SRB983043:SRB1048576 IX262147:IX327680 ST262147:ST327680 ACP262147:ACP327680 AML262147:AML327680 AWH262147:AWH327680 BGD262147:BGD327680 BPZ262147:BPZ327680 BZV262147:BZV327680 CJR262147:CJR327680 CTN262147:CTN327680 DDJ262147:DDJ327680 DNF262147:DNF327680 DXB262147:DXB327680 EGX262147:EGX327680 EQT262147:EQT327680 FAP262147:FAP327680 FKL262147:FKL327680 FUH262147:FUH327680 GED262147:GED327680 GNZ262147:GNZ327680 GXV262147:GXV327680 HHR262147:HHR327680 HRN262147:HRN327680 IBJ262147:IBJ327680 ILF262147:ILF327680 IVB262147:IVB327680 JEX262147:JEX327680 JOT262147:JOT327680 JYP262147:JYP327680 KIL262147:KIL327680 KSH262147:KSH327680 LCD262147:LCD327680 LLZ262147:LLZ327680 LVV262147:LVV327680 MFR262147:MFR327680 MPN262147:MPN327680 MZJ262147:MZJ327680 NJF262147:NJF327680 NTB262147:NTB327680 OCX262147:OCX327680 OMT262147:OMT327680 OWP262147:OWP327680 PGL262147:PGL327680 PQH262147:PQH327680 QAD262147:QAD327680 QJZ262147:QJZ327680 QTV262147:QTV327680 RDR262147:RDR327680 RNN262147:RNN327680 RXJ262147:RXJ327680 SHF262147:SHF327680 SRB262147:SRB327680 TAX262147:TAX327680 TKT262147:TKT327680 TUP262147:TUP327680 UEL262147:UEL327680 UOH262147:UOH327680 UYD262147:UYD327680 VHZ262147:VHZ327680 VRV262147:VRV327680 WBR262147:WBR327680 WLN262147:WLN327680 WVJ262147:WVJ327680 TAX983043:TAX1048576 IX327683:IX393216 ST327683:ST393216 ACP327683:ACP393216 AML327683:AML393216 AWH327683:AWH393216 BGD327683:BGD393216 BPZ327683:BPZ393216 BZV327683:BZV393216 CJR327683:CJR393216 CTN327683:CTN393216 DDJ327683:DDJ393216 DNF327683:DNF393216 DXB327683:DXB393216 EGX327683:EGX393216 EQT327683:EQT393216 FAP327683:FAP393216 FKL327683:FKL393216 FUH327683:FUH393216 GED327683:GED393216 GNZ327683:GNZ393216 GXV327683:GXV393216 HHR327683:HHR393216 HRN327683:HRN393216 IBJ327683:IBJ393216 ILF327683:ILF393216 IVB327683:IVB393216 JEX327683:JEX393216 JOT327683:JOT393216 JYP327683:JYP393216 KIL327683:KIL393216 KSH327683:KSH393216 LCD327683:LCD393216 LLZ327683:LLZ393216 LVV327683:LVV393216 MFR327683:MFR393216 MPN327683:MPN393216 MZJ327683:MZJ393216 NJF327683:NJF393216 NTB327683:NTB393216 OCX327683:OCX393216 OMT327683:OMT393216 OWP327683:OWP393216 PGL327683:PGL393216 PQH327683:PQH393216 QAD327683:QAD393216 QJZ327683:QJZ393216 QTV327683:QTV393216 RDR327683:RDR393216 RNN327683:RNN393216 RXJ327683:RXJ393216 SHF327683:SHF393216 SRB327683:SRB393216 TAX327683:TAX393216 TKT327683:TKT393216 TUP327683:TUP393216 UEL327683:UEL393216 UOH327683:UOH393216 UYD327683:UYD393216 VHZ327683:VHZ393216 VRV327683:VRV393216 WBR327683:WBR393216 WLN327683:WLN393216 WVJ327683:WVJ393216 TKT983043:TKT1048576 IX393219:IX458752 ST393219:ST458752 ACP393219:ACP458752 AML393219:AML458752 AWH393219:AWH458752 BGD393219:BGD458752 BPZ393219:BPZ458752 BZV393219:BZV458752 CJR393219:CJR458752 CTN393219:CTN458752 DDJ393219:DDJ458752 DNF393219:DNF458752 DXB393219:DXB458752 EGX393219:EGX458752 EQT393219:EQT458752 FAP393219:FAP458752 FKL393219:FKL458752 FUH393219:FUH458752 GED393219:GED458752 GNZ393219:GNZ458752 GXV393219:GXV458752 HHR393219:HHR458752 HRN393219:HRN458752 IBJ393219:IBJ458752 ILF393219:ILF458752 IVB393219:IVB458752 JEX393219:JEX458752 JOT393219:JOT458752 JYP393219:JYP458752 KIL393219:KIL458752 KSH393219:KSH458752 LCD393219:LCD458752 LLZ393219:LLZ458752 LVV393219:LVV458752 MFR393219:MFR458752 MPN393219:MPN458752 MZJ393219:MZJ458752 NJF393219:NJF458752 NTB393219:NTB458752 OCX393219:OCX458752 OMT393219:OMT458752 OWP393219:OWP458752 PGL393219:PGL458752 PQH393219:PQH458752 QAD393219:QAD458752 QJZ393219:QJZ458752 QTV393219:QTV458752 RDR393219:RDR458752 RNN393219:RNN458752 RXJ393219:RXJ458752 SHF393219:SHF458752 SRB393219:SRB458752 TAX393219:TAX458752 TKT393219:TKT458752 TUP393219:TUP458752 UEL393219:UEL458752 UOH393219:UOH458752 UYD393219:UYD458752 VHZ393219:VHZ458752 VRV393219:VRV458752 WBR393219:WBR458752 WLN393219:WLN458752 WVJ393219:WVJ458752 TUP983043:TUP1048576 IX458755:IX524288 ST458755:ST524288 ACP458755:ACP524288 AML458755:AML524288 AWH458755:AWH524288 BGD458755:BGD524288 BPZ458755:BPZ524288 BZV458755:BZV524288 CJR458755:CJR524288 CTN458755:CTN524288 DDJ458755:DDJ524288 DNF458755:DNF524288 DXB458755:DXB524288 EGX458755:EGX524288 EQT458755:EQT524288 FAP458755:FAP524288 FKL458755:FKL524288 FUH458755:FUH524288 GED458755:GED524288 GNZ458755:GNZ524288 GXV458755:GXV524288 HHR458755:HHR524288 HRN458755:HRN524288 IBJ458755:IBJ524288 ILF458755:ILF524288 IVB458755:IVB524288 JEX458755:JEX524288 JOT458755:JOT524288 JYP458755:JYP524288 KIL458755:KIL524288 KSH458755:KSH524288 LCD458755:LCD524288 LLZ458755:LLZ524288 LVV458755:LVV524288 MFR458755:MFR524288 MPN458755:MPN524288 MZJ458755:MZJ524288 NJF458755:NJF524288 NTB458755:NTB524288 OCX458755:OCX524288 OMT458755:OMT524288 OWP458755:OWP524288 PGL458755:PGL524288 PQH458755:PQH524288 QAD458755:QAD524288 QJZ458755:QJZ524288 QTV458755:QTV524288 RDR458755:RDR524288 RNN458755:RNN524288 RXJ458755:RXJ524288 SHF458755:SHF524288 SRB458755:SRB524288 TAX458755:TAX524288 TKT458755:TKT524288 TUP458755:TUP524288 UEL458755:UEL524288 UOH458755:UOH524288 UYD458755:UYD524288 VHZ458755:VHZ524288 VRV458755:VRV524288 WBR458755:WBR524288 WLN458755:WLN524288 WVJ458755:WVJ524288 UEL983043:UEL1048576 IX524291:IX589824 ST524291:ST589824 ACP524291:ACP589824 AML524291:AML589824 AWH524291:AWH589824 BGD524291:BGD589824 BPZ524291:BPZ589824 BZV524291:BZV589824 CJR524291:CJR589824 CTN524291:CTN589824 DDJ524291:DDJ589824 DNF524291:DNF589824 DXB524291:DXB589824 EGX524291:EGX589824 EQT524291:EQT589824 FAP524291:FAP589824 FKL524291:FKL589824 FUH524291:FUH589824 GED524291:GED589824 GNZ524291:GNZ589824 GXV524291:GXV589824 HHR524291:HHR589824 HRN524291:HRN589824 IBJ524291:IBJ589824 ILF524291:ILF589824 IVB524291:IVB589824 JEX524291:JEX589824 JOT524291:JOT589824 JYP524291:JYP589824 KIL524291:KIL589824 KSH524291:KSH589824 LCD524291:LCD589824 LLZ524291:LLZ589824 LVV524291:LVV589824 MFR524291:MFR589824 MPN524291:MPN589824 MZJ524291:MZJ589824 NJF524291:NJF589824 NTB524291:NTB589824 OCX524291:OCX589824 OMT524291:OMT589824 OWP524291:OWP589824 PGL524291:PGL589824 PQH524291:PQH589824 QAD524291:QAD589824 QJZ524291:QJZ589824 QTV524291:QTV589824 RDR524291:RDR589824 RNN524291:RNN589824 RXJ524291:RXJ589824 SHF524291:SHF589824 SRB524291:SRB589824 TAX524291:TAX589824 TKT524291:TKT589824 TUP524291:TUP589824 UEL524291:UEL589824 UOH524291:UOH589824 UYD524291:UYD589824 VHZ524291:VHZ589824 VRV524291:VRV589824 WBR524291:WBR589824 WLN524291:WLN589824 WVJ524291:WVJ589824 UOH983043:UOH1048576 IX589827:IX655360 ST589827:ST655360 ACP589827:ACP655360 AML589827:AML655360 AWH589827:AWH655360 BGD589827:BGD655360 BPZ589827:BPZ655360 BZV589827:BZV655360 CJR589827:CJR655360 CTN589827:CTN655360 DDJ589827:DDJ655360 DNF589827:DNF655360 DXB589827:DXB655360 EGX589827:EGX655360 EQT589827:EQT655360 FAP589827:FAP655360 FKL589827:FKL655360 FUH589827:FUH655360 GED589827:GED655360 GNZ589827:GNZ655360 GXV589827:GXV655360 HHR589827:HHR655360 HRN589827:HRN655360 IBJ589827:IBJ655360 ILF589827:ILF655360 IVB589827:IVB655360 JEX589827:JEX655360 JOT589827:JOT655360 JYP589827:JYP655360 KIL589827:KIL655360 KSH589827:KSH655360 LCD589827:LCD655360 LLZ589827:LLZ655360 LVV589827:LVV655360 MFR589827:MFR655360 MPN589827:MPN655360 MZJ589827:MZJ655360 NJF589827:NJF655360 NTB589827:NTB655360 OCX589827:OCX655360 OMT589827:OMT655360 OWP589827:OWP655360 PGL589827:PGL655360 PQH589827:PQH655360 QAD589827:QAD655360 QJZ589827:QJZ655360 QTV589827:QTV655360 RDR589827:RDR655360 RNN589827:RNN655360 RXJ589827:RXJ655360 SHF589827:SHF655360 SRB589827:SRB655360 TAX589827:TAX655360 TKT589827:TKT655360 TUP589827:TUP655360 UEL589827:UEL655360 UOH589827:UOH655360 UYD589827:UYD655360 VHZ589827:VHZ655360 VRV589827:VRV655360 WBR589827:WBR655360 WLN589827:WLN655360 WVJ589827:WVJ655360 UYD983043:UYD1048576 IX655363:IX720896 ST655363:ST720896 ACP655363:ACP720896 AML655363:AML720896 AWH655363:AWH720896 BGD655363:BGD720896 BPZ655363:BPZ720896 BZV655363:BZV720896 CJR655363:CJR720896 CTN655363:CTN720896 DDJ655363:DDJ720896 DNF655363:DNF720896 DXB655363:DXB720896 EGX655363:EGX720896 EQT655363:EQT720896 FAP655363:FAP720896 FKL655363:FKL720896 FUH655363:FUH720896 GED655363:GED720896 GNZ655363:GNZ720896 GXV655363:GXV720896 HHR655363:HHR720896 HRN655363:HRN720896 IBJ655363:IBJ720896 ILF655363:ILF720896 IVB655363:IVB720896 JEX655363:JEX720896 JOT655363:JOT720896 JYP655363:JYP720896 KIL655363:KIL720896 KSH655363:KSH720896 LCD655363:LCD720896 LLZ655363:LLZ720896 LVV655363:LVV720896 MFR655363:MFR720896 MPN655363:MPN720896 MZJ655363:MZJ720896 NJF655363:NJF720896 NTB655363:NTB720896 OCX655363:OCX720896 OMT655363:OMT720896 OWP655363:OWP720896 PGL655363:PGL720896 PQH655363:PQH720896 QAD655363:QAD720896 QJZ655363:QJZ720896 QTV655363:QTV720896 RDR655363:RDR720896 RNN655363:RNN720896 RXJ655363:RXJ720896 SHF655363:SHF720896 SRB655363:SRB720896 TAX655363:TAX720896 TKT655363:TKT720896 TUP655363:TUP720896 UEL655363:UEL720896 UOH655363:UOH720896 UYD655363:UYD720896 VHZ655363:VHZ720896 VRV655363:VRV720896 WBR655363:WBR720896 WLN655363:WLN720896 WVJ655363:WVJ720896 VHZ983043:VHZ1048576 IX720899:IX786432 ST720899:ST786432 ACP720899:ACP786432 AML720899:AML786432 AWH720899:AWH786432 BGD720899:BGD786432 BPZ720899:BPZ786432 BZV720899:BZV786432 CJR720899:CJR786432 CTN720899:CTN786432 DDJ720899:DDJ786432 DNF720899:DNF786432 DXB720899:DXB786432 EGX720899:EGX786432 EQT720899:EQT786432 FAP720899:FAP786432 FKL720899:FKL786432 FUH720899:FUH786432 GED720899:GED786432 GNZ720899:GNZ786432 GXV720899:GXV786432 HHR720899:HHR786432 HRN720899:HRN786432 IBJ720899:IBJ786432 ILF720899:ILF786432 IVB720899:IVB786432 JEX720899:JEX786432 JOT720899:JOT786432 JYP720899:JYP786432 KIL720899:KIL786432 KSH720899:KSH786432 LCD720899:LCD786432 LLZ720899:LLZ786432 LVV720899:LVV786432 MFR720899:MFR786432 MPN720899:MPN786432 MZJ720899:MZJ786432 NJF720899:NJF786432 NTB720899:NTB786432 OCX720899:OCX786432 OMT720899:OMT786432 OWP720899:OWP786432 PGL720899:PGL786432 PQH720899:PQH786432 QAD720899:QAD786432 QJZ720899:QJZ786432 QTV720899:QTV786432 RDR720899:RDR786432 RNN720899:RNN786432 RXJ720899:RXJ786432 SHF720899:SHF786432 SRB720899:SRB786432 TAX720899:TAX786432 TKT720899:TKT786432 TUP720899:TUP786432 UEL720899:UEL786432 UOH720899:UOH786432 UYD720899:UYD786432 VHZ720899:VHZ786432 VRV720899:VRV786432 WBR720899:WBR786432 WLN720899:WLN786432 WVJ720899:WVJ786432 VRV983043:VRV1048576 IX786435:IX851968 ST786435:ST851968 ACP786435:ACP851968 AML786435:AML851968 AWH786435:AWH851968 BGD786435:BGD851968 BPZ786435:BPZ851968 BZV786435:BZV851968 CJR786435:CJR851968 CTN786435:CTN851968 DDJ786435:DDJ851968 DNF786435:DNF851968 DXB786435:DXB851968 EGX786435:EGX851968 EQT786435:EQT851968 FAP786435:FAP851968 FKL786435:FKL851968 FUH786435:FUH851968 GED786435:GED851968 GNZ786435:GNZ851968 GXV786435:GXV851968 HHR786435:HHR851968 HRN786435:HRN851968 IBJ786435:IBJ851968 ILF786435:ILF851968 IVB786435:IVB851968 JEX786435:JEX851968 JOT786435:JOT851968 JYP786435:JYP851968 KIL786435:KIL851968 KSH786435:KSH851968 LCD786435:LCD851968 LLZ786435:LLZ851968 LVV786435:LVV851968 MFR786435:MFR851968 MPN786435:MPN851968 MZJ786435:MZJ851968 NJF786435:NJF851968 NTB786435:NTB851968 OCX786435:OCX851968 OMT786435:OMT851968 OWP786435:OWP851968 PGL786435:PGL851968 PQH786435:PQH851968 QAD786435:QAD851968 QJZ786435:QJZ851968 QTV786435:QTV851968 RDR786435:RDR851968 RNN786435:RNN851968 RXJ786435:RXJ851968 SHF786435:SHF851968 SRB786435:SRB851968 TAX786435:TAX851968 TKT786435:TKT851968 TUP786435:TUP851968 UEL786435:UEL851968 UOH786435:UOH851968 UYD786435:UYD851968 VHZ786435:VHZ851968 VRV786435:VRV851968 WBR786435:WBR851968 WLN786435:WLN851968 WVJ786435:WVJ851968 WBR983043:WBR1048576 IX851971:IX917504 ST851971:ST917504 ACP851971:ACP917504 AML851971:AML917504 AWH851971:AWH917504 BGD851971:BGD917504 BPZ851971:BPZ917504 BZV851971:BZV917504 CJR851971:CJR917504 CTN851971:CTN917504 DDJ851971:DDJ917504 DNF851971:DNF917504 DXB851971:DXB917504 EGX851971:EGX917504 EQT851971:EQT917504 FAP851971:FAP917504 FKL851971:FKL917504 FUH851971:FUH917504 GED851971:GED917504 GNZ851971:GNZ917504 GXV851971:GXV917504 HHR851971:HHR917504 HRN851971:HRN917504 IBJ851971:IBJ917504 ILF851971:ILF917504 IVB851971:IVB917504 JEX851971:JEX917504 JOT851971:JOT917504 JYP851971:JYP917504 KIL851971:KIL917504 KSH851971:KSH917504 LCD851971:LCD917504 LLZ851971:LLZ917504 LVV851971:LVV917504 MFR851971:MFR917504 MPN851971:MPN917504 MZJ851971:MZJ917504 NJF851971:NJF917504 NTB851971:NTB917504 OCX851971:OCX917504 OMT851971:OMT917504 OWP851971:OWP917504 PGL851971:PGL917504 PQH851971:PQH917504 QAD851971:QAD917504 QJZ851971:QJZ917504 QTV851971:QTV917504 RDR851971:RDR917504 RNN851971:RNN917504 RXJ851971:RXJ917504 SHF851971:SHF917504 SRB851971:SRB917504 TAX851971:TAX917504 TKT851971:TKT917504 TUP851971:TUP917504 UEL851971:UEL917504 UOH851971:UOH917504 UYD851971:UYD917504 VHZ851971:VHZ917504 VRV851971:VRV917504 WBR851971:WBR917504 WLN851971:WLN917504 WVJ851971:WVJ917504 WLN983043:WLN1048576 IX917507:IX983040 ST917507:ST983040 ACP917507:ACP983040 AML917507:AML983040 AWH917507:AWH983040 BGD917507:BGD983040 BPZ917507:BPZ983040 BZV917507:BZV983040 CJR917507:CJR983040 CTN917507:CTN983040 DDJ917507:DDJ983040 DNF917507:DNF983040 DXB917507:DXB983040 EGX917507:EGX983040 EQT917507:EQT983040 FAP917507:FAP983040 FKL917507:FKL983040 FUH917507:FUH983040 GED917507:GED983040 GNZ917507:GNZ983040 GXV917507:GXV983040 HHR917507:HHR983040 HRN917507:HRN983040 IBJ917507:IBJ983040 ILF917507:ILF983040 IVB917507:IVB983040 JEX917507:JEX983040 JOT917507:JOT983040 JYP917507:JYP983040 KIL917507:KIL983040 KSH917507:KSH983040 LCD917507:LCD983040 LLZ917507:LLZ983040 LVV917507:LVV983040 MFR917507:MFR983040 MPN917507:MPN983040 MZJ917507:MZJ983040 NJF917507:NJF983040 NTB917507:NTB983040 OCX917507:OCX983040 OMT917507:OMT983040 OWP917507:OWP983040 PGL917507:PGL983040 PQH917507:PQH983040 QAD917507:QAD983040 QJZ917507:QJZ983040 QTV917507:QTV983040 RDR917507:RDR983040 RNN917507:RNN983040 RXJ917507:RXJ983040 SHF917507:SHF983040 SRB917507:SRB983040 TAX917507:TAX983040 TKT917507:TKT983040 TUP917507:TUP983040 UEL917507:UEL983040 UOH917507:UOH983040 UYD917507:UYD983040 VHZ917507:VHZ983040 VRV917507:VRV983040 WBR917507:WBR983040 WLN917507:WLN983040 WVJ917507:WVJ983040 WVJ983043:WVJ1048576 IX983043:IX1048576 ST983043:ST1048576 ACP983043:ACP1048576 AML983043:AML1048576 AWH983043:AWH1048576 BGD983043:BGD1048576 BPZ983043:BPZ1048576 BZV983043:BZV1048576 CJR983043:CJR1048576 CTN983043:CTN1048576 DDJ983043:DDJ1048576 DNF983043:DNF1048576 DXB983043:DXB1048576 EGX983043:EGX1048576 EQT983043:EQT1048576 FAP983043:FAP1048576 FKL983043:FKL1048576 FUH983043:FUH1048576 GED983043:GED1048576 GNZ983043:GNZ1048576 GXV983043:GXV1048576 HHR983043:HHR1048576 HRN983043:HRN1048576 IBJ983043:IBJ1048576 ILF983043:ILF1048576 IVB983043:IVB1048576 JEX983043:JEX1048576 JOT983043:JOT1048576 JYP983043:JYP1048576 KIL983043:KIL1048576 KSH983043:KSH1048576 LCD983043:LCD1048576 LLZ983043:LLZ1048576 LVV983043:LVV1048576 MFR983043:MFR1048576 MPN983043:MPN1048576 MZJ983043:MZJ1048576 NJF983043:NJF1048576 NTB983043:NTB1048576 OCX983043:OCX1048576 OMT983043:OMT1048576 OWP983043:OWP1048576 PGL983043:PGL1048576 PQH983043:PQH1048576 QAD983043:QAD1048576 QJZ983043:QJZ1048576 QTV983043:QTV1048576">
       <formula1>hca_buildings.building_distribution</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！" sqref="B3:B65536 IX3:IX65536 ST3:ST65536 ACP3:ACP65536 AML3:AML65536 AWH3:AWH65536 BGD3:BGD65536 BPZ3:BPZ65536 BZV3:BZV65536 CJR3:CJR65536 CTN3:CTN65536 DDJ3:DDJ65536 DNF3:DNF65536 DXB3:DXB65536 EGX3:EGX65536 EQT3:EQT65536 FAP3:FAP65536 FKL3:FKL65536 FUH3:FUH65536 GED3:GED65536 GNZ3:GNZ65536 GXV3:GXV65536 HHR3:HHR65536 HRN3:HRN65536 IBJ3:IBJ65536 ILF3:ILF65536 IVB3:IVB65536 JEX3:JEX65536 JOT3:JOT65536 JYP3:JYP65536 KIL3:KIL65536 KSH3:KSH65536 LCD3:LCD65536 LLZ3:LLZ65536 LVV3:LVV65536 MFR3:MFR65536 MPN3:MPN65536 MZJ3:MZJ65536 NJF3:NJF65536 NTB3:NTB65536 OCX3:OCX65536 OMT3:OMT65536 OWP3:OWP65536 PGL3:PGL65536 PQH3:PQH65536 QAD3:QAD65536 QJZ3:QJZ65536 QTV3:QTV65536 RDR3:RDR65536 RNN3:RNN65536 RXJ3:RXJ65536 SHF3:SHF65536 SRB3:SRB65536 TAX3:TAX65536 TKT3:TKT65536 TUP3:TUP65536 UEL3:UEL65536 UOH3:UOH65536 UYD3:UYD65536 VHZ3:VHZ65536 VRV3:VRV65536 WBR3:WBR65536 WLN3:WLN65536 WVJ3:WVJ65536 B65539:B131072 IX65539:IX131072 ST65539:ST131072 ACP65539:ACP131072 AML65539:AML131072 AWH65539:AWH131072 BGD65539:BGD131072 BPZ65539:BPZ131072 BZV65539:BZV131072 CJR65539:CJR131072 CTN65539:CTN131072 DDJ65539:DDJ131072 DNF65539:DNF131072 DXB65539:DXB131072 EGX65539:EGX131072 EQT65539:EQT131072 FAP65539:FAP131072 FKL65539:FKL131072 FUH65539:FUH131072 GED65539:GED131072 GNZ65539:GNZ131072 GXV65539:GXV131072 HHR65539:HHR131072 HRN65539:HRN131072 IBJ65539:IBJ131072 ILF65539:ILF131072 IVB65539:IVB131072 JEX65539:JEX131072 JOT65539:JOT131072 JYP65539:JYP131072 KIL65539:KIL131072 KSH65539:KSH131072 LCD65539:LCD131072 LLZ65539:LLZ131072 LVV65539:LVV131072 MFR65539:MFR131072 MPN65539:MPN131072 MZJ65539:MZJ131072 NJF65539:NJF131072 NTB65539:NTB131072 OCX65539:OCX131072 OMT65539:OMT131072 OWP65539:OWP131072 PGL65539:PGL131072 PQH65539:PQH131072 QAD65539:QAD131072 QJZ65539:QJZ131072 QTV65539:QTV131072 RDR65539:RDR131072 RNN65539:RNN131072 RXJ65539:RXJ131072 SHF65539:SHF131072 SRB65539:SRB131072 TAX65539:TAX131072 TKT65539:TKT131072 TUP65539:TUP131072 UEL65539:UEL131072 UOH65539:UOH131072 UYD65539:UYD131072 VHZ65539:VHZ131072 VRV65539:VRV131072 WBR65539:WBR131072 WLN65539:WLN131072 WVJ65539:WVJ131072 B131075:B196608 IX131075:IX196608 ST131075:ST196608 ACP131075:ACP196608 AML131075:AML196608 AWH131075:AWH196608 BGD131075:BGD196608 BPZ131075:BPZ196608 BZV131075:BZV196608 CJR131075:CJR196608 CTN131075:CTN196608 DDJ131075:DDJ196608 DNF131075:DNF196608 DXB131075:DXB196608 EGX131075:EGX196608 EQT131075:EQT196608 FAP131075:FAP196608 FKL131075:FKL196608 FUH131075:FUH196608 GED131075:GED196608 GNZ131075:GNZ196608 GXV131075:GXV196608 HHR131075:HHR196608 HRN131075:HRN196608 IBJ131075:IBJ196608 ILF131075:ILF196608 IVB131075:IVB196608 JEX131075:JEX196608 JOT131075:JOT196608 JYP131075:JYP196608 KIL131075:KIL196608 KSH131075:KSH196608 LCD131075:LCD196608 LLZ131075:LLZ196608 LVV131075:LVV196608 MFR131075:MFR196608 MPN131075:MPN196608 MZJ131075:MZJ196608 NJF131075:NJF196608 NTB131075:NTB196608 OCX131075:OCX196608 OMT131075:OMT196608 OWP131075:OWP196608 PGL131075:PGL196608 PQH131075:PQH196608 QAD131075:QAD196608 QJZ131075:QJZ196608 QTV131075:QTV196608 RDR131075:RDR196608 RNN131075:RNN196608 RXJ131075:RXJ196608 SHF131075:SHF196608 SRB131075:SRB196608 TAX131075:TAX196608 TKT131075:TKT196608 TUP131075:TUP196608 UEL131075:UEL196608 UOH131075:UOH196608 UYD131075:UYD196608 VHZ131075:VHZ196608 VRV131075:VRV196608 WBR131075:WBR196608 WLN131075:WLN196608 WVJ131075:WVJ196608 B196611:B262144 IX196611:IX262144 ST196611:ST262144 ACP196611:ACP262144 AML196611:AML262144 AWH196611:AWH262144 BGD196611:BGD262144 BPZ196611:BPZ262144 BZV196611:BZV262144 CJR196611:CJR262144 CTN196611:CTN262144 DDJ196611:DDJ262144 DNF196611:DNF262144 DXB196611:DXB262144 EGX196611:EGX262144 EQT196611:EQT262144 FAP196611:FAP262144 FKL196611:FKL262144 FUH196611:FUH262144 GED196611:GED262144 GNZ196611:GNZ262144 GXV196611:GXV262144 HHR196611:HHR262144 HRN196611:HRN262144 IBJ196611:IBJ262144 ILF196611:ILF262144 IVB196611:IVB262144 JEX196611:JEX262144 JOT196611:JOT262144 JYP196611:JYP262144 KIL196611:KIL262144 KSH196611:KSH262144 LCD196611:LCD262144 LLZ196611:LLZ262144 LVV196611:LVV262144 MFR196611:MFR262144 MPN196611:MPN262144 MZJ196611:MZJ262144 NJF196611:NJF262144 NTB196611:NTB262144 OCX196611:OCX262144 OMT196611:OMT262144 OWP196611:OWP262144 PGL196611:PGL262144 PQH196611:PQH262144 QAD196611:QAD262144 QJZ196611:QJZ262144 QTV196611:QTV262144 RDR196611:RDR262144 RNN196611:RNN262144 RXJ196611:RXJ262144 SHF196611:SHF262144 SRB196611:SRB262144 TAX196611:TAX262144 TKT196611:TKT262144 TUP196611:TUP262144 UEL196611:UEL262144 UOH196611:UOH262144 UYD196611:UYD262144 VHZ196611:VHZ262144 VRV196611:VRV262144 WBR196611:WBR262144 WLN196611:WLN262144 WVJ196611:WVJ262144 B262147:B327680 IX262147:IX327680 ST262147:ST327680 ACP262147:ACP327680 AML262147:AML327680 AWH262147:AWH327680 BGD262147:BGD327680 BPZ262147:BPZ327680 BZV262147:BZV327680 CJR262147:CJR327680 CTN262147:CTN327680 DDJ262147:DDJ327680 DNF262147:DNF327680 DXB262147:DXB327680 EGX262147:EGX327680 EQT262147:EQT327680 FAP262147:FAP327680 FKL262147:FKL327680 FUH262147:FUH327680 GED262147:GED327680 GNZ262147:GNZ327680 GXV262147:GXV327680 HHR262147:HHR327680 HRN262147:HRN327680 IBJ262147:IBJ327680 ILF262147:ILF327680 IVB262147:IVB327680 JEX262147:JEX327680 JOT262147:JOT327680 JYP262147:JYP327680 KIL262147:KIL327680 KSH262147:KSH327680 LCD262147:LCD327680 LLZ262147:LLZ327680 LVV262147:LVV327680 MFR262147:MFR327680 MPN262147:MPN327680 MZJ262147:MZJ327680 NJF262147:NJF327680 NTB262147:NTB327680 OCX262147:OCX327680 OMT262147:OMT327680 OWP262147:OWP327680 PGL262147:PGL327680 PQH262147:PQH327680 QAD262147:QAD327680 QJZ262147:QJZ327680 QTV262147:QTV327680 RDR262147:RDR327680 RNN262147:RNN327680 RXJ262147:RXJ327680 SHF262147:SHF327680 SRB262147:SRB327680 TAX262147:TAX327680 TKT262147:TKT327680 TUP262147:TUP327680 UEL262147:UEL327680 UOH262147:UOH327680 UYD262147:UYD327680 VHZ262147:VHZ327680 VRV262147:VRV327680 WBR262147:WBR327680 WLN262147:WLN327680 WVJ262147:WVJ327680 B327683:B393216 IX327683:IX393216 ST327683:ST393216 ACP327683:ACP393216 AML327683:AML393216 AWH327683:AWH393216 BGD327683:BGD393216 BPZ327683:BPZ393216 BZV327683:BZV393216 CJR327683:CJR393216 CTN327683:CTN393216 DDJ327683:DDJ393216 DNF327683:DNF393216 DXB327683:DXB393216 EGX327683:EGX393216 EQT327683:EQT393216 FAP327683:FAP393216 FKL327683:FKL393216 FUH327683:FUH393216 GED327683:GED393216 GNZ327683:GNZ393216 GXV327683:GXV393216 HHR327683:HHR393216 HRN327683:HRN393216 IBJ327683:IBJ393216 ILF327683:ILF393216 IVB327683:IVB393216 JEX327683:JEX393216 JOT327683:JOT393216 JYP327683:JYP393216 KIL327683:KIL393216 KSH327683:KSH393216 LCD327683:LCD393216 LLZ327683:LLZ393216 LVV327683:LVV393216 MFR327683:MFR393216 MPN327683:MPN393216 MZJ327683:MZJ393216 NJF327683:NJF393216 NTB327683:NTB393216 OCX327683:OCX393216 OMT327683:OMT393216 OWP327683:OWP393216 PGL327683:PGL393216 PQH327683:PQH393216 QAD327683:QAD393216 QJZ327683:QJZ393216 QTV327683:QTV393216 RDR327683:RDR393216 RNN327683:RNN393216 RXJ327683:RXJ393216 SHF327683:SHF393216 SRB327683:SRB393216 TAX327683:TAX393216 TKT327683:TKT393216 TUP327683:TUP393216 UEL327683:UEL393216 UOH327683:UOH393216 UYD327683:UYD393216 VHZ327683:VHZ393216 VRV327683:VRV393216 WBR327683:WBR393216 WLN327683:WLN393216 WVJ327683:WVJ393216 B393219:B458752 IX393219:IX458752 ST393219:ST458752 ACP393219:ACP458752 AML393219:AML458752 AWH393219:AWH458752 BGD393219:BGD458752 BPZ393219:BPZ458752 BZV393219:BZV458752 CJR393219:CJR458752 CTN393219:CTN458752 DDJ393219:DDJ458752 DNF393219:DNF458752 DXB393219:DXB458752 EGX393219:EGX458752 EQT393219:EQT458752 FAP393219:FAP458752 FKL393219:FKL458752 FUH393219:FUH458752 GED393219:GED458752 GNZ393219:GNZ458752 GXV393219:GXV458752 HHR393219:HHR458752 HRN393219:HRN458752 IBJ393219:IBJ458752 ILF393219:ILF458752 IVB393219:IVB458752 JEX393219:JEX458752 JOT393219:JOT458752 JYP393219:JYP458752 KIL393219:KIL458752 KSH393219:KSH458752 LCD393219:LCD458752 LLZ393219:LLZ458752 LVV393219:LVV458752 MFR393219:MFR458752 MPN393219:MPN458752 MZJ393219:MZJ458752 NJF393219:NJF458752 NTB393219:NTB458752 OCX393219:OCX458752 OMT393219:OMT458752 OWP393219:OWP458752 PGL393219:PGL458752 PQH393219:PQH458752 QAD393219:QAD458752 QJZ393219:QJZ458752 QTV393219:QTV458752 RDR393219:RDR458752 RNN393219:RNN458752 RXJ393219:RXJ458752 SHF393219:SHF458752 SRB393219:SRB458752 TAX393219:TAX458752 TKT393219:TKT458752 TUP393219:TUP458752 UEL393219:UEL458752 UOH393219:UOH458752 UYD393219:UYD458752 VHZ393219:VHZ458752 VRV393219:VRV458752 WBR393219:WBR458752 WLN393219:WLN458752 WVJ393219:WVJ458752 B458755:B524288 IX458755:IX524288 ST458755:ST524288 ACP458755:ACP524288 AML458755:AML524288 AWH458755:AWH524288 BGD458755:BGD524288 BPZ458755:BPZ524288 BZV458755:BZV524288 CJR458755:CJR524288 CTN458755:CTN524288 DDJ458755:DDJ524288 DNF458755:DNF524288 DXB458755:DXB524288 EGX458755:EGX524288 EQT458755:EQT524288 FAP458755:FAP524288 FKL458755:FKL524288 FUH458755:FUH524288 GED458755:GED524288 GNZ458755:GNZ524288 GXV458755:GXV524288 HHR458755:HHR524288 HRN458755:HRN524288 IBJ458755:IBJ524288 ILF458755:ILF524288 IVB458755:IVB524288 JEX458755:JEX524288 JOT458755:JOT524288 JYP458755:JYP524288 KIL458755:KIL524288 KSH458755:KSH524288 LCD458755:LCD524288 LLZ458755:LLZ524288 LVV458755:LVV524288 MFR458755:MFR524288 MPN458755:MPN524288 MZJ458755:MZJ524288 NJF458755:NJF524288 NTB458755:NTB524288 OCX458755:OCX524288 OMT458755:OMT524288 OWP458755:OWP524288 PGL458755:PGL524288 PQH458755:PQH524288 QAD458755:QAD524288 QJZ458755:QJZ524288 QTV458755:QTV524288 RDR458755:RDR524288 RNN458755:RNN524288 RXJ458755:RXJ524288 SHF458755:SHF524288 SRB458755:SRB524288 TAX458755:TAX524288 TKT458755:TKT524288 TUP458755:TUP524288 UEL458755:UEL524288 UOH458755:UOH524288 UYD458755:UYD524288 VHZ458755:VHZ524288 VRV458755:VRV524288 WBR458755:WBR524288 WLN458755:WLN524288 WVJ458755:WVJ524288 B524291:B589824 IX524291:IX589824 ST524291:ST589824 ACP524291:ACP589824 AML524291:AML589824 AWH524291:AWH589824 BGD524291:BGD589824 BPZ524291:BPZ589824 BZV524291:BZV589824 CJR524291:CJR589824 CTN524291:CTN589824 DDJ524291:DDJ589824 DNF524291:DNF589824 DXB524291:DXB589824 EGX524291:EGX589824 EQT524291:EQT589824 FAP524291:FAP589824 FKL524291:FKL589824 FUH524291:FUH589824 GED524291:GED589824 GNZ524291:GNZ589824 GXV524291:GXV589824 HHR524291:HHR589824 HRN524291:HRN589824 IBJ524291:IBJ589824 ILF524291:ILF589824 IVB524291:IVB589824 JEX524291:JEX589824 JOT524291:JOT589824 JYP524291:JYP589824 KIL524291:KIL589824 KSH524291:KSH589824 LCD524291:LCD589824 LLZ524291:LLZ589824 LVV524291:LVV589824 MFR524291:MFR589824 MPN524291:MPN589824 MZJ524291:MZJ589824 NJF524291:NJF589824 NTB524291:NTB589824 OCX524291:OCX589824 OMT524291:OMT589824 OWP524291:OWP589824 PGL524291:PGL589824 PQH524291:PQH589824 QAD524291:QAD589824 QJZ524291:QJZ589824 QTV524291:QTV589824 RDR524291:RDR589824 RNN524291:RNN589824 RXJ524291:RXJ589824 SHF524291:SHF589824 SRB524291:SRB589824 TAX524291:TAX589824 TKT524291:TKT589824 TUP524291:TUP589824 UEL524291:UEL589824 UOH524291:UOH589824 UYD524291:UYD589824 VHZ524291:VHZ589824 VRV524291:VRV589824 WBR524291:WBR589824 WLN524291:WLN589824 WVJ524291:WVJ589824 B589827:B655360 IX589827:IX655360 ST589827:ST655360 ACP589827:ACP655360 AML589827:AML655360 AWH589827:AWH655360 BGD589827:BGD655360 BPZ589827:BPZ655360 BZV589827:BZV655360 CJR589827:CJR655360 CTN589827:CTN655360 DDJ589827:DDJ655360 DNF589827:DNF655360 DXB589827:DXB655360 EGX589827:EGX655360 EQT589827:EQT655360 FAP589827:FAP655360 FKL589827:FKL655360 FUH589827:FUH655360 GED589827:GED655360 GNZ589827:GNZ655360 GXV589827:GXV655360 HHR589827:HHR655360 HRN589827:HRN655360 IBJ589827:IBJ655360 ILF589827:ILF655360 IVB589827:IVB655360 JEX589827:JEX655360 JOT589827:JOT655360 JYP589827:JYP655360 KIL589827:KIL655360 KSH589827:KSH655360 LCD589827:LCD655360 LLZ589827:LLZ655360 LVV589827:LVV655360 MFR589827:MFR655360 MPN589827:MPN655360 MZJ589827:MZJ655360 NJF589827:NJF655360 NTB589827:NTB655360 OCX589827:OCX655360 OMT589827:OMT655360 OWP589827:OWP655360 PGL589827:PGL655360 PQH589827:PQH655360 QAD589827:QAD655360 QJZ589827:QJZ655360 QTV589827:QTV655360 RDR589827:RDR655360 RNN589827:RNN655360 RXJ589827:RXJ655360 SHF589827:SHF655360 SRB589827:SRB655360 TAX589827:TAX655360 TKT589827:TKT655360 TUP589827:TUP655360 UEL589827:UEL655360 UOH589827:UOH655360 UYD589827:UYD655360 VHZ589827:VHZ655360 VRV589827:VRV655360 WBR589827:WBR655360 WLN589827:WLN655360 WVJ589827:WVJ655360 B655363:B720896 IX655363:IX720896 ST655363:ST720896 ACP655363:ACP720896 AML655363:AML720896 AWH655363:AWH720896 BGD655363:BGD720896 BPZ655363:BPZ720896 BZV655363:BZV720896 CJR655363:CJR720896 CTN655363:CTN720896 DDJ655363:DDJ720896 DNF655363:DNF720896 DXB655363:DXB720896 EGX655363:EGX720896 EQT655363:EQT720896 FAP655363:FAP720896 FKL655363:FKL720896 FUH655363:FUH720896 GED655363:GED720896 GNZ655363:GNZ720896 GXV655363:GXV720896 HHR655363:HHR720896 HRN655363:HRN720896 IBJ655363:IBJ720896 ILF655363:ILF720896 IVB655363:IVB720896 JEX655363:JEX720896 JOT655363:JOT720896 JYP655363:JYP720896 KIL655363:KIL720896 KSH655363:KSH720896 LCD655363:LCD720896 LLZ655363:LLZ720896 LVV655363:LVV720896 MFR655363:MFR720896 MPN655363:MPN720896 MZJ655363:MZJ720896 NJF655363:NJF720896 NTB655363:NTB720896 OCX655363:OCX720896 OMT655363:OMT720896 OWP655363:OWP720896 PGL655363:PGL720896 PQH655363:PQH720896 QAD655363:QAD720896 QJZ655363:QJZ720896 QTV655363:QTV720896 RDR655363:RDR720896 RNN655363:RNN720896 RXJ655363:RXJ720896 SHF655363:SHF720896 SRB655363:SRB720896 TAX655363:TAX720896 TKT655363:TKT720896 TUP655363:TUP720896 UEL655363:UEL720896 UOH655363:UOH720896 UYD655363:UYD720896 VHZ655363:VHZ720896 VRV655363:VRV720896 WBR655363:WBR720896 WLN655363:WLN720896 WVJ655363:WVJ720896 B720899:B786432 IX720899:IX786432 ST720899:ST786432 ACP720899:ACP786432 AML720899:AML786432 AWH720899:AWH786432 BGD720899:BGD786432 BPZ720899:BPZ786432 BZV720899:BZV786432 CJR720899:CJR786432 CTN720899:CTN786432 DDJ720899:DDJ786432 DNF720899:DNF786432 DXB720899:DXB786432 EGX720899:EGX786432 EQT720899:EQT786432 FAP720899:FAP786432 FKL720899:FKL786432 FUH720899:FUH786432 GED720899:GED786432 GNZ720899:GNZ786432 GXV720899:GXV786432 HHR720899:HHR786432 HRN720899:HRN786432 IBJ720899:IBJ786432 ILF720899:ILF786432 IVB720899:IVB786432 JEX720899:JEX786432 JOT720899:JOT786432 JYP720899:JYP786432 KIL720899:KIL786432 KSH720899:KSH786432 LCD720899:LCD786432 LLZ720899:LLZ786432 LVV720899:LVV786432 MFR720899:MFR786432 MPN720899:MPN786432 MZJ720899:MZJ786432 NJF720899:NJF786432 NTB720899:NTB786432 OCX720899:OCX786432 OMT720899:OMT786432 OWP720899:OWP786432 PGL720899:PGL786432 PQH720899:PQH786432 QAD720899:QAD786432 QJZ720899:QJZ786432 QTV720899:QTV786432 RDR720899:RDR786432 RNN720899:RNN786432 RXJ720899:RXJ786432 SHF720899:SHF786432 SRB720899:SRB786432 TAX720899:TAX786432 TKT720899:TKT786432 TUP720899:TUP786432 UEL720899:UEL786432 UOH720899:UOH786432 UYD720899:UYD786432 VHZ720899:VHZ786432 VRV720899:VRV786432 WBR720899:WBR786432 WLN720899:WLN786432 WVJ720899:WVJ786432 B786435:B851968 IX786435:IX851968 ST786435:ST851968 ACP786435:ACP851968 AML786435:AML851968 AWH786435:AWH851968 BGD786435:BGD851968 BPZ786435:BPZ851968 BZV786435:BZV851968 CJR786435:CJR851968 CTN786435:CTN851968 DDJ786435:DDJ851968 DNF786435:DNF851968 DXB786435:DXB851968 EGX786435:EGX851968 EQT786435:EQT851968 FAP786435:FAP851968 FKL786435:FKL851968 FUH786435:FUH851968 GED786435:GED851968 GNZ786435:GNZ851968 GXV786435:GXV851968 HHR786435:HHR851968 HRN786435:HRN851968 IBJ786435:IBJ851968 ILF786435:ILF851968 IVB786435:IVB851968 JEX786435:JEX851968 JOT786435:JOT851968 JYP786435:JYP851968 KIL786435:KIL851968 KSH786435:KSH851968 LCD786435:LCD851968 LLZ786435:LLZ851968 LVV786435:LVV851968 MFR786435:MFR851968 MPN786435:MPN851968 MZJ786435:MZJ851968 NJF786435:NJF851968 NTB786435:NTB851968 OCX786435:OCX851968 OMT786435:OMT851968 OWP786435:OWP851968 PGL786435:PGL851968 PQH786435:PQH851968 QAD786435:QAD851968 QJZ786435:QJZ851968 QTV786435:QTV851968 RDR786435:RDR851968 RNN786435:RNN851968 RXJ786435:RXJ851968 SHF786435:SHF851968 SRB786435:SRB851968 TAX786435:TAX851968 TKT786435:TKT851968 TUP786435:TUP851968 UEL786435:UEL851968 UOH786435:UOH851968 UYD786435:UYD851968 VHZ786435:VHZ851968 VRV786435:VRV851968 WBR786435:WBR851968 WLN786435:WLN851968 WVJ786435:WVJ851968 B851971:B917504 IX851971:IX917504 ST851971:ST917504 ACP851971:ACP917504 AML851971:AML917504 AWH851971:AWH917504 BGD851971:BGD917504 BPZ851971:BPZ917504 BZV851971:BZV917504 CJR851971:CJR917504 CTN851971:CTN917504 DDJ851971:DDJ917504 DNF851971:DNF917504 DXB851971:DXB917504 EGX851971:EGX917504 EQT851971:EQT917504 FAP851971:FAP917504 FKL851971:FKL917504 FUH851971:FUH917504 GED851971:GED917504 GNZ851971:GNZ917504 GXV851971:GXV917504 HHR851971:HHR917504 HRN851971:HRN917504 IBJ851971:IBJ917504 ILF851971:ILF917504 IVB851971:IVB917504 JEX851971:JEX917504 JOT851971:JOT917504 JYP851971:JYP917504 KIL851971:KIL917504 KSH851971:KSH917504 LCD851971:LCD917504 LLZ851971:LLZ917504 LVV851971:LVV917504 MFR851971:MFR917504 MPN851971:MPN917504 MZJ851971:MZJ917504 NJF851971:NJF917504 NTB851971:NTB917504 OCX851971:OCX917504 OMT851971:OMT917504 OWP851971:OWP917504 PGL851971:PGL917504 PQH851971:PQH917504 QAD851971:QAD917504 QJZ851971:QJZ917504 QTV851971:QTV917504 RDR851971:RDR917504 RNN851971:RNN917504 RXJ851971:RXJ917504 SHF851971:SHF917504 SRB851971:SRB917504 TAX851971:TAX917504 TKT851971:TKT917504 TUP851971:TUP917504 UEL851971:UEL917504 UOH851971:UOH917504 UYD851971:UYD917504 VHZ851971:VHZ917504 VRV851971:VRV917504 WBR851971:WBR917504 WLN851971:WLN917504 WVJ851971:WVJ917504 B917507:B983040 IX917507:IX983040 ST917507:ST983040 ACP917507:ACP983040 AML917507:AML983040 AWH917507:AWH983040 BGD917507:BGD983040 BPZ917507:BPZ983040 BZV917507:BZV983040 CJR917507:CJR983040 CTN917507:CTN983040 DDJ917507:DDJ983040 DNF917507:DNF983040 DXB917507:DXB983040 EGX917507:EGX983040 EQT917507:EQT983040 FAP917507:FAP983040 FKL917507:FKL983040 FUH917507:FUH983040 GED917507:GED983040 GNZ917507:GNZ983040 GXV917507:GXV983040 HHR917507:HHR983040 HRN917507:HRN983040 IBJ917507:IBJ983040 ILF917507:ILF983040 IVB917507:IVB983040 JEX917507:JEX983040 JOT917507:JOT983040 JYP917507:JYP983040 KIL917507:KIL983040 KSH917507:KSH983040 LCD917507:LCD983040 LLZ917507:LLZ983040 LVV917507:LVV983040 MFR917507:MFR983040 MPN917507:MPN983040 MZJ917507:MZJ983040 NJF917507:NJF983040 NTB917507:NTB983040 OCX917507:OCX983040 OMT917507:OMT983040 OWP917507:OWP983040 PGL917507:PGL983040 PQH917507:PQH983040 QAD917507:QAD983040 QJZ917507:QJZ983040 QTV917507:QTV983040 RDR917507:RDR983040 RNN917507:RNN983040 RXJ917507:RXJ983040 SHF917507:SHF983040 SRB917507:SRB983040 TAX917507:TAX983040 TKT917507:TKT983040 TUP917507:TUP983040 UEL917507:UEL983040 UOH917507:UOH983040 UYD917507:UYD983040 VHZ917507:VHZ983040 VRV917507:VRV983040 WBR917507:WBR983040 WLN917507:WLN983040 WVJ917507:WVJ983040 B983043:B1048576 IX983043:IX1048576 ST983043:ST1048576 ACP983043:ACP1048576 AML983043:AML1048576 AWH983043:AWH1048576 BGD983043:BGD1048576 BPZ983043:BPZ1048576 BZV983043:BZV1048576 CJR983043:CJR1048576 CTN983043:CTN1048576 DDJ983043:DDJ1048576 DNF983043:DNF1048576 DXB983043:DXB1048576 EGX983043:EGX1048576 EQT983043:EQT1048576 FAP983043:FAP1048576 FKL983043:FKL1048576 FUH983043:FUH1048576 GED983043:GED1048576 GNZ983043:GNZ1048576 GXV983043:GXV1048576 HHR983043:HHR1048576 HRN983043:HRN1048576 IBJ983043:IBJ1048576 ILF983043:ILF1048576 IVB983043:IVB1048576 JEX983043:JEX1048576 JOT983043:JOT1048576 JYP983043:JYP1048576 KIL983043:KIL1048576 KSH983043:KSH1048576 LCD983043:LCD1048576 LLZ983043:LLZ1048576 LVV983043:LVV1048576 MFR983043:MFR1048576 MPN983043:MPN1048576 MZJ983043:MZJ1048576 NJF983043:NJF1048576 NTB983043:NTB1048576 OCX983043:OCX1048576 OMT983043:OMT1048576 OWP983043:OWP1048576 PGL983043:PGL1048576 PQH983043:PQH1048576 QAD983043:QAD1048576 QJZ983043:QJZ1048576 QTV983043:QTV1048576 RDR983043:RDR1048576 RNN983043:RNN1048576 RXJ983043:RXJ1048576 SHF983043:SHF1048576 SRB983043:SRB1048576 TAX983043:TAX1048576 TKT983043:TKT1048576 TUP983043:TUP1048576 UEL983043:UEL1048576 UOH983043:UOH1048576 UYD983043:UYD1048576 VHZ983043:VHZ1048576 VRV983043:VRV1048576 WBR983043:WBR1048576 WLN983043:WLN1048576 WVJ983043:WVJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！" sqref="RDQ983043:RDQ1048576 IW3:IW65536 SS3:SS65536 ACO3:ACO65536 AMK3:AMK65536 AWG3:AWG65536 BGC3:BGC65536 BPY3:BPY65536 BZU3:BZU65536 CJQ3:CJQ65536 CTM3:CTM65536 DDI3:DDI65536 DNE3:DNE65536 DXA3:DXA65536 EGW3:EGW65536 EQS3:EQS65536 FAO3:FAO65536 FKK3:FKK65536 FUG3:FUG65536 GEC3:GEC65536 GNY3:GNY65536 GXU3:GXU65536 HHQ3:HHQ65536 HRM3:HRM65536 IBI3:IBI65536 ILE3:ILE65536 IVA3:IVA65536 JEW3:JEW65536 JOS3:JOS65536 JYO3:JYO65536 KIK3:KIK65536 KSG3:KSG65536 LCC3:LCC65536 LLY3:LLY65536 LVU3:LVU65536 MFQ3:MFQ65536 MPM3:MPM65536 MZI3:MZI65536 NJE3:NJE65536 NTA3:NTA65536 OCW3:OCW65536 OMS3:OMS65536 OWO3:OWO65536 PGK3:PGK65536 PQG3:PQG65536 QAC3:QAC65536 QJY3:QJY65536 QTU3:QTU65536 RDQ3:RDQ65536 RNM3:RNM65536 RXI3:RXI65536 SHE3:SHE65536 SRA3:SRA65536 TAW3:TAW65536 TKS3:TKS65536 TUO3:TUO65536 UEK3:UEK65536 UOG3:UOG65536 UYC3:UYC65536 VHY3:VHY65536 VRU3:VRU65536 WBQ3:WBQ65536 WLM3:WLM65536 WVI3:WVI65536 RNM983043:RNM1048576 IW65539:IW131072 SS65539:SS131072 ACO65539:ACO131072 AMK65539:AMK131072 AWG65539:AWG131072 BGC65539:BGC131072 BPY65539:BPY131072 BZU65539:BZU131072 CJQ65539:CJQ131072 CTM65539:CTM131072 DDI65539:DDI131072 DNE65539:DNE131072 DXA65539:DXA131072 EGW65539:EGW131072 EQS65539:EQS131072 FAO65539:FAO131072 FKK65539:FKK131072 FUG65539:FUG131072 GEC65539:GEC131072 GNY65539:GNY131072 GXU65539:GXU131072 HHQ65539:HHQ131072 HRM65539:HRM131072 IBI65539:IBI131072 ILE65539:ILE131072 IVA65539:IVA131072 JEW65539:JEW131072 JOS65539:JOS131072 JYO65539:JYO131072 KIK65539:KIK131072 KSG65539:KSG131072 LCC65539:LCC131072 LLY65539:LLY131072 LVU65539:LVU131072 MFQ65539:MFQ131072 MPM65539:MPM131072 MZI65539:MZI131072 NJE65539:NJE131072 NTA65539:NTA131072 OCW65539:OCW131072 OMS65539:OMS131072 OWO65539:OWO131072 PGK65539:PGK131072 PQG65539:PQG131072 QAC65539:QAC131072 QJY65539:QJY131072 QTU65539:QTU131072 RDQ65539:RDQ131072 RNM65539:RNM131072 RXI65539:RXI131072 SHE65539:SHE131072 SRA65539:SRA131072 TAW65539:TAW131072 TKS65539:TKS131072 TUO65539:TUO131072 UEK65539:UEK131072 UOG65539:UOG131072 UYC65539:UYC131072 VHY65539:VHY131072 VRU65539:VRU131072 WBQ65539:WBQ131072 WLM65539:WLM131072 WVI65539:WVI131072 RXI983043:RXI1048576 IW131075:IW196608 SS131075:SS196608 ACO131075:ACO196608 AMK131075:AMK196608 AWG131075:AWG196608 BGC131075:BGC196608 BPY131075:BPY196608 BZU131075:BZU196608 CJQ131075:CJQ196608 CTM131075:CTM196608 DDI131075:DDI196608 DNE131075:DNE196608 DXA131075:DXA196608 EGW131075:EGW196608 EQS131075:EQS196608 FAO131075:FAO196608 FKK131075:FKK196608 FUG131075:FUG196608 GEC131075:GEC196608 GNY131075:GNY196608 GXU131075:GXU196608 HHQ131075:HHQ196608 HRM131075:HRM196608 IBI131075:IBI196608 ILE131075:ILE196608 IVA131075:IVA196608 JEW131075:JEW196608 JOS131075:JOS196608 JYO131075:JYO196608 KIK131075:KIK196608 KSG131075:KSG196608 LCC131075:LCC196608 LLY131075:LLY196608 LVU131075:LVU196608 MFQ131075:MFQ196608 MPM131075:MPM196608 MZI131075:MZI196608 NJE131075:NJE196608 NTA131075:NTA196608 OCW131075:OCW196608 OMS131075:OMS196608 OWO131075:OWO196608 PGK131075:PGK196608 PQG131075:PQG196608 QAC131075:QAC196608 QJY131075:QJY196608 QTU131075:QTU196608 RDQ131075:RDQ196608 RNM131075:RNM196608 RXI131075:RXI196608 SHE131075:SHE196608 SRA131075:SRA196608 TAW131075:TAW196608 TKS131075:TKS196608 TUO131075:TUO196608 UEK131075:UEK196608 UOG131075:UOG196608 UYC131075:UYC196608 VHY131075:VHY196608 VRU131075:VRU196608 WBQ131075:WBQ196608 WLM131075:WLM196608 WVI131075:WVI196608 SHE983043:SHE1048576 IW196611:IW262144 SS196611:SS262144 ACO196611:ACO262144 AMK196611:AMK262144 AWG196611:AWG262144 BGC196611:BGC262144 BPY196611:BPY262144 BZU196611:BZU262144 CJQ196611:CJQ262144 CTM196611:CTM262144 DDI196611:DDI262144 DNE196611:DNE262144 DXA196611:DXA262144 EGW196611:EGW262144 EQS196611:EQS262144 FAO196611:FAO262144 FKK196611:FKK262144 FUG196611:FUG262144 GEC196611:GEC262144 GNY196611:GNY262144 GXU196611:GXU262144 HHQ196611:HHQ262144 HRM196611:HRM262144 IBI196611:IBI262144 ILE196611:ILE262144 IVA196611:IVA262144 JEW196611:JEW262144 JOS196611:JOS262144 JYO196611:JYO262144 KIK196611:KIK262144 KSG196611:KSG262144 LCC196611:LCC262144 LLY196611:LLY262144 LVU196611:LVU262144 MFQ196611:MFQ262144 MPM196611:MPM262144 MZI196611:MZI262144 NJE196611:NJE262144 NTA196611:NTA262144 OCW196611:OCW262144 OMS196611:OMS262144 OWO196611:OWO262144 PGK196611:PGK262144 PQG196611:PQG262144 QAC196611:QAC262144 QJY196611:QJY262144 QTU196611:QTU262144 RDQ196611:RDQ262144 RNM196611:RNM262144 RXI196611:RXI262144 SHE196611:SHE262144 SRA196611:SRA262144 TAW196611:TAW262144 TKS196611:TKS262144 TUO196611:TUO262144 UEK196611:UEK262144 UOG196611:UOG262144 UYC196611:UYC262144 VHY196611:VHY262144 VRU196611:VRU262144 WBQ196611:WBQ262144 WLM196611:WLM262144 WVI196611:WVI262144 SRA983043:SRA1048576 IW262147:IW327680 SS262147:SS327680 ACO262147:ACO327680 AMK262147:AMK327680 AWG262147:AWG327680 BGC262147:BGC327680 BPY262147:BPY327680 BZU262147:BZU327680 CJQ262147:CJQ327680 CTM262147:CTM327680 DDI262147:DDI327680 DNE262147:DNE327680 DXA262147:DXA327680 EGW262147:EGW327680 EQS262147:EQS327680 FAO262147:FAO327680 FKK262147:FKK327680 FUG262147:FUG327680 GEC262147:GEC327680 GNY262147:GNY327680 GXU262147:GXU327680 HHQ262147:HHQ327680 HRM262147:HRM327680 IBI262147:IBI327680 ILE262147:ILE327680 IVA262147:IVA327680 JEW262147:JEW327680 JOS262147:JOS327680 JYO262147:JYO327680 KIK262147:KIK327680 KSG262147:KSG327680 LCC262147:LCC327680 LLY262147:LLY327680 LVU262147:LVU327680 MFQ262147:MFQ327680 MPM262147:MPM327680 MZI262147:MZI327680 NJE262147:NJE327680 NTA262147:NTA327680 OCW262147:OCW327680 OMS262147:OMS327680 OWO262147:OWO327680 PGK262147:PGK327680 PQG262147:PQG327680 QAC262147:QAC327680 QJY262147:QJY327680 QTU262147:QTU327680 RDQ262147:RDQ327680 RNM262147:RNM327680 RXI262147:RXI327680 SHE262147:SHE327680 SRA262147:SRA327680 TAW262147:TAW327680 TKS262147:TKS327680 TUO262147:TUO327680 UEK262147:UEK327680 UOG262147:UOG327680 UYC262147:UYC327680 VHY262147:VHY327680 VRU262147:VRU327680 WBQ262147:WBQ327680 WLM262147:WLM327680 WVI262147:WVI327680 TAW983043:TAW1048576 IW327683:IW393216 SS327683:SS393216 ACO327683:ACO393216 AMK327683:AMK393216 AWG327683:AWG393216 BGC327683:BGC393216 BPY327683:BPY393216 BZU327683:BZU393216 CJQ327683:CJQ393216 CTM327683:CTM393216 DDI327683:DDI393216 DNE327683:DNE393216 DXA327683:DXA393216 EGW327683:EGW393216 EQS327683:EQS393216 FAO327683:FAO393216 FKK327683:FKK393216 FUG327683:FUG393216 GEC327683:GEC393216 GNY327683:GNY393216 GXU327683:GXU393216 HHQ327683:HHQ393216 HRM327683:HRM393216 IBI327683:IBI393216 ILE327683:ILE393216 IVA327683:IVA393216 JEW327683:JEW393216 JOS327683:JOS393216 JYO327683:JYO393216 KIK327683:KIK393216 KSG327683:KSG393216 LCC327683:LCC393216 LLY327683:LLY393216 LVU327683:LVU393216 MFQ327683:MFQ393216 MPM327683:MPM393216 MZI327683:MZI393216 NJE327683:NJE393216 NTA327683:NTA393216 OCW327683:OCW393216 OMS327683:OMS393216 OWO327683:OWO393216 PGK327683:PGK393216 PQG327683:PQG393216 QAC327683:QAC393216 QJY327683:QJY393216 QTU327683:QTU393216 RDQ327683:RDQ393216 RNM327683:RNM393216 RXI327683:RXI393216 SHE327683:SHE393216 SRA327683:SRA393216 TAW327683:TAW393216 TKS327683:TKS393216 TUO327683:TUO393216 UEK327683:UEK393216 UOG327683:UOG393216 UYC327683:UYC393216 VHY327683:VHY393216 VRU327683:VRU393216 WBQ327683:WBQ393216 WLM327683:WLM393216 WVI327683:WVI393216 TKS983043:TKS1048576 IW393219:IW458752 SS393219:SS458752 ACO393219:ACO458752 AMK393219:AMK458752 AWG393219:AWG458752 BGC393219:BGC458752 BPY393219:BPY458752 BZU393219:BZU458752 CJQ393219:CJQ458752 CTM393219:CTM458752 DDI393219:DDI458752 DNE393219:DNE458752 DXA393219:DXA458752 EGW393219:EGW458752 EQS393219:EQS458752 FAO393219:FAO458752 FKK393219:FKK458752 FUG393219:FUG458752 GEC393219:GEC458752 GNY393219:GNY458752 GXU393219:GXU458752 HHQ393219:HHQ458752 HRM393219:HRM458752 IBI393219:IBI458752 ILE393219:ILE458752 IVA393219:IVA458752 JEW393219:JEW458752 JOS393219:JOS458752 JYO393219:JYO458752 KIK393219:KIK458752 KSG393219:KSG458752 LCC393219:LCC458752 LLY393219:LLY458752 LVU393219:LVU458752 MFQ393219:MFQ458752 MPM393219:MPM458752 MZI393219:MZI458752 NJE393219:NJE458752 NTA393219:NTA458752 OCW393219:OCW458752 OMS393219:OMS458752 OWO393219:OWO458752 PGK393219:PGK458752 PQG393219:PQG458752 QAC393219:QAC458752 QJY393219:QJY458752 QTU393219:QTU458752 RDQ393219:RDQ458752 RNM393219:RNM458752 RXI393219:RXI458752 SHE393219:SHE458752 SRA393219:SRA458752 TAW393219:TAW458752 TKS393219:TKS458752 TUO393219:TUO458752 UEK393219:UEK458752 UOG393219:UOG458752 UYC393219:UYC458752 VHY393219:VHY458752 VRU393219:VRU458752 WBQ393219:WBQ458752 WLM393219:WLM458752 WVI393219:WVI458752 TUO983043:TUO1048576 IW458755:IW524288 SS458755:SS524288 ACO458755:ACO524288 AMK458755:AMK524288 AWG458755:AWG524288 BGC458755:BGC524288 BPY458755:BPY524288 BZU458755:BZU524288 CJQ458755:CJQ524288 CTM458755:CTM524288 DDI458755:DDI524288 DNE458755:DNE524288 DXA458755:DXA524288 EGW458755:EGW524288 EQS458755:EQS524288 FAO458755:FAO524288 FKK458755:FKK524288 FUG458755:FUG524288 GEC458755:GEC524288 GNY458755:GNY524288 GXU458755:GXU524288 HHQ458755:HHQ524288 HRM458755:HRM524288 IBI458755:IBI524288 ILE458755:ILE524288 IVA458755:IVA524288 JEW458755:JEW524288 JOS458755:JOS524288 JYO458755:JYO524288 KIK458755:KIK524288 KSG458755:KSG524288 LCC458755:LCC524288 LLY458755:LLY524288 LVU458755:LVU524288 MFQ458755:MFQ524288 MPM458755:MPM524288 MZI458755:MZI524288 NJE458755:NJE524288 NTA458755:NTA524288 OCW458755:OCW524288 OMS458755:OMS524288 OWO458755:OWO524288 PGK458755:PGK524288 PQG458755:PQG524288 QAC458755:QAC524288 QJY458755:QJY524288 QTU458755:QTU524288 RDQ458755:RDQ524288 RNM458755:RNM524288 RXI458755:RXI524288 SHE458755:SHE524288 SRA458755:SRA524288 TAW458755:TAW524288 TKS458755:TKS524288 TUO458755:TUO524288 UEK458755:UEK524288 UOG458755:UOG524288 UYC458755:UYC524288 VHY458755:VHY524288 VRU458755:VRU524288 WBQ458755:WBQ524288 WLM458755:WLM524288 WVI458755:WVI524288 UEK983043:UEK1048576 IW524291:IW589824 SS524291:SS589824 ACO524291:ACO589824 AMK524291:AMK589824 AWG524291:AWG589824 BGC524291:BGC589824 BPY524291:BPY589824 BZU524291:BZU589824 CJQ524291:CJQ589824 CTM524291:CTM589824 DDI524291:DDI589824 DNE524291:DNE589824 DXA524291:DXA589824 EGW524291:EGW589824 EQS524291:EQS589824 FAO524291:FAO589824 FKK524291:FKK589824 FUG524291:FUG589824 GEC524291:GEC589824 GNY524291:GNY589824 GXU524291:GXU589824 HHQ524291:HHQ589824 HRM524291:HRM589824 IBI524291:IBI589824 ILE524291:ILE589824 IVA524291:IVA589824 JEW524291:JEW589824 JOS524291:JOS589824 JYO524291:JYO589824 KIK524291:KIK589824 KSG524291:KSG589824 LCC524291:LCC589824 LLY524291:LLY589824 LVU524291:LVU589824 MFQ524291:MFQ589824 MPM524291:MPM589824 MZI524291:MZI589824 NJE524291:NJE589824 NTA524291:NTA589824 OCW524291:OCW589824 OMS524291:OMS589824 OWO524291:OWO589824 PGK524291:PGK589824 PQG524291:PQG589824 QAC524291:QAC589824 QJY524291:QJY589824 QTU524291:QTU589824 RDQ524291:RDQ589824 RNM524291:RNM589824 RXI524291:RXI589824 SHE524291:SHE589824 SRA524291:SRA589824 TAW524291:TAW589824 TKS524291:TKS589824 TUO524291:TUO589824 UEK524291:UEK589824 UOG524291:UOG589824 UYC524291:UYC589824 VHY524291:VHY589824 VRU524291:VRU589824 WBQ524291:WBQ589824 WLM524291:WLM589824 WVI524291:WVI589824 UOG983043:UOG1048576 IW589827:IW655360 SS589827:SS655360 ACO589827:ACO655360 AMK589827:AMK655360 AWG589827:AWG655360 BGC589827:BGC655360 BPY589827:BPY655360 BZU589827:BZU655360 CJQ589827:CJQ655360 CTM589827:CTM655360 DDI589827:DDI655360 DNE589827:DNE655360 DXA589827:DXA655360 EGW589827:EGW655360 EQS589827:EQS655360 FAO589827:FAO655360 FKK589827:FKK655360 FUG589827:FUG655360 GEC589827:GEC655360 GNY589827:GNY655360 GXU589827:GXU655360 HHQ589827:HHQ655360 HRM589827:HRM655360 IBI589827:IBI655360 ILE589827:ILE655360 IVA589827:IVA655360 JEW589827:JEW655360 JOS589827:JOS655360 JYO589827:JYO655360 KIK589827:KIK655360 KSG589827:KSG655360 LCC589827:LCC655360 LLY589827:LLY655360 LVU589827:LVU655360 MFQ589827:MFQ655360 MPM589827:MPM655360 MZI589827:MZI655360 NJE589827:NJE655360 NTA589827:NTA655360 OCW589827:OCW655360 OMS589827:OMS655360 OWO589827:OWO655360 PGK589827:PGK655360 PQG589827:PQG655360 QAC589827:QAC655360 QJY589827:QJY655360 QTU589827:QTU655360 RDQ589827:RDQ655360 RNM589827:RNM655360 RXI589827:RXI655360 SHE589827:SHE655360 SRA589827:SRA655360 TAW589827:TAW655360 TKS589827:TKS655360 TUO589827:TUO655360 UEK589827:UEK655360 UOG589827:UOG655360 UYC589827:UYC655360 VHY589827:VHY655360 VRU589827:VRU655360 WBQ589827:WBQ655360 WLM589827:WLM655360 WVI589827:WVI655360 UYC983043:UYC1048576 IW655363:IW720896 SS655363:SS720896 ACO655363:ACO720896 AMK655363:AMK720896 AWG655363:AWG720896 BGC655363:BGC720896 BPY655363:BPY720896 BZU655363:BZU720896 CJQ655363:CJQ720896 CTM655363:CTM720896 DDI655363:DDI720896 DNE655363:DNE720896 DXA655363:DXA720896 EGW655363:EGW720896 EQS655363:EQS720896 FAO655363:FAO720896 FKK655363:FKK720896 FUG655363:FUG720896 GEC655363:GEC720896 GNY655363:GNY720896 GXU655363:GXU720896 HHQ655363:HHQ720896 HRM655363:HRM720896 IBI655363:IBI720896 ILE655363:ILE720896 IVA655363:IVA720896 JEW655363:JEW720896 JOS655363:JOS720896 JYO655363:JYO720896 KIK655363:KIK720896 KSG655363:KSG720896 LCC655363:LCC720896 LLY655363:LLY720896 LVU655363:LVU720896 MFQ655363:MFQ720896 MPM655363:MPM720896 MZI655363:MZI720896 NJE655363:NJE720896 NTA655363:NTA720896 OCW655363:OCW720896 OMS655363:OMS720896 OWO655363:OWO720896 PGK655363:PGK720896 PQG655363:PQG720896 QAC655363:QAC720896 QJY655363:QJY720896 QTU655363:QTU720896 RDQ655363:RDQ720896 RNM655363:RNM720896 RXI655363:RXI720896 SHE655363:SHE720896 SRA655363:SRA720896 TAW655363:TAW720896 TKS655363:TKS720896 TUO655363:TUO720896 UEK655363:UEK720896 UOG655363:UOG720896 UYC655363:UYC720896 VHY655363:VHY720896 VRU655363:VRU720896 WBQ655363:WBQ720896 WLM655363:WLM720896 WVI655363:WVI720896 VHY983043:VHY1048576 IW720899:IW786432 SS720899:SS786432 ACO720899:ACO786432 AMK720899:AMK786432 AWG720899:AWG786432 BGC720899:BGC786432 BPY720899:BPY786432 BZU720899:BZU786432 CJQ720899:CJQ786432 CTM720899:CTM786432 DDI720899:DDI786432 DNE720899:DNE786432 DXA720899:DXA786432 EGW720899:EGW786432 EQS720899:EQS786432 FAO720899:FAO786432 FKK720899:FKK786432 FUG720899:FUG786432 GEC720899:GEC786432 GNY720899:GNY786432 GXU720899:GXU786432 HHQ720899:HHQ786432 HRM720899:HRM786432 IBI720899:IBI786432 ILE720899:ILE786432 IVA720899:IVA786432 JEW720899:JEW786432 JOS720899:JOS786432 JYO720899:JYO786432 KIK720899:KIK786432 KSG720899:KSG786432 LCC720899:LCC786432 LLY720899:LLY786432 LVU720899:LVU786432 MFQ720899:MFQ786432 MPM720899:MPM786432 MZI720899:MZI786432 NJE720899:NJE786432 NTA720899:NTA786432 OCW720899:OCW786432 OMS720899:OMS786432 OWO720899:OWO786432 PGK720899:PGK786432 PQG720899:PQG786432 QAC720899:QAC786432 QJY720899:QJY786432 QTU720899:QTU786432 RDQ720899:RDQ786432 RNM720899:RNM786432 RXI720899:RXI786432 SHE720899:SHE786432 SRA720899:SRA786432 TAW720899:TAW786432 TKS720899:TKS786432 TUO720899:TUO786432 UEK720899:UEK786432 UOG720899:UOG786432 UYC720899:UYC786432 VHY720899:VHY786432 VRU720899:VRU786432 WBQ720899:WBQ786432 WLM720899:WLM786432 WVI720899:WVI786432 VRU983043:VRU1048576 IW786435:IW851968 SS786435:SS851968 ACO786435:ACO851968 AMK786435:AMK851968 AWG786435:AWG851968 BGC786435:BGC851968 BPY786435:BPY851968 BZU786435:BZU851968 CJQ786435:CJQ851968 CTM786435:CTM851968 DDI786435:DDI851968 DNE786435:DNE851968 DXA786435:DXA851968 EGW786435:EGW851968 EQS786435:EQS851968 FAO786435:FAO851968 FKK786435:FKK851968 FUG786435:FUG851968 GEC786435:GEC851968 GNY786435:GNY851968 GXU786435:GXU851968 HHQ786435:HHQ851968 HRM786435:HRM851968 IBI786435:IBI851968 ILE786435:ILE851968 IVA786435:IVA851968 JEW786435:JEW851968 JOS786435:JOS851968 JYO786435:JYO851968 KIK786435:KIK851968 KSG786435:KSG851968 LCC786435:LCC851968 LLY786435:LLY851968 LVU786435:LVU851968 MFQ786435:MFQ851968 MPM786435:MPM851968 MZI786435:MZI851968 NJE786435:NJE851968 NTA786435:NTA851968 OCW786435:OCW851968 OMS786435:OMS851968 OWO786435:OWO851968 PGK786435:PGK851968 PQG786435:PQG851968 QAC786435:QAC851968 QJY786435:QJY851968 QTU786435:QTU851968 RDQ786435:RDQ851968 RNM786435:RNM851968 RXI786435:RXI851968 SHE786435:SHE851968 SRA786435:SRA851968 TAW786435:TAW851968 TKS786435:TKS851968 TUO786435:TUO851968 UEK786435:UEK851968 UOG786435:UOG851968 UYC786435:UYC851968 VHY786435:VHY851968 VRU786435:VRU851968 WBQ786435:WBQ851968 WLM786435:WLM851968 WVI786435:WVI851968 WBQ983043:WBQ1048576 IW851971:IW917504 SS851971:SS917504 ACO851971:ACO917504 AMK851971:AMK917504 AWG851971:AWG917504 BGC851971:BGC917504 BPY851971:BPY917504 BZU851971:BZU917504 CJQ851971:CJQ917504 CTM851971:CTM917504 DDI851971:DDI917504 DNE851971:DNE917504 DXA851971:DXA917504 EGW851971:EGW917504 EQS851971:EQS917504 FAO851971:FAO917504 FKK851971:FKK917504 FUG851971:FUG917504 GEC851971:GEC917504 GNY851971:GNY917504 GXU851971:GXU917504 HHQ851971:HHQ917504 HRM851971:HRM917504 IBI851971:IBI917504 ILE851971:ILE917504 IVA851971:IVA917504 JEW851971:JEW917504 JOS851971:JOS917504 JYO851971:JYO917504 KIK851971:KIK917504 KSG851971:KSG917504 LCC851971:LCC917504 LLY851971:LLY917504 LVU851971:LVU917504 MFQ851971:MFQ917504 MPM851971:MPM917504 MZI851971:MZI917504 NJE851971:NJE917504 NTA851971:NTA917504 OCW851971:OCW917504 OMS851971:OMS917504 OWO851971:OWO917504 PGK851971:PGK917504 PQG851971:PQG917504 QAC851971:QAC917504 QJY851971:QJY917504 QTU851971:QTU917504 RDQ851971:RDQ917504 RNM851971:RNM917504 RXI851971:RXI917504 SHE851971:SHE917504 SRA851971:SRA917504 TAW851971:TAW917504 TKS851971:TKS917504 TUO851971:TUO917504 UEK851971:UEK917504 UOG851971:UOG917504 UYC851971:UYC917504 VHY851971:VHY917504 VRU851971:VRU917504 WBQ851971:WBQ917504 WLM851971:WLM917504 WVI851971:WVI917504 WLM983043:WLM1048576 IW917507:IW983040 SS917507:SS983040 ACO917507:ACO983040 AMK917507:AMK983040 AWG917507:AWG983040 BGC917507:BGC983040 BPY917507:BPY983040 BZU917507:BZU983040 CJQ917507:CJQ983040 CTM917507:CTM983040 DDI917507:DDI983040 DNE917507:DNE983040 DXA917507:DXA983040 EGW917507:EGW983040 EQS917507:EQS983040 FAO917507:FAO983040 FKK917507:FKK983040 FUG917507:FUG983040 GEC917507:GEC983040 GNY917507:GNY983040 GXU917507:GXU983040 HHQ917507:HHQ983040 HRM917507:HRM983040 IBI917507:IBI983040 ILE917507:ILE983040 IVA917507:IVA983040 JEW917507:JEW983040 JOS917507:JOS983040 JYO917507:JYO983040 KIK917507:KIK983040 KSG917507:KSG983040 LCC917507:LCC983040 LLY917507:LLY983040 LVU917507:LVU983040 MFQ917507:MFQ983040 MPM917507:MPM983040 MZI917507:MZI983040 NJE917507:NJE983040 NTA917507:NTA983040 OCW917507:OCW983040 OMS917507:OMS983040 OWO917507:OWO983040 PGK917507:PGK983040 PQG917507:PQG983040 QAC917507:QAC983040 QJY917507:QJY983040 QTU917507:QTU983040 RDQ917507:RDQ983040 RNM917507:RNM983040 RXI917507:RXI983040 SHE917507:SHE983040 SRA917507:SRA983040 TAW917507:TAW983040 TKS917507:TKS983040 TUO917507:TUO983040 UEK917507:UEK983040 UOG917507:UOG983040 UYC917507:UYC983040 VHY917507:VHY983040 VRU917507:VRU983040 WBQ917507:WBQ983040 WLM917507:WLM983040 WVI917507:WVI983040 WVI983043:WVI1048576 IW983043:IW1048576 SS983043:SS1048576 ACO983043:ACO1048576 AMK983043:AMK1048576 AWG983043:AWG1048576 BGC983043:BGC1048576 BPY983043:BPY1048576 BZU983043:BZU1048576 CJQ983043:CJQ1048576 CTM983043:CTM1048576 DDI983043:DDI1048576 DNE983043:DNE1048576 DXA983043:DXA1048576 EGW983043:EGW1048576 EQS983043:EQS1048576 FAO983043:FAO1048576 FKK983043:FKK1048576 FUG983043:FUG1048576 GEC983043:GEC1048576 GNY983043:GNY1048576 GXU983043:GXU1048576 HHQ983043:HHQ1048576 HRM983043:HRM1048576 IBI983043:IBI1048576 ILE983043:ILE1048576 IVA983043:IVA1048576 JEW983043:JEW1048576 JOS983043:JOS1048576 JYO983043:JYO1048576 KIK983043:KIK1048576 KSG983043:KSG1048576 LCC983043:LCC1048576 LLY983043:LLY1048576 LVU983043:LVU1048576 MFQ983043:MFQ1048576 MPM983043:MPM1048576 MZI983043:MZI1048576 NJE983043:NJE1048576 NTA983043:NTA1048576 OCW983043:OCW1048576 OMS983043:OMS1048576 OWO983043:OWO1048576 PGK983043:PGK1048576 PQG983043:PQG1048576 QAC983043:QAC1048576 QJY983043:QJY1048576 QTU983043:QTU1048576">
       <formula1>hca_buildings.building_type</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="数据格式不正确！" sqref="E1:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="数据格式不正确！" sqref="F1:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！" sqref="C1">
+      <formula1>INDIRECT($B:$B)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请先选择建（构）筑类别，再选择下拉选中合适的值！" sqref="C3:C1048576">
+      <formula1>INDIRECT(B3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！" sqref="B1">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="下拉选错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选提示" prompt="请使用下拉方式选择合适的值！" sqref="H3:H1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！">
+          <x14:formula1>
+            <xm:f>excelHideSheet!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1 D3:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！">
+          <x14:formula1>
+            <xm:f>excelHideSheet!$B$1:$D$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B18" sqref="B18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="10" width="21.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="6">
+        <v>43716</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="6">
+        <v>43716</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="6">
+        <v>43716</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1"/>
+    <row r="12" spans="1:10" ht="36" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="A12:J12" name="区域1"/>
+  </protectedRanges>
+  <mergeCells count="10">
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！" sqref="B2 C1:C2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="数据格式不正确！" sqref="F1:F5"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="数据格式不正确！" sqref="E3:E5">
+      <formula1>-4294967296</formula1>
+      <formula2>4294967296</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="数据格式不正确！" sqref="J3:J5">
+      <formula1>1</formula1>
+      <formula2>2958320</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！" sqref="C3:C5">
+      <formula1>INDIRECT(B3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！">
+          <x14:formula1>
+            <xm:f>excelHideSheet!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1 D3:D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！">
+          <x14:formula1>
+            <xm:f>excelHideSheet!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="选择错误提示" error="你输入的值未在备选列表中，请下拉选择合适的值！" promptTitle="下拉选择提示" prompt="请使用下拉方式选择合适的值！">
+          <x14:formula1>
+            <xm:f>excelHideSheet!$B$1:$D$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>